--- a/SimulationStudyData/Model5/SimCase29_Yobs_SimRun4.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Yobs_SimRun4.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.905033374847</v>
+        <v>9.95485687435991</v>
       </c>
       <c r="B2" t="n">
-        <v>9.80603627744438</v>
+        <v>12.3048339869297</v>
       </c>
       <c r="C2" t="n">
-        <v>13.0515390883057</v>
+        <v>11.4777466541222</v>
       </c>
       <c r="D2" t="n">
-        <v>14.1791331342517</v>
+        <v>12.1711627639097</v>
       </c>
       <c r="E2" t="n">
-        <v>13.7747643474731</v>
+        <v>14.2679946432358</v>
       </c>
       <c r="F2" t="n">
-        <v>14.9400360368892</v>
+        <v>14.1338460520575</v>
       </c>
       <c r="G2" t="n">
-        <v>16.5830119829082</v>
+        <v>14.0531283224149</v>
       </c>
       <c r="H2" t="n">
-        <v>16.1127993375653</v>
+        <v>17.769166465286</v>
       </c>
       <c r="I2" t="n">
-        <v>18.1819142207592</v>
+        <v>18.0243475335087</v>
       </c>
       <c r="J2" t="n">
-        <v>18.8564557729359</v>
+        <v>18.7043296148949</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.95020273926776</v>
+        <v>11.2496340138875</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.69746557207265</v>
+        <v>11.0656950554204</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.93810696929683</v>
+        <v>11.9443059551836</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.28179476966211</v>
+        <v>12.9795389288611</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.81864864542089</v>
+        <v>13.7877902814273</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.75321676431727</v>
+        <v>15.6596435272307</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.82389797539621</v>
+        <v>16.6854628881886</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.41767468913519</v>
+        <v>16.8675897637453</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.9177802604832</v>
+        <v>17.3056912609669</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.9082526282159</v>
+        <v>17.948633747486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.46974412905712</v>
+        <v>10.8265695047975</v>
       </c>
       <c r="B4" t="n">
-        <v>11.5814418810598</v>
+        <v>10.452975390509</v>
       </c>
       <c r="C4" t="n">
-        <v>12.5099110067002</v>
+        <v>12.6149547700026</v>
       </c>
       <c r="D4" t="n">
-        <v>13.4530928094382</v>
+        <v>13.7284970955105</v>
       </c>
       <c r="E4" t="n">
-        <v>14.1588323831679</v>
+        <v>13.5191845824571</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0865425521458</v>
+        <v>14.9795126247964</v>
       </c>
       <c r="G4" t="n">
-        <v>17.9491482499317</v>
+        <v>15.9653706340522</v>
       </c>
       <c r="H4" t="n">
-        <v>16.926241046864</v>
+        <v>16.7033800075009</v>
       </c>
       <c r="I4" t="n">
-        <v>18.5806316041391</v>
+        <v>17.4330330684858</v>
       </c>
       <c r="J4" t="n">
-        <v>19.1992718157809</v>
+        <v>19.8146588901797</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.87868386186879</v>
+        <v>10.3404622559851</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.49539624693795</v>
+        <v>10.1604042101148</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.72361518317649</v>
+        <v>12.2634347781417</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.92229628617419</v>
+        <v>12.6976672051564</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.7627567613401</v>
+        <v>14.4311148790791</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.28152614253969</v>
+        <v>14.1173984309004</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.7701086145894</v>
+        <v>15.7420615860156</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.18545606571968</v>
+        <v>17.4343904899026</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.68975645698809</v>
+        <v>17.2425879956118</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.22667740395806</v>
+        <v>19.313497768265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>10.1307206667527</v>
+        <v>-5.07958058692028</v>
       </c>
       <c r="B6" t="n">
-        <v>11.0447262040419</v>
+        <v>-5.71341373131231</v>
       </c>
       <c r="C6" t="n">
-        <v>12.2192864533267</v>
+        <v>-6.04261153933545</v>
       </c>
       <c r="D6" t="n">
-        <v>12.9352610904212</v>
+        <v>-6.90574911024407</v>
       </c>
       <c r="E6" t="n">
-        <v>14.8533887810129</v>
+        <v>-7.05483259823384</v>
       </c>
       <c r="F6" t="n">
-        <v>13.7364741256026</v>
+        <v>-7.49386671681663</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.35768669684458</v>
+        <v>-8.02229128640447</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.83367049731195</v>
+        <v>-8.51691904225561</v>
       </c>
       <c r="I6" t="n">
-        <v>-8.7254724395917</v>
+        <v>-8.62109891478353</v>
       </c>
       <c r="J6" t="n">
-        <v>-10.010918997435</v>
+        <v>-9.81612928312677</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.48911516394228</v>
+        <v>9.81160789589788</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.69224155497923</v>
+        <v>12.0475344015844</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.56106466927286</v>
+        <v>11.3771804223088</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.34537279113937</v>
+        <v>14.0419304527875</v>
       </c>
       <c r="E7" t="n">
-        <v>-7.04824884729396</v>
+        <v>14.0334947125673</v>
       </c>
       <c r="F7" t="n">
-        <v>-7.45331522157693</v>
+        <v>16.0046746265789</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.57812657495498</v>
+        <v>16.7266035613555</v>
       </c>
       <c r="H7" t="n">
-        <v>-8.15666568099533</v>
+        <v>16.482969243124</v>
       </c>
       <c r="I7" t="n">
-        <v>-8.46683672965285</v>
+        <v>19.0507209805213</v>
       </c>
       <c r="J7" t="n">
-        <v>-9.85925274026792</v>
+        <v>18.6725852574961</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10.3035455348669</v>
+        <v>10.1584278830337</v>
       </c>
       <c r="B8" t="n">
-        <v>10.1211489706292</v>
+        <v>10.736680196076</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2410880756613</v>
+        <v>11.7648557307386</v>
       </c>
       <c r="D8" t="n">
-        <v>13.7907722958478</v>
+        <v>12.1739836981834</v>
       </c>
       <c r="E8" t="n">
-        <v>14.2450510057165</v>
+        <v>14.8463512081373</v>
       </c>
       <c r="F8" t="n">
-        <v>15.0919021014596</v>
+        <v>13.7930485575179</v>
       </c>
       <c r="G8" t="n">
-        <v>15.2664268534185</v>
+        <v>15.8550262197203</v>
       </c>
       <c r="H8" t="n">
-        <v>16.702891428868</v>
+        <v>17.2990037178398</v>
       </c>
       <c r="I8" t="n">
-        <v>16.5717175126286</v>
+        <v>18.548357546346</v>
       </c>
       <c r="J8" t="n">
-        <v>17.9187959664138</v>
+        <v>18.9827275355091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.0908656232098</v>
+        <v>9.94901299152239</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.14854670027073</v>
+        <v>10.8027793014676</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.21128267631435</v>
+        <v>11.7624803721781</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.31410102745682</v>
+        <v>12.9109171599062</v>
       </c>
       <c r="E9" t="n">
-        <v>-6.83606313293356</v>
+        <v>13.8090483351234</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.62999635116519</v>
+        <v>14.8163231750783</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.92367570505049</v>
+        <v>16.860909363032</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.26093943348418</v>
+        <v>15.8448840653448</v>
       </c>
       <c r="I9" t="n">
-        <v>-9.12123988373736</v>
+        <v>16.6224342354836</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.47122646120523</v>
+        <v>18.4494103608551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-4.76471957891646</v>
+        <v>10.2421097803407</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.3606062796017</v>
+        <v>10.8764358665665</v>
       </c>
       <c r="C10" t="n">
-        <v>-5.87815427911919</v>
+        <v>11.2616245009307</v>
       </c>
       <c r="D10" t="n">
-        <v>-6.37475684337653</v>
+        <v>13.2909904217565</v>
       </c>
       <c r="E10" t="n">
-        <v>-7.36864007955239</v>
+        <v>13.6998142190195</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.22695546486117</v>
+        <v>15.6208336311626</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.7719855004721</v>
+        <v>16.3237767226272</v>
       </c>
       <c r="H10" t="n">
-        <v>-8.54062756067668</v>
+        <v>17.4315392791931</v>
       </c>
       <c r="I10" t="n">
-        <v>-9.26304349484504</v>
+        <v>19.3345114941244</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.5343199938266</v>
+        <v>17.8762510445424</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10.3691029985778</v>
+        <v>-5.02408422555461</v>
       </c>
       <c r="B11" t="n">
-        <v>11.0705821933971</v>
+        <v>-5.54649186760685</v>
       </c>
       <c r="C11" t="n">
-        <v>11.249759671309</v>
+        <v>-6.21580912054212</v>
       </c>
       <c r="D11" t="n">
-        <v>12.1001277069218</v>
+        <v>-6.90146006758536</v>
       </c>
       <c r="E11" t="n">
-        <v>13.4068827794527</v>
+        <v>-7.08465966724391</v>
       </c>
       <c r="F11" t="n">
-        <v>15.7448209437719</v>
+        <v>-7.20138574412597</v>
       </c>
       <c r="G11" t="n">
-        <v>16.603311484975</v>
+        <v>-7.78450564056359</v>
       </c>
       <c r="H11" t="n">
-        <v>15.829457433753</v>
+        <v>-8.724799562917</v>
       </c>
       <c r="I11" t="n">
-        <v>-9.1361545174256</v>
+        <v>-9.17288680964522</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.51994389683096</v>
+        <v>-9.36024820400074</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>7.13792195963953</v>
+        <v>8.80352005370478</v>
       </c>
       <c r="B12" t="n">
-        <v>10.8873954663979</v>
+        <v>10.2556965982198</v>
       </c>
       <c r="C12" t="n">
-        <v>11.3195679546631</v>
+        <v>11.9978946409642</v>
       </c>
       <c r="D12" t="n">
-        <v>12.5124433382558</v>
+        <v>12.9651543233835</v>
       </c>
       <c r="E12" t="n">
-        <v>14.1310621797157</v>
+        <v>13.3909862790317</v>
       </c>
       <c r="F12" t="n">
-        <v>13.798653977089</v>
+        <v>13.1402843388875</v>
       </c>
       <c r="G12" t="n">
-        <v>15.6798089386133</v>
+        <v>17.3286508028605</v>
       </c>
       <c r="H12" t="n">
-        <v>16.6929883187628</v>
+        <v>16.5867784420905</v>
       </c>
       <c r="I12" t="n">
-        <v>17.8849423947677</v>
+        <v>17.6573234100346</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.49369618272756</v>
+        <v>18.6054213198668</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-4.67506036342079</v>
+        <v>10.190982556847</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.19192016304343</v>
+        <v>-5.8621108454428</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.04193292857655</v>
+        <v>-5.9709402939949</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.53208069626239</v>
+        <v>-6.2974321849361</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.22556757023189</v>
+        <v>-6.1683752917706</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.30064394935132</v>
+        <v>-7.24690986732189</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.94729002893862</v>
+        <v>-7.65783908091406</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.34007559684479</v>
+        <v>-8.52161626875662</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.11880891521203</v>
+        <v>-8.97648942583408</v>
       </c>
       <c r="J13" t="n">
-        <v>-9.42634840013731</v>
+        <v>-9.63507900967494</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-5.22299416539137</v>
+        <v>-5.05498099881943</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.42794605786084</v>
+        <v>-5.46755691709856</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.8931627751316</v>
+        <v>-6.37029807342379</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.24385277171889</v>
+        <v>-6.47266976826787</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.79889555222877</v>
+        <v>-6.80106076438805</v>
       </c>
       <c r="F14" t="n">
-        <v>-7.51463074442172</v>
+        <v>-7.48094152833014</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.55223126356255</v>
+        <v>-7.97455669081971</v>
       </c>
       <c r="H14" t="n">
-        <v>-8.55178473437336</v>
+        <v>-8.86596524384695</v>
       </c>
       <c r="I14" t="n">
-        <v>-8.76695033527331</v>
+        <v>17.8321386733636</v>
       </c>
       <c r="J14" t="n">
-        <v>-9.40346193725325</v>
+        <v>18.5846154640441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>8.98911960317493</v>
+        <v>10.2123876456013</v>
       </c>
       <c r="B15" t="n">
-        <v>11.5602992478973</v>
+        <v>11.7684667844506</v>
       </c>
       <c r="C15" t="n">
-        <v>12.4184093997786</v>
+        <v>12.1254625103962</v>
       </c>
       <c r="D15" t="n">
-        <v>11.9356664941108</v>
+        <v>13.2064169668023</v>
       </c>
       <c r="E15" t="n">
-        <v>13.7305349472298</v>
+        <v>13.0260701554255</v>
       </c>
       <c r="F15" t="n">
-        <v>15.6566072233632</v>
+        <v>15.2312215983252</v>
       </c>
       <c r="G15" t="n">
-        <v>15.4727444041833</v>
+        <v>15.4117439093375</v>
       </c>
       <c r="H15" t="n">
-        <v>17.7980508198982</v>
+        <v>17.125297393708</v>
       </c>
       <c r="I15" t="n">
-        <v>17.6619815912286</v>
+        <v>17.351781539707</v>
       </c>
       <c r="J15" t="n">
-        <v>19.1473587891615</v>
+        <v>19.3977665303982</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>9.72235745932941</v>
+        <v>8.99207813410947</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5805151716443</v>
+        <v>11.4455086865609</v>
       </c>
       <c r="C16" t="n">
-        <v>11.7111633093892</v>
+        <v>12.0092285024811</v>
       </c>
       <c r="D16" t="n">
-        <v>11.5239884649276</v>
+        <v>11.841296951975</v>
       </c>
       <c r="E16" t="n">
-        <v>14.3685543047348</v>
+        <v>13.0994172237559</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.39767556831818</v>
+        <v>15.2569088813851</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.1723903583902</v>
+        <v>14.7985710606652</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.72792351921815</v>
+        <v>16.3350692470952</v>
       </c>
       <c r="I16" t="n">
-        <v>-9.00380016328787</v>
+        <v>17.7288238961049</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.26039429596336</v>
+        <v>18.5636800110343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.01810095907441</v>
+        <v>-5.38524538098792</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.62130904698983</v>
+        <v>-5.25892490527023</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.45190967433265</v>
+        <v>-6.08185030723217</v>
       </c>
       <c r="D17" t="n">
-        <v>-6.31604949430725</v>
+        <v>-6.2435292042465</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.90215671771263</v>
+        <v>-6.85211803820607</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.64888288615595</v>
+        <v>-7.45449148944631</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.00839982342794</v>
+        <v>-7.91066052150241</v>
       </c>
       <c r="H17" t="n">
-        <v>-8.57602157210016</v>
+        <v>-8.58940468246897</v>
       </c>
       <c r="I17" t="n">
-        <v>-9.47626305355716</v>
+        <v>-8.91122658557174</v>
       </c>
       <c r="J17" t="n">
-        <v>-9.34329093961666</v>
+        <v>-9.87545419167479</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.7263884923142</v>
+        <v>9.62798395980053</v>
       </c>
       <c r="B18" t="n">
-        <v>11.3285113288174</v>
+        <v>10.282862087285</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.93193329971217</v>
+        <v>11.1494573794925</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.46322344741245</v>
+        <v>-6.73920882084871</v>
       </c>
       <c r="E18" t="n">
-        <v>-6.76972247552411</v>
+        <v>-6.97202435775881</v>
       </c>
       <c r="F18" t="n">
-        <v>-8.08140562266036</v>
+        <v>-7.9420835301642</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.34601933924043</v>
+        <v>-7.71712071301798</v>
       </c>
       <c r="H18" t="n">
-        <v>-8.56359026506404</v>
+        <v>-8.3889836069049</v>
       </c>
       <c r="I18" t="n">
-        <v>-8.85723265740845</v>
+        <v>-9.23241141310343</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.59828240327232</v>
+        <v>-9.75297151811733</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>10.7389195187835</v>
+        <v>-4.8908388299594</v>
       </c>
       <c r="B19" t="n">
-        <v>11.6451049132193</v>
+        <v>-5.70015724609995</v>
       </c>
       <c r="C19" t="n">
-        <v>12.6449252233157</v>
+        <v>-5.95605259900843</v>
       </c>
       <c r="D19" t="n">
-        <v>12.4832733650113</v>
+        <v>-6.60974704077942</v>
       </c>
       <c r="E19" t="n">
-        <v>14.6826620107011</v>
+        <v>-7.25576408434947</v>
       </c>
       <c r="F19" t="n">
-        <v>14.6382076973796</v>
+        <v>-7.61454047800316</v>
       </c>
       <c r="G19" t="n">
-        <v>16.6472232855754</v>
+        <v>-8.15636057005074</v>
       </c>
       <c r="H19" t="n">
-        <v>17.3805521465828</v>
+        <v>-8.11843142464571</v>
       </c>
       <c r="I19" t="n">
-        <v>18.2295310566599</v>
+        <v>-9.13639721879149</v>
       </c>
       <c r="J19" t="n">
-        <v>18.7169112654692</v>
+        <v>-9.19444524805474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.64988680412416</v>
+        <v>-5.11647505491285</v>
       </c>
       <c r="B20" t="n">
-        <v>10.4202227679686</v>
+        <v>-5.88124747041027</v>
       </c>
       <c r="C20" t="n">
-        <v>11.0707060165599</v>
+        <v>-5.91029353868485</v>
       </c>
       <c r="D20" t="n">
-        <v>13.0889923838369</v>
+        <v>-6.39921348299282</v>
       </c>
       <c r="E20" t="n">
-        <v>13.8378627851929</v>
+        <v>-6.98777773282721</v>
       </c>
       <c r="F20" t="n">
-        <v>14.9442826859153</v>
+        <v>-7.59416913800239</v>
       </c>
       <c r="G20" t="n">
-        <v>16.0605120955378</v>
+        <v>-7.62165907193203</v>
       </c>
       <c r="H20" t="n">
-        <v>16.8908453210686</v>
+        <v>-8.26930060531044</v>
       </c>
       <c r="I20" t="n">
-        <v>16.9029687827732</v>
+        <v>-8.94661227339528</v>
       </c>
       <c r="J20" t="n">
-        <v>19.2706204654425</v>
+        <v>-9.55057680945129</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-4.87767790455157</v>
+        <v>9.33216528892242</v>
       </c>
       <c r="B21" t="n">
-        <v>-5.72306483176398</v>
+        <v>11.2364012954575</v>
       </c>
       <c r="C21" t="n">
-        <v>-6.14290624970969</v>
+        <v>12.0620326527</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.35441358544902</v>
+        <v>13.593390200453</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.1661392759877</v>
+        <v>14.5311653599372</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.86408809000445</v>
+        <v>15.5826309957634</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.95653483592056</v>
+        <v>15.5895208439627</v>
       </c>
       <c r="H21" t="n">
-        <v>-8.3845499878222</v>
+        <v>16.8518071399778</v>
       </c>
       <c r="I21" t="n">
-        <v>-8.60667990770748</v>
+        <v>16.6761079887352</v>
       </c>
       <c r="J21" t="n">
-        <v>-9.75719093195265</v>
+        <v>19.6266982427743</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.66568948344612</v>
+        <v>10.3556973519468</v>
       </c>
       <c r="B22" t="n">
-        <v>9.7144253900059</v>
+        <v>10.7309565319546</v>
       </c>
       <c r="C22" t="n">
-        <v>12.6450478363729</v>
+        <v>10.9697093277208</v>
       </c>
       <c r="D22" t="n">
-        <v>14.3365701129237</v>
+        <v>11.7988026777995</v>
       </c>
       <c r="E22" t="n">
-        <v>15.6615411270523</v>
+        <v>12.8258123346091</v>
       </c>
       <c r="F22" t="n">
-        <v>14.5391233188933</v>
+        <v>15.1159250799104</v>
       </c>
       <c r="G22" t="n">
-        <v>15.6133581108814</v>
+        <v>16.808859607321</v>
       </c>
       <c r="H22" t="n">
-        <v>17.1498996239413</v>
+        <v>-8.93692238683165</v>
       </c>
       <c r="I22" t="n">
-        <v>18.2449556506429</v>
+        <v>17.5321205459254</v>
       </c>
       <c r="J22" t="n">
-        <v>19.1306683409769</v>
+        <v>18.1794418398443</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-5.01656484823583</v>
+        <v>10.0136529030787</v>
       </c>
       <c r="B23" t="n">
-        <v>-5.6274405654928</v>
+        <v>10.2033467808802</v>
       </c>
       <c r="C23" t="n">
-        <v>-6.53898979509855</v>
+        <v>11.7667195506709</v>
       </c>
       <c r="D23" t="n">
-        <v>-6.06142041757724</v>
+        <v>-6.58408988522674</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.66099686720857</v>
+        <v>-6.67088355892922</v>
       </c>
       <c r="F23" t="n">
-        <v>-7.18776365870712</v>
+        <v>-7.69497686673812</v>
       </c>
       <c r="G23" t="n">
-        <v>-8.09166956421745</v>
+        <v>-8.05822723337103</v>
       </c>
       <c r="H23" t="n">
-        <v>-8.12365622592844</v>
+        <v>-8.57909339798535</v>
       </c>
       <c r="I23" t="n">
-        <v>-9.42391104064172</v>
+        <v>-9.04324376230207</v>
       </c>
       <c r="J23" t="n">
-        <v>-9.67978246484839</v>
+        <v>-9.83529073886822</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.4824590412918</v>
+        <v>9.28827477512951</v>
       </c>
       <c r="B24" t="n">
-        <v>12.3442362887372</v>
+        <v>11.4679964959835</v>
       </c>
       <c r="C24" t="n">
-        <v>13.2581550784605</v>
+        <v>12.2870120030894</v>
       </c>
       <c r="D24" t="n">
-        <v>14.099110944596</v>
+        <v>14.3018568883973</v>
       </c>
       <c r="E24" t="n">
-        <v>12.0373001736455</v>
+        <v>14.5991070199788</v>
       </c>
       <c r="F24" t="n">
-        <v>14.2262620842933</v>
+        <v>15.6526992049635</v>
       </c>
       <c r="G24" t="n">
-        <v>17.2614749553118</v>
+        <v>16.0896506015279</v>
       </c>
       <c r="H24" t="n">
-        <v>17.250148459879</v>
+        <v>-8.73214102987258</v>
       </c>
       <c r="I24" t="n">
-        <v>17.6079672644088</v>
+        <v>-9.04562511354067</v>
       </c>
       <c r="J24" t="n">
-        <v>18.7473438840322</v>
+        <v>-9.30052298349846</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-4.96590383097809</v>
+        <v>-4.96969995979128</v>
       </c>
       <c r="B25" t="n">
-        <v>-5.24414957031922</v>
+        <v>-5.09105170740033</v>
       </c>
       <c r="C25" t="n">
-        <v>-5.63235538474998</v>
+        <v>-6.18277510470635</v>
       </c>
       <c r="D25" t="n">
-        <v>-6.85995478687714</v>
+        <v>-6.53744950239648</v>
       </c>
       <c r="E25" t="n">
-        <v>-6.7970871273607</v>
+        <v>-6.75699417584227</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.46927980815671</v>
+        <v>-7.43700976025608</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.05938148076105</v>
+        <v>-8.27960867664145</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.71462182866322</v>
+        <v>-8.32856473294479</v>
       </c>
       <c r="I25" t="n">
-        <v>-8.86895102673856</v>
+        <v>-8.83845588476703</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.35262239326474</v>
+        <v>-9.93638921465496</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-5.35199376616909</v>
+        <v>10.0693786989702</v>
       </c>
       <c r="B26" t="n">
-        <v>-5.62738004583268</v>
+        <v>12.2353054515122</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.00478182289714</v>
+        <v>10.8223921423037</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.22406063939291</v>
+        <v>12.9222870766364</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.89326369966889</v>
+        <v>13.3617679710093</v>
       </c>
       <c r="F26" t="n">
-        <v>-7.90557664757914</v>
+        <v>14.1955864370667</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.70588199760754</v>
+        <v>17.1049339261483</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.41623438902872</v>
+        <v>15.6480038980205</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.99883763252819</v>
+        <v>17.3223622552494</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.67382620068434</v>
+        <v>19.3305206602544</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.12647242449217</v>
+        <v>9.97527746297607</v>
       </c>
       <c r="B27" t="n">
-        <v>10.5943512158954</v>
+        <v>10.1940306860602</v>
       </c>
       <c r="C27" t="n">
-        <v>12.6592264863924</v>
+        <v>12.1444165166165</v>
       </c>
       <c r="D27" t="n">
-        <v>13.6173170881574</v>
+        <v>13.8393899231624</v>
       </c>
       <c r="E27" t="n">
-        <v>15.915244950013</v>
+        <v>14.6700065963761</v>
       </c>
       <c r="F27" t="n">
-        <v>14.6973000793824</v>
+        <v>16.051450791253</v>
       </c>
       <c r="G27" t="n">
-        <v>15.4365623177684</v>
+        <v>17.0309518301644</v>
       </c>
       <c r="H27" t="n">
-        <v>17.6550713421545</v>
+        <v>16.2612536875931</v>
       </c>
       <c r="I27" t="n">
-        <v>16.9564020026441</v>
+        <v>18.648057653684</v>
       </c>
       <c r="J27" t="n">
-        <v>18.4865189512187</v>
+        <v>18.5122840519629</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10.8569695281447</v>
+        <v>9.39528996908338</v>
       </c>
       <c r="B28" t="n">
-        <v>12.1364875226677</v>
+        <v>11.0539592824503</v>
       </c>
       <c r="C28" t="n">
-        <v>13.1161863376166</v>
+        <v>11.4477575265357</v>
       </c>
       <c r="D28" t="n">
-        <v>13.0116906138961</v>
+        <v>12.5401741573517</v>
       </c>
       <c r="E28" t="n">
-        <v>13.4662613573681</v>
+        <v>14.4788924625925</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.91875711064074</v>
+        <v>14.1266090971406</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.73952692249328</v>
+        <v>16.0454357870203</v>
       </c>
       <c r="H28" t="n">
-        <v>-8.54531583921703</v>
+        <v>17.5046679834706</v>
       </c>
       <c r="I28" t="n">
-        <v>-8.78618864516523</v>
+        <v>18.5643051865427</v>
       </c>
       <c r="J28" t="n">
-        <v>-9.48674387884632</v>
+        <v>19.6155940565345</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-5.45346335782227</v>
+        <v>-4.81176486992856</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.57245049250811</v>
+        <v>-5.35665205410923</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.8726214791133</v>
+        <v>-6.06315435608888</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.61538651906143</v>
+        <v>-6.50998616050671</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.07023938407462</v>
+        <v>-7.28678209619437</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.31637005778595</v>
+        <v>-7.5303002001148</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.08430769445179</v>
+        <v>-8.0707913360852</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.23837317439572</v>
+        <v>-8.34090941815145</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.20492149701661</v>
+        <v>-9.11058512974937</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.78315591026236</v>
+        <v>-9.82807566108486</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>9.93147537083304</v>
+        <v>-5.33123954947044</v>
       </c>
       <c r="B30" t="n">
-        <v>11.6171764011845</v>
+        <v>-5.48163364282726</v>
       </c>
       <c r="C30" t="n">
-        <v>13.522274848024</v>
+        <v>-5.99824819428592</v>
       </c>
       <c r="D30" t="n">
-        <v>12.6439871505794</v>
+        <v>-6.43251612228678</v>
       </c>
       <c r="E30" t="n">
-        <v>14.229239160448</v>
+        <v>-7.28143399718087</v>
       </c>
       <c r="F30" t="n">
-        <v>14.6800293121445</v>
+        <v>-7.64268765858969</v>
       </c>
       <c r="G30" t="n">
-        <v>15.1589057462233</v>
+        <v>-7.83069432103398</v>
       </c>
       <c r="H30" t="n">
-        <v>17.380748332961</v>
+        <v>-8.04672754911147</v>
       </c>
       <c r="I30" t="n">
-        <v>17.1153069104247</v>
+        <v>-9.01098243437031</v>
       </c>
       <c r="J30" t="n">
-        <v>18.9166884281441</v>
+        <v>-9.48938001199742</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10.165506560274</v>
+        <v>-4.69344301475589</v>
       </c>
       <c r="B31" t="n">
-        <v>10.8410892520325</v>
+        <v>-4.82241837917885</v>
       </c>
       <c r="C31" t="n">
-        <v>11.8139957865404</v>
+        <v>-5.39534129845369</v>
       </c>
       <c r="D31" t="n">
-        <v>13.113271946467</v>
+        <v>-6.14595815036565</v>
       </c>
       <c r="E31" t="n">
-        <v>13.644717199104</v>
+        <v>-6.95952393616763</v>
       </c>
       <c r="F31" t="n">
-        <v>15.9674395500868</v>
+        <v>-7.67498359220042</v>
       </c>
       <c r="G31" t="n">
-        <v>16.1645404675226</v>
+        <v>-7.71510778043867</v>
       </c>
       <c r="H31" t="n">
-        <v>17.0105060701272</v>
+        <v>-9.12647158174439</v>
       </c>
       <c r="I31" t="n">
-        <v>-9.51435458371546</v>
+        <v>-9.29721939595525</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.48184102574264</v>
+        <v>-9.83529635055381</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>10.3599682980159</v>
+        <v>11.0930003208962</v>
       </c>
       <c r="B32" t="n">
-        <v>11.3904469298283</v>
+        <v>11.0990740316718</v>
       </c>
       <c r="C32" t="n">
-        <v>12.0106439867227</v>
+        <v>12.274663371138</v>
       </c>
       <c r="D32" t="n">
-        <v>13.7310746191854</v>
+        <v>12.1487353503539</v>
       </c>
       <c r="E32" t="n">
-        <v>14.1180206940281</v>
+        <v>14.4765727939536</v>
       </c>
       <c r="F32" t="n">
-        <v>14.4686562115448</v>
+        <v>14.521164697589</v>
       </c>
       <c r="G32" t="n">
-        <v>15.6358265425548</v>
+        <v>15.60395164857</v>
       </c>
       <c r="H32" t="n">
-        <v>17.8173244379243</v>
+        <v>17.2489811326056</v>
       </c>
       <c r="I32" t="n">
-        <v>19.5070368670893</v>
+        <v>19.3644044947151</v>
       </c>
       <c r="J32" t="n">
-        <v>18.6472307786966</v>
+        <v>17.4163096108511</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.8950021842285</v>
+        <v>-4.96749174387617</v>
       </c>
       <c r="B33" t="n">
-        <v>11.0225360121723</v>
+        <v>-5.4973604896222</v>
       </c>
       <c r="C33" t="n">
-        <v>13.0254127143489</v>
+        <v>-5.83519877556651</v>
       </c>
       <c r="D33" t="n">
-        <v>13.6972809349948</v>
+        <v>-6.28982515825248</v>
       </c>
       <c r="E33" t="n">
-        <v>15.0188730971204</v>
+        <v>-7.20627063017145</v>
       </c>
       <c r="F33" t="n">
-        <v>16.7584203083844</v>
+        <v>-7.44903684869755</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.33371541508479</v>
+        <v>-7.92505397729311</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.8931160544833</v>
+        <v>-8.09584256120645</v>
       </c>
       <c r="I33" t="n">
-        <v>-9.46680611892766</v>
+        <v>-8.71796564623293</v>
       </c>
       <c r="J33" t="n">
-        <v>-9.28438776501638</v>
+        <v>-9.15149701025331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11.0048057837022</v>
+        <v>10.1790908920359</v>
       </c>
       <c r="B34" t="n">
-        <v>11.0629694985968</v>
+        <v>10.9134953709462</v>
       </c>
       <c r="C34" t="n">
-        <v>11.6726660380164</v>
+        <v>12.80233852741</v>
       </c>
       <c r="D34" t="n">
-        <v>13.1569218263967</v>
+        <v>13.6898855909635</v>
       </c>
       <c r="E34" t="n">
-        <v>12.0392626650866</v>
+        <v>14.5580645804649</v>
       </c>
       <c r="F34" t="n">
-        <v>16.2152492990167</v>
+        <v>14.7377423436366</v>
       </c>
       <c r="G34" t="n">
-        <v>15.295863233238</v>
+        <v>15.7035366442403</v>
       </c>
       <c r="H34" t="n">
-        <v>19.1724813292268</v>
+        <v>17.0323635813401</v>
       </c>
       <c r="I34" t="n">
-        <v>16.894434579991</v>
+        <v>18.1490525168223</v>
       </c>
       <c r="J34" t="n">
-        <v>19.653623082689</v>
+        <v>18.877913673519</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-5.18439968446575</v>
+        <v>8.33801526974009</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.1070034202254</v>
+        <v>8.7051395103933</v>
       </c>
       <c r="C35" t="n">
-        <v>-5.77216043402185</v>
+        <v>12.3277956563018</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.12343573172648</v>
+        <v>13.0512572352647</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.9366065040682</v>
+        <v>13.8902454649842</v>
       </c>
       <c r="F35" t="n">
-        <v>-7.42600402788755</v>
+        <v>15.1278148116896</v>
       </c>
       <c r="G35" t="n">
-        <v>-8.04618608017838</v>
+        <v>15.0889160513657</v>
       </c>
       <c r="H35" t="n">
-        <v>-8.50740053262156</v>
+        <v>17.7603933959578</v>
       </c>
       <c r="I35" t="n">
-        <v>-8.69374274268307</v>
+        <v>16.8793854018783</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.48457568879345</v>
+        <v>18.8258733711459</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-5.00207774607452</v>
+        <v>9.25729417852352</v>
       </c>
       <c r="B36" t="n">
-        <v>-5.65496786486927</v>
+        <v>11.2217872403439</v>
       </c>
       <c r="C36" t="n">
-        <v>-6.27646879228862</v>
+        <v>11.4330629022469</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.81612463072141</v>
+        <v>13.9877307139647</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.18447394528507</v>
+        <v>-6.83558627661741</v>
       </c>
       <c r="F36" t="n">
-        <v>-7.68222939326239</v>
+        <v>-7.47654752552111</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.95171767820143</v>
+        <v>-7.83893214989297</v>
       </c>
       <c r="H36" t="n">
-        <v>-8.28076423509755</v>
+        <v>-8.51970285393198</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.06724839160955</v>
+        <v>-8.66753014104704</v>
       </c>
       <c r="J36" t="n">
-        <v>-9.63850885033307</v>
+        <v>-9.68542472476451</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.47605362010522</v>
+        <v>-4.99930058253025</v>
       </c>
       <c r="B37" t="n">
-        <v>10.8240313131306</v>
+        <v>-5.59677407589638</v>
       </c>
       <c r="C37" t="n">
-        <v>12.6025698724081</v>
+        <v>-6.31775394697132</v>
       </c>
       <c r="D37" t="n">
-        <v>13.3028647057174</v>
+        <v>-6.42640709658564</v>
       </c>
       <c r="E37" t="n">
-        <v>15.1869872009545</v>
+        <v>-7.09046950456199</v>
       </c>
       <c r="F37" t="n">
-        <v>14.3165283334855</v>
+        <v>-7.88240667545733</v>
       </c>
       <c r="G37" t="n">
-        <v>15.9767108201249</v>
+        <v>-7.58258452917675</v>
       </c>
       <c r="H37" t="n">
-        <v>17.2346374858214</v>
+        <v>-8.01354130748207</v>
       </c>
       <c r="I37" t="n">
-        <v>18.4958331934759</v>
+        <v>-9.40185667353537</v>
       </c>
       <c r="J37" t="n">
-        <v>19.774738128315</v>
+        <v>-9.57132669104976</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.5575040248076</v>
+        <v>10.3424721983195</v>
       </c>
       <c r="B38" t="n">
-        <v>11.2529655626236</v>
+        <v>10.8688716223548</v>
       </c>
       <c r="C38" t="n">
-        <v>12.4757504537007</v>
+        <v>11.717488691662</v>
       </c>
       <c r="D38" t="n">
-        <v>13.1499272842953</v>
+        <v>12.6646157290358</v>
       </c>
       <c r="E38" t="n">
-        <v>13.5482877047406</v>
+        <v>14.6176910341141</v>
       </c>
       <c r="F38" t="n">
-        <v>14.6178705302685</v>
+        <v>14.2524285854206</v>
       </c>
       <c r="G38" t="n">
-        <v>16.6169666307677</v>
+        <v>15.5540916510279</v>
       </c>
       <c r="H38" t="n">
-        <v>15.3362002521651</v>
+        <v>16.6744795642593</v>
       </c>
       <c r="I38" t="n">
-        <v>18.5526433175383</v>
+        <v>18.2796713935942</v>
       </c>
       <c r="J38" t="n">
-        <v>19.0871669801067</v>
+        <v>19.7051679068619</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.2587539689</v>
+        <v>11.0336727254453</v>
       </c>
       <c r="B39" t="n">
-        <v>10.9999126390608</v>
+        <v>10.5448582717491</v>
       </c>
       <c r="C39" t="n">
-        <v>11.6264423522092</v>
+        <v>11.1549819127945</v>
       </c>
       <c r="D39" t="n">
-        <v>13.5914317186108</v>
+        <v>11.7189165344195</v>
       </c>
       <c r="E39" t="n">
-        <v>13.7227889013674</v>
+        <v>14.5389624426154</v>
       </c>
       <c r="F39" t="n">
-        <v>15.171623752319</v>
+        <v>15.4967435560998</v>
       </c>
       <c r="G39" t="n">
-        <v>16.6805512007188</v>
+        <v>16.446191462753</v>
       </c>
       <c r="H39" t="n">
-        <v>17.1889347274093</v>
+        <v>17.586599096387</v>
       </c>
       <c r="I39" t="n">
-        <v>17.900894199044</v>
+        <v>18.8542884349934</v>
       </c>
       <c r="J39" t="n">
-        <v>18.0381861197862</v>
+        <v>20.0432389038283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-4.82705190956257</v>
+        <v>10.4707251464433</v>
       </c>
       <c r="B40" t="n">
-        <v>-5.56772154806742</v>
+        <v>11.7490481258368</v>
       </c>
       <c r="C40" t="n">
-        <v>-6.26382962651877</v>
+        <v>13.3237649838355</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.39837326691245</v>
+        <v>13.8044816203576</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.27314736556665</v>
+        <v>13.6395553437225</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.53213754957949</v>
+        <v>15.6257536123199</v>
       </c>
       <c r="G40" t="n">
-        <v>-8.16434889667117</v>
+        <v>-8.07937373913323</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.9266824996386</v>
+        <v>-8.66725772737681</v>
       </c>
       <c r="I40" t="n">
-        <v>-9.27565940508666</v>
+        <v>-9.10612432800232</v>
       </c>
       <c r="J40" t="n">
-        <v>-9.66809326727333</v>
+        <v>-9.28302144497117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.1038611776045</v>
+        <v>-5.38228484214613</v>
       </c>
       <c r="B41" t="n">
-        <v>10.5334826541748</v>
+        <v>-5.96365482732515</v>
       </c>
       <c r="C41" t="n">
-        <v>11.1459127780224</v>
+        <v>-5.96577263624748</v>
       </c>
       <c r="D41" t="n">
-        <v>13.1057289559657</v>
+        <v>-6.51527532949957</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.46428159627173</v>
+        <v>-7.09674321809023</v>
       </c>
       <c r="F41" t="n">
-        <v>-7.61532042726399</v>
+        <v>-8.07651544237957</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.75107579399654</v>
+        <v>-7.79787574954769</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.46918245867312</v>
+        <v>-8.7081678168401</v>
       </c>
       <c r="I41" t="n">
-        <v>-9.36259885464101</v>
+        <v>-9.52750504445899</v>
       </c>
       <c r="J41" t="n">
-        <v>-9.5804335406105</v>
+        <v>-9.57181490913663</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.7799979103582</v>
+        <v>10.5027685141759</v>
       </c>
       <c r="B42" t="n">
-        <v>10.5976348257852</v>
+        <v>10.2940112404588</v>
       </c>
       <c r="C42" t="n">
-        <v>13.6145664220287</v>
+        <v>11.7126350080565</v>
       </c>
       <c r="D42" t="n">
-        <v>12.8053518190077</v>
+        <v>12.6158736785378</v>
       </c>
       <c r="E42" t="n">
-        <v>14.5219154988273</v>
+        <v>13.6379155943217</v>
       </c>
       <c r="F42" t="n">
-        <v>15.608595054655</v>
+        <v>15.7150765675527</v>
       </c>
       <c r="G42" t="n">
-        <v>16.3494226753298</v>
+        <v>16.3824724201359</v>
       </c>
       <c r="H42" t="n">
-        <v>17.0946068597665</v>
+        <v>16.3370719956632</v>
       </c>
       <c r="I42" t="n">
-        <v>16.9466667734063</v>
+        <v>17.9115045730337</v>
       </c>
       <c r="J42" t="n">
-        <v>19.6482666179409</v>
+        <v>17.6657092816438</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.3847854368411</v>
+        <v>9.07930170614062</v>
       </c>
       <c r="B43" t="n">
-        <v>11.4655632890071</v>
+        <v>11.6562411157243</v>
       </c>
       <c r="C43" t="n">
-        <v>12.4943951894493</v>
+        <v>-6.09776392190011</v>
       </c>
       <c r="D43" t="n">
-        <v>12.2820518582055</v>
+        <v>-6.66061530737542</v>
       </c>
       <c r="E43" t="n">
-        <v>12.230727686859</v>
+        <v>-6.82683667570793</v>
       </c>
       <c r="F43" t="n">
-        <v>15.3475229887528</v>
+        <v>-7.82613671186007</v>
       </c>
       <c r="G43" t="n">
-        <v>14.6526512460647</v>
+        <v>-8.06764003398318</v>
       </c>
       <c r="H43" t="n">
-        <v>16.3052286074677</v>
+        <v>-8.59934435960671</v>
       </c>
       <c r="I43" t="n">
-        <v>17.6838780122112</v>
+        <v>-8.94320075814307</v>
       </c>
       <c r="J43" t="n">
-        <v>18.5216342812433</v>
+        <v>-9.2816936049767</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>8.92205920683259</v>
+        <v>-5.03014918014396</v>
       </c>
       <c r="B44" t="n">
-        <v>10.086394150093</v>
+        <v>-5.38969773486207</v>
       </c>
       <c r="C44" t="n">
-        <v>13.2287008053096</v>
+        <v>-6.12182804470631</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2707327426322</v>
+        <v>-6.37966559925561</v>
       </c>
       <c r="E44" t="n">
-        <v>14.8082658888577</v>
+        <v>-6.85278184381024</v>
       </c>
       <c r="F44" t="n">
-        <v>14.9131676226078</v>
+        <v>-7.76968362633538</v>
       </c>
       <c r="G44" t="n">
-        <v>17.4051224062216</v>
+        <v>-7.85825074686905</v>
       </c>
       <c r="H44" t="n">
-        <v>16.1788386254215</v>
+        <v>-8.60397328366337</v>
       </c>
       <c r="I44" t="n">
-        <v>17.2979218891792</v>
+        <v>-9.18438532829138</v>
       </c>
       <c r="J44" t="n">
-        <v>18.4956347910019</v>
+        <v>-9.61696651511022</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.6295027442434</v>
+        <v>10.3582027539639</v>
       </c>
       <c r="B45" t="n">
-        <v>10.8171546015402</v>
+        <v>10.6761112021009</v>
       </c>
       <c r="C45" t="n">
-        <v>11.662361191261</v>
+        <v>11.0654880583808</v>
       </c>
       <c r="D45" t="n">
-        <v>12.4719193711398</v>
+        <v>13.0158682586745</v>
       </c>
       <c r="E45" t="n">
-        <v>13.654141013229</v>
+        <v>15.6525068752457</v>
       </c>
       <c r="F45" t="n">
-        <v>16.5598339880644</v>
+        <v>14.7692421031935</v>
       </c>
       <c r="G45" t="n">
-        <v>16.0984392503643</v>
+        <v>17.0551497193496</v>
       </c>
       <c r="H45" t="n">
-        <v>19.1280110653312</v>
+        <v>16.0865301719747</v>
       </c>
       <c r="I45" t="n">
-        <v>18.4482396342783</v>
+        <v>18.3724160609494</v>
       </c>
       <c r="J45" t="n">
-        <v>19.2421851911771</v>
+        <v>18.3251831206619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-5.03766223672671</v>
+        <v>10.2096713309125</v>
       </c>
       <c r="B46" t="n">
-        <v>-5.75542050693584</v>
+        <v>10.992465617943</v>
       </c>
       <c r="C46" t="n">
-        <v>-6.26776275376436</v>
+        <v>11.8961260714192</v>
       </c>
       <c r="D46" t="n">
-        <v>-6.37517558680414</v>
+        <v>13.0439510176831</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.09137246123642</v>
+        <v>14.5053922099504</v>
       </c>
       <c r="F46" t="n">
-        <v>-7.76029440725936</v>
+        <v>15.1742998622024</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.92972626485349</v>
+        <v>17.0880047173641</v>
       </c>
       <c r="H46" t="n">
-        <v>-8.30294997995747</v>
+        <v>17.3681650077852</v>
       </c>
       <c r="I46" t="n">
-        <v>-8.99548087741916</v>
+        <v>16.5984110109596</v>
       </c>
       <c r="J46" t="n">
-        <v>-9.79952191436798</v>
+        <v>19.8706653949716</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>9.21404498211239</v>
+        <v>10.4577361858576</v>
       </c>
       <c r="B47" t="n">
-        <v>10.3903809455485</v>
+        <v>10.4613922490104</v>
       </c>
       <c r="C47" t="n">
-        <v>11.5491544628666</v>
+        <v>12.2504254426569</v>
       </c>
       <c r="D47" t="n">
-        <v>13.8740198875191</v>
+        <v>13.1904945477638</v>
       </c>
       <c r="E47" t="n">
-        <v>15.0049158360311</v>
+        <v>14.5024494571866</v>
       </c>
       <c r="F47" t="n">
-        <v>13.5923431979661</v>
+        <v>14.6817138498279</v>
       </c>
       <c r="G47" t="n">
-        <v>-8.14901098198399</v>
+        <v>15.3969375100906</v>
       </c>
       <c r="H47" t="n">
-        <v>18.0427311669939</v>
+        <v>17.9390141135867</v>
       </c>
       <c r="I47" t="n">
-        <v>15.8906106557104</v>
+        <v>17.9429915209079</v>
       </c>
       <c r="J47" t="n">
-        <v>19.5724547814409</v>
+        <v>19.3749713707994</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11.4239620514573</v>
+        <v>-5.32814345310842</v>
       </c>
       <c r="B48" t="n">
-        <v>10.6339205488973</v>
+        <v>-5.92115741205588</v>
       </c>
       <c r="C48" t="n">
-        <v>13.3457068493438</v>
+        <v>-5.73470427749041</v>
       </c>
       <c r="D48" t="n">
-        <v>13.6126461498959</v>
+        <v>-6.62326778015987</v>
       </c>
       <c r="E48" t="n">
-        <v>13.9479674042069</v>
+        <v>-6.88462149530865</v>
       </c>
       <c r="F48" t="n">
-        <v>-7.71472011893649</v>
+        <v>-7.40457079179231</v>
       </c>
       <c r="G48" t="n">
-        <v>-8.13923897639247</v>
+        <v>-8.02533332918783</v>
       </c>
       <c r="H48" t="n">
-        <v>-8.08909864660403</v>
+        <v>-8.90433627006278</v>
       </c>
       <c r="I48" t="n">
-        <v>-8.97360790350342</v>
+        <v>-8.76373037666752</v>
       </c>
       <c r="J48" t="n">
-        <v>-9.73106989180513</v>
+        <v>-9.59637667655923</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>9.75094859987875</v>
+        <v>10.9293846423233</v>
       </c>
       <c r="B49" t="n">
-        <v>11.2123733909606</v>
+        <v>9.93922637903952</v>
       </c>
       <c r="C49" t="n">
-        <v>11.2138438796182</v>
+        <v>12.2714818095082</v>
       </c>
       <c r="D49" t="n">
-        <v>13.4672182300621</v>
+        <v>12.2974818819627</v>
       </c>
       <c r="E49" t="n">
-        <v>12.8760053033159</v>
+        <v>14.1128693324598</v>
       </c>
       <c r="F49" t="n">
-        <v>13.9630218941364</v>
+        <v>16.7261285495912</v>
       </c>
       <c r="G49" t="n">
-        <v>15.499450926974</v>
+        <v>15.2058804174418</v>
       </c>
       <c r="H49" t="n">
-        <v>17.2766038408537</v>
+        <v>16.4658489047176</v>
       </c>
       <c r="I49" t="n">
-        <v>17.6928026214934</v>
+        <v>17.4913397754672</v>
       </c>
       <c r="J49" t="n">
-        <v>18.6841282991799</v>
+        <v>19.2011728531072</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.0699164415188</v>
+        <v>10.2570072606267</v>
       </c>
       <c r="B50" t="n">
-        <v>11.0402703581647</v>
+        <v>11.5803043220393</v>
       </c>
       <c r="C50" t="n">
-        <v>9.82043601583525</v>
+        <v>10.5006201633722</v>
       </c>
       <c r="D50" t="n">
-        <v>12.6549404794337</v>
+        <v>13.6862890402839</v>
       </c>
       <c r="E50" t="n">
-        <v>13.4687350930146</v>
+        <v>13.3260258965457</v>
       </c>
       <c r="F50" t="n">
-        <v>15.0187593190669</v>
+        <v>15.2694188482079</v>
       </c>
       <c r="G50" t="n">
-        <v>15.9241292221334</v>
+        <v>14.9332841087005</v>
       </c>
       <c r="H50" t="n">
-        <v>16.7488273903195</v>
+        <v>16.8262417037845</v>
       </c>
       <c r="I50" t="n">
-        <v>17.4515122884656</v>
+        <v>16.6654199724772</v>
       </c>
       <c r="J50" t="n">
-        <v>20.0863600503253</v>
+        <v>19.8093682935075</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>9.2380727482734</v>
+        <v>9.711565363078</v>
       </c>
       <c r="B51" t="n">
-        <v>12.9054318279923</v>
+        <v>10.1360014472265</v>
       </c>
       <c r="C51" t="n">
-        <v>12.1706247043936</v>
+        <v>11.4780931876017</v>
       </c>
       <c r="D51" t="n">
-        <v>12.6427934715799</v>
+        <v>13.9202160350632</v>
       </c>
       <c r="E51" t="n">
-        <v>14.6142879265867</v>
+        <v>14.2274074812333</v>
       </c>
       <c r="F51" t="n">
-        <v>14.8826088439083</v>
+        <v>15.9431119581431</v>
       </c>
       <c r="G51" t="n">
-        <v>16.1039382815699</v>
+        <v>16.0722808674423</v>
       </c>
       <c r="H51" t="n">
-        <v>17.4243803555679</v>
+        <v>17.0900526132561</v>
       </c>
       <c r="I51" t="n">
-        <v>18.4018887011265</v>
+        <v>18.8206088978961</v>
       </c>
       <c r="J51" t="n">
-        <v>20.4894001284019</v>
+        <v>19.2214878645343</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-4.56135789058428</v>
+        <v>-4.62551942672316</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.63353100872867</v>
+        <v>-4.78490128544639</v>
       </c>
       <c r="C52" t="n">
-        <v>-5.97157595954988</v>
+        <v>-5.93402568718761</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.17288593257212</v>
+        <v>-6.32145309821856</v>
       </c>
       <c r="E52" t="n">
-        <v>-6.81966194641049</v>
+        <v>-7.10529124403618</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.99411294687528</v>
+        <v>-7.12971246990207</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.74526202100713</v>
+        <v>-7.92322369591539</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.13082191247484</v>
+        <v>-8.851758173694</v>
       </c>
       <c r="I52" t="n">
-        <v>-8.80928506274912</v>
+        <v>-8.95481329745106</v>
       </c>
       <c r="J52" t="n">
-        <v>-9.14083534142859</v>
+        <v>-9.37696377577276</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>10.0869153027005</v>
+        <v>9.98374230959923</v>
       </c>
       <c r="B53" t="n">
-        <v>10.6118660713408</v>
+        <v>11.078471901767</v>
       </c>
       <c r="C53" t="n">
-        <v>11.452502759304</v>
+        <v>12.6302181447636</v>
       </c>
       <c r="D53" t="n">
-        <v>12.3151872057667</v>
+        <v>13.5925680493852</v>
       </c>
       <c r="E53" t="n">
-        <v>14.0822725432125</v>
+        <v>13.6764264183252</v>
       </c>
       <c r="F53" t="n">
-        <v>14.8225418936853</v>
+        <v>15.8094760961289</v>
       </c>
       <c r="G53" t="n">
-        <v>14.9307810939552</v>
+        <v>15.4104045461304</v>
       </c>
       <c r="H53" t="n">
-        <v>16.8747643265302</v>
+        <v>18.541426798499</v>
       </c>
       <c r="I53" t="n">
-        <v>16.8968271703391</v>
+        <v>17.8087340096439</v>
       </c>
       <c r="J53" t="n">
-        <v>18.5001648059485</v>
+        <v>19.5309327733006</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10.1405212619679</v>
+        <v>10.9275199754374</v>
       </c>
       <c r="B54" t="n">
-        <v>10.7162039351072</v>
+        <v>11.5509921570731</v>
       </c>
       <c r="C54" t="n">
-        <v>11.3093339798785</v>
+        <v>10.7973469292956</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.27426103144208</v>
+        <v>11.7798613418555</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.24179799731736</v>
+        <v>13.8579852819489</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.72333618772071</v>
+        <v>13.8190746825769</v>
       </c>
       <c r="G54" t="n">
-        <v>-8.21039002427804</v>
+        <v>16.1593553977145</v>
       </c>
       <c r="H54" t="n">
-        <v>-8.45211812836469</v>
+        <v>17.6158808288886</v>
       </c>
       <c r="I54" t="n">
-        <v>-8.99837129766995</v>
+        <v>19.4499909943502</v>
       </c>
       <c r="J54" t="n">
-        <v>-9.20563982273297</v>
+        <v>18.8901921087891</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11.1900874305101</v>
+        <v>10.6982455035531</v>
       </c>
       <c r="B55" t="n">
-        <v>10.9676790965541</v>
+        <v>11.2852750122878</v>
       </c>
       <c r="C55" t="n">
-        <v>13.7923883790519</v>
+        <v>12.7696724492429</v>
       </c>
       <c r="D55" t="n">
-        <v>12.6990668133963</v>
+        <v>13.3148383517365</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.67970035595659</v>
+        <v>14.7903811773143</v>
       </c>
       <c r="F55" t="n">
-        <v>-7.26143607560696</v>
+        <v>15.4571681626481</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.07997910112368</v>
+        <v>14.6159416294433</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.49249630582503</v>
+        <v>16.9894193783587</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.09546125082907</v>
+        <v>16.0895116887163</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.98109292045985</v>
+        <v>19.3243677294277</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-5.44697060198708</v>
+        <v>-5.05940712987006</v>
       </c>
       <c r="B56" t="n">
-        <v>-5.66786557226563</v>
+        <v>-5.40013312611847</v>
       </c>
       <c r="C56" t="n">
-        <v>-6.47358699995277</v>
+        <v>-6.11907455263103</v>
       </c>
       <c r="D56" t="n">
-        <v>-6.54880559846293</v>
+        <v>-6.41590987846824</v>
       </c>
       <c r="E56" t="n">
-        <v>-7.20998693587449</v>
+        <v>-7.13973313581431</v>
       </c>
       <c r="F56" t="n">
-        <v>-8.06771498567228</v>
+        <v>-7.64398601003237</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.02759323567531</v>
+        <v>-7.84953952039285</v>
       </c>
       <c r="H56" t="n">
-        <v>-8.63289579263678</v>
+        <v>-8.29682299532163</v>
       </c>
       <c r="I56" t="n">
-        <v>-9.31241926760037</v>
+        <v>-8.77345966788301</v>
       </c>
       <c r="J56" t="n">
-        <v>-9.10387917088905</v>
+        <v>-9.46757543700457</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-5.04734209786364</v>
+        <v>-4.54432512031994</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.18160713134861</v>
+        <v>-5.55607685717676</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.67587014538083</v>
+        <v>-6.5248834177421</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.3869661904881</v>
+        <v>-6.6942751821741</v>
       </c>
       <c r="E57" t="n">
-        <v>-6.94780121062496</v>
+        <v>-7.00791791705947</v>
       </c>
       <c r="F57" t="n">
-        <v>-7.42263260351882</v>
+        <v>-7.6712511592761</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.99207616101522</v>
+        <v>-8.20144269966985</v>
       </c>
       <c r="H57" t="n">
-        <v>-7.81264265595143</v>
+        <v>-8.60892700356089</v>
       </c>
       <c r="I57" t="n">
-        <v>-8.57430586041223</v>
+        <v>-8.59662152791601</v>
       </c>
       <c r="J57" t="n">
-        <v>-9.87600459968008</v>
+        <v>-9.22890274616067</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.53824535775684</v>
+        <v>9.59958571139738</v>
       </c>
       <c r="B58" t="n">
-        <v>9.65771604099464</v>
+        <v>11.235199435585</v>
       </c>
       <c r="C58" t="n">
-        <v>11.8167551390684</v>
+        <v>11.035829713784</v>
       </c>
       <c r="D58" t="n">
-        <v>11.986283306335</v>
+        <v>12.8927300528896</v>
       </c>
       <c r="E58" t="n">
-        <v>14.1164216251885</v>
+        <v>13.7205903705326</v>
       </c>
       <c r="F58" t="n">
-        <v>15.0055051805794</v>
+        <v>15.2662388356081</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.24339731685326</v>
+        <v>17.3049837665446</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.3071600799112</v>
+        <v>17.4757515943543</v>
       </c>
       <c r="I58" t="n">
-        <v>-8.86301300848992</v>
+        <v>17.3212342913336</v>
       </c>
       <c r="J58" t="n">
-        <v>-9.14248886617618</v>
+        <v>19.3148985613772</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>9.67044356405702</v>
+        <v>9.42134084017117</v>
       </c>
       <c r="B59" t="n">
-        <v>10.9908472755808</v>
+        <v>12.9742483645096</v>
       </c>
       <c r="C59" t="n">
-        <v>12.0879748495831</v>
+        <v>12.3232726630654</v>
       </c>
       <c r="D59" t="n">
-        <v>14.075531722818</v>
+        <v>13.3962731765947</v>
       </c>
       <c r="E59" t="n">
-        <v>14.0487838720425</v>
+        <v>14.4039592909419</v>
       </c>
       <c r="F59" t="n">
-        <v>14.890843249376</v>
+        <v>15.8058523425405</v>
       </c>
       <c r="G59" t="n">
-        <v>16.0977673496604</v>
+        <v>15.7433749688162</v>
       </c>
       <c r="H59" t="n">
-        <v>17.4200157297122</v>
+        <v>15.5968753189611</v>
       </c>
       <c r="I59" t="n">
-        <v>17.4838689015018</v>
+        <v>18.8864252889165</v>
       </c>
       <c r="J59" t="n">
-        <v>18.5690728745057</v>
+        <v>18.5391829654662</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-5.5770373632145</v>
+        <v>11.0831214836735</v>
       </c>
       <c r="B60" t="n">
-        <v>-5.27175243244402</v>
+        <v>12.6016934708046</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.79457026476591</v>
+        <v>10.9904932009537</v>
       </c>
       <c r="D60" t="n">
-        <v>-6.57605064822256</v>
+        <v>13.0191793583504</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.95771546617708</v>
+        <v>14.4625200495346</v>
       </c>
       <c r="F60" t="n">
-        <v>-7.37356436351288</v>
+        <v>13.4923420197345</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.9226010816094</v>
+        <v>16.1422179613819</v>
       </c>
       <c r="H60" t="n">
-        <v>-8.24957708850288</v>
+        <v>17.816716535538</v>
       </c>
       <c r="I60" t="n">
-        <v>-9.08219644194651</v>
+        <v>18.3439213936544</v>
       </c>
       <c r="J60" t="n">
-        <v>-9.25171441579179</v>
+        <v>18.4895912507371</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>10.8370382848466</v>
+        <v>9.38327207851916</v>
       </c>
       <c r="B61" t="n">
-        <v>11.8450511955056</v>
+        <v>10.4929503632089</v>
       </c>
       <c r="C61" t="n">
-        <v>12.3986188312775</v>
+        <v>12.6108424170857</v>
       </c>
       <c r="D61" t="n">
-        <v>13.875688113045</v>
+        <v>13.808092398326</v>
       </c>
       <c r="E61" t="n">
-        <v>12.8583312377004</v>
+        <v>12.7635496528563</v>
       </c>
       <c r="F61" t="n">
-        <v>15.2188794041026</v>
+        <v>-7.3258166090589</v>
       </c>
       <c r="G61" t="n">
-        <v>14.824577485085</v>
+        <v>-7.78029808577815</v>
       </c>
       <c r="H61" t="n">
-        <v>17.8220608671731</v>
+        <v>-8.26245704849817</v>
       </c>
       <c r="I61" t="n">
-        <v>17.8010924675229</v>
+        <v>-9.04137220297932</v>
       </c>
       <c r="J61" t="n">
-        <v>18.64573362168</v>
+        <v>-9.70063198673727</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>9.46241833990611</v>
+        <v>11.1088011150809</v>
       </c>
       <c r="B62" t="n">
-        <v>13.3376525818869</v>
+        <v>12.0966108567495</v>
       </c>
       <c r="C62" t="n">
-        <v>11.3955912820446</v>
+        <v>12.7822142070101</v>
       </c>
       <c r="D62" t="n">
-        <v>12.7898112890754</v>
+        <v>11.8175818389258</v>
       </c>
       <c r="E62" t="n">
-        <v>14.8203636359037</v>
+        <v>14.4020996211216</v>
       </c>
       <c r="F62" t="n">
-        <v>14.4976398776704</v>
+        <v>-7.71277886843693</v>
       </c>
       <c r="G62" t="n">
-        <v>17.5655518907928</v>
+        <v>-8.39567818730759</v>
       </c>
       <c r="H62" t="n">
-        <v>18.2051422172628</v>
+        <v>-8.65060279983292</v>
       </c>
       <c r="I62" t="n">
-        <v>18.5011244475422</v>
+        <v>-8.71089775549181</v>
       </c>
       <c r="J62" t="n">
-        <v>19.3780532516261</v>
+        <v>-9.74743789125233</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.76354518051771</v>
+        <v>11.2144822157679</v>
       </c>
       <c r="B63" t="n">
-        <v>11.4548675166643</v>
+        <v>9.26974484501568</v>
       </c>
       <c r="C63" t="n">
-        <v>11.1912340160368</v>
+        <v>10.7352546270143</v>
       </c>
       <c r="D63" t="n">
-        <v>12.1533657588745</v>
+        <v>12.7987282356495</v>
       </c>
       <c r="E63" t="n">
-        <v>14.1924230413698</v>
+        <v>13.6243778727747</v>
       </c>
       <c r="F63" t="n">
-        <v>15.6784159382227</v>
+        <v>14.8543005806488</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.90980888034089</v>
+        <v>16.5293965530538</v>
       </c>
       <c r="H63" t="n">
-        <v>-8.09153438443199</v>
+        <v>16.6244365711425</v>
       </c>
       <c r="I63" t="n">
-        <v>-9.20935247971276</v>
+        <v>-9.35196804869712</v>
       </c>
       <c r="J63" t="n">
-        <v>-9.74244956091408</v>
+        <v>-9.47394956651813</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>9.99341749429201</v>
+        <v>10.1569388419891</v>
       </c>
       <c r="B64" t="n">
-        <v>11.8981580364421</v>
+        <v>11.8343172394314</v>
       </c>
       <c r="C64" t="n">
-        <v>12.8833766950918</v>
+        <v>11.2665953154464</v>
       </c>
       <c r="D64" t="n">
-        <v>13.4666038931221</v>
+        <v>12.6431592348668</v>
       </c>
       <c r="E64" t="n">
-        <v>12.5623949140794</v>
+        <v>14.3574007673224</v>
       </c>
       <c r="F64" t="n">
-        <v>16.1982169836505</v>
+        <v>16.3048630153809</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.1556166243674</v>
+        <v>15.4459408381994</v>
       </c>
       <c r="H64" t="n">
-        <v>-8.5530932535588</v>
+        <v>-8.41845057998987</v>
       </c>
       <c r="I64" t="n">
-        <v>-9.17556224133683</v>
+        <v>-9.10599386880744</v>
       </c>
       <c r="J64" t="n">
-        <v>-9.17766121281843</v>
+        <v>-9.24044737308407</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.5292827074384</v>
+        <v>8.52132622025026</v>
       </c>
       <c r="B65" t="n">
-        <v>11.9789829006584</v>
+        <v>10.485081396277</v>
       </c>
       <c r="C65" t="n">
-        <v>12.802222062809</v>
+        <v>12.2863433977431</v>
       </c>
       <c r="D65" t="n">
-        <v>14.1474113128736</v>
+        <v>12.6989889817631</v>
       </c>
       <c r="E65" t="n">
-        <v>13.0617314128413</v>
+        <v>14.1145095813726</v>
       </c>
       <c r="F65" t="n">
-        <v>15.6678938285826</v>
+        <v>13.4820075365099</v>
       </c>
       <c r="G65" t="n">
-        <v>16.3572283565494</v>
+        <v>16.4044262060417</v>
       </c>
       <c r="H65" t="n">
-        <v>16.0937144345335</v>
+        <v>16.6205003733875</v>
       </c>
       <c r="I65" t="n">
-        <v>17.2305940194574</v>
+        <v>16.8872794884952</v>
       </c>
       <c r="J65" t="n">
-        <v>19.7016262643188</v>
+        <v>19.0872192471864</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.5250619881972</v>
+        <v>9.86602790466378</v>
       </c>
       <c r="B66" t="n">
-        <v>10.0151928747327</v>
+        <v>11.494145240177</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3297332719502</v>
+        <v>11.610835522404</v>
       </c>
       <c r="D66" t="n">
-        <v>12.7032622813254</v>
+        <v>13.8958582188805</v>
       </c>
       <c r="E66" t="n">
-        <v>12.4553462496903</v>
+        <v>14.846741690691</v>
       </c>
       <c r="F66" t="n">
-        <v>13.1796121092278</v>
+        <v>13.6596972302554</v>
       </c>
       <c r="G66" t="n">
-        <v>17.0028867839479</v>
+        <v>15.5201980092467</v>
       </c>
       <c r="H66" t="n">
-        <v>17.9530156772527</v>
+        <v>17.5374652619161</v>
       </c>
       <c r="I66" t="n">
-        <v>17.2711263090058</v>
+        <v>18.4053159682164</v>
       </c>
       <c r="J66" t="n">
-        <v>18.4969911618075</v>
+        <v>18.2895993686738</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10.1378531268528</v>
+        <v>9.38776885000468</v>
       </c>
       <c r="B67" t="n">
-        <v>11.9945085793497</v>
+        <v>10.383620075773</v>
       </c>
       <c r="C67" t="n">
-        <v>12.1654294455135</v>
+        <v>11.6769114008277</v>
       </c>
       <c r="D67" t="n">
-        <v>13.0258607994839</v>
+        <v>14.1610040762591</v>
       </c>
       <c r="E67" t="n">
-        <v>14.621596428858</v>
+        <v>14.0289654485166</v>
       </c>
       <c r="F67" t="n">
-        <v>14.3154776281879</v>
+        <v>-7.13310783987573</v>
       </c>
       <c r="G67" t="n">
-        <v>15.4390409448191</v>
+        <v>-8.06079737326476</v>
       </c>
       <c r="H67" t="n">
-        <v>17.1787386006018</v>
+        <v>-8.62850075975893</v>
       </c>
       <c r="I67" t="n">
-        <v>19.5888992987293</v>
+        <v>-9.4105728993701</v>
       </c>
       <c r="J67" t="n">
-        <v>19.2498805372704</v>
+        <v>-9.77849259684161</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-4.4877930215931</v>
+        <v>10.465519381074</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.95146064057763</v>
+        <v>9.55549325564501</v>
       </c>
       <c r="C68" t="n">
-        <v>-5.951972609589</v>
+        <v>13.3580522324854</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.44425041886994</v>
+        <v>13.1428221425079</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.10593483390736</v>
+        <v>15.2372631686657</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.41316199422017</v>
+        <v>15.2078085421767</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.78295650003895</v>
+        <v>-7.51361456536391</v>
       </c>
       <c r="H68" t="n">
-        <v>-8.81310371688114</v>
+        <v>-8.39524518882539</v>
       </c>
       <c r="I68" t="n">
-        <v>-8.84687920597366</v>
+        <v>-9.30179554383878</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.84117970357123</v>
+        <v>-9.37177901176451</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-4.8218566183624</v>
+        <v>9.08926966017758</v>
       </c>
       <c r="B69" t="n">
-        <v>-5.82004647177483</v>
+        <v>-5.31774582594342</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.02857273960096</v>
+        <v>-5.67065814442863</v>
       </c>
       <c r="D69" t="n">
-        <v>-6.6133481118235</v>
+        <v>-6.62445211315401</v>
       </c>
       <c r="E69" t="n">
-        <v>-7.01649408261415</v>
+        <v>-6.82241384022573</v>
       </c>
       <c r="F69" t="n">
-        <v>-8.00096135791194</v>
+        <v>-7.01325930527237</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.06893247969974</v>
+        <v>-7.75184310483311</v>
       </c>
       <c r="H69" t="n">
-        <v>-8.69757217156572</v>
+        <v>-8.29310311186435</v>
       </c>
       <c r="I69" t="n">
-        <v>-8.91338150355449</v>
+        <v>-8.97203487172549</v>
       </c>
       <c r="J69" t="n">
-        <v>-9.47097502691177</v>
+        <v>-9.84830966098472</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>10.4825734260797</v>
+        <v>-4.65265778170162</v>
       </c>
       <c r="B70" t="n">
-        <v>11.3209872223679</v>
+        <v>-5.57621336795487</v>
       </c>
       <c r="C70" t="n">
-        <v>12.6679795900739</v>
+        <v>-5.97041518089229</v>
       </c>
       <c r="D70" t="n">
-        <v>13.8299272644324</v>
+        <v>-6.41953536194438</v>
       </c>
       <c r="E70" t="n">
-        <v>13.3002037318449</v>
+        <v>-7.02340934235271</v>
       </c>
       <c r="F70" t="n">
-        <v>15.7375506243352</v>
+        <v>-7.18085813710813</v>
       </c>
       <c r="G70" t="n">
-        <v>15.7710903063266</v>
+        <v>-7.71892101849999</v>
       </c>
       <c r="H70" t="n">
-        <v>17.5447704217221</v>
+        <v>-8.3345861921287</v>
       </c>
       <c r="I70" t="n">
-        <v>17.5635688236352</v>
+        <v>-9.04127996501995</v>
       </c>
       <c r="J70" t="n">
-        <v>19.0682782326251</v>
+        <v>-9.80727422360819</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>9.28185029995376</v>
+        <v>8.80619927964359</v>
       </c>
       <c r="B71" t="n">
-        <v>10.5636403466014</v>
+        <v>9.50271532077049</v>
       </c>
       <c r="C71" t="n">
-        <v>12.0622554032696</v>
+        <v>12.7807827653818</v>
       </c>
       <c r="D71" t="n">
-        <v>12.8447923854098</v>
+        <v>14.0784317733745</v>
       </c>
       <c r="E71" t="n">
-        <v>13.1787682696475</v>
+        <v>14.4130228340587</v>
       </c>
       <c r="F71" t="n">
-        <v>14.227296419338</v>
+        <v>14.751863881997</v>
       </c>
       <c r="G71" t="n">
-        <v>15.3689585328548</v>
+        <v>15.445238534692</v>
       </c>
       <c r="H71" t="n">
-        <v>18.3289462417859</v>
+        <v>17.7694050338306</v>
       </c>
       <c r="I71" t="n">
-        <v>18.1663499747535</v>
+        <v>17.9916049623714</v>
       </c>
       <c r="J71" t="n">
-        <v>19.8464203884635</v>
+        <v>17.9555190603781</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>9.22265191293683</v>
+        <v>9.80474017072595</v>
       </c>
       <c r="B72" t="n">
-        <v>9.19525389801023</v>
+        <v>11.7436632734384</v>
       </c>
       <c r="C72" t="n">
-        <v>11.7615058111501</v>
+        <v>12.500484809801</v>
       </c>
       <c r="D72" t="n">
-        <v>14.1018745757659</v>
+        <v>13.5241043552618</v>
       </c>
       <c r="E72" t="n">
-        <v>13.343112639191</v>
+        <v>14.6685161916423</v>
       </c>
       <c r="F72" t="n">
-        <v>-7.19280763258813</v>
+        <v>14.3999425989785</v>
       </c>
       <c r="G72" t="n">
-        <v>17.244762467574</v>
+        <v>16.2080395595586</v>
       </c>
       <c r="H72" t="n">
-        <v>17.1891086944571</v>
+        <v>16.5932408298903</v>
       </c>
       <c r="I72" t="n">
-        <v>17.7303811515289</v>
+        <v>18.5464046659127</v>
       </c>
       <c r="J72" t="n">
-        <v>-9.54402831503536</v>
+        <v>19.4963398753524</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-4.73930889600372</v>
+        <v>10.3882437181395</v>
       </c>
       <c r="B73" t="n">
-        <v>-5.09821803875267</v>
+        <v>10.9949529414056</v>
       </c>
       <c r="C73" t="n">
-        <v>-6.09944475570198</v>
+        <v>11.2360538046664</v>
       </c>
       <c r="D73" t="n">
-        <v>-6.46638137818456</v>
+        <v>14.0087716541192</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.79179578214463</v>
+        <v>14.9315112910689</v>
       </c>
       <c r="F73" t="n">
-        <v>-7.54717059000479</v>
+        <v>14.7825279477812</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.92382643796959</v>
+        <v>15.9402957344626</v>
       </c>
       <c r="H73" t="n">
-        <v>-8.67010417035675</v>
+        <v>17.7299420852484</v>
       </c>
       <c r="I73" t="n">
-        <v>-9.15136887188432</v>
+        <v>17.4925161252045</v>
       </c>
       <c r="J73" t="n">
-        <v>-9.3783131086794</v>
+        <v>17.749100866803</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-5.07851200193121</v>
+        <v>9.18041871054941</v>
       </c>
       <c r="B74" t="n">
-        <v>-5.1542335397895</v>
+        <v>-5.29094798467202</v>
       </c>
       <c r="C74" t="n">
-        <v>-5.88588497448543</v>
+        <v>-6.20537580932958</v>
       </c>
       <c r="D74" t="n">
-        <v>-6.7145887503473</v>
+        <v>-6.3260603280033</v>
       </c>
       <c r="E74" t="n">
-        <v>-7.31542804001084</v>
+        <v>-7.28809517777655</v>
       </c>
       <c r="F74" t="n">
-        <v>-7.28619315117172</v>
+        <v>-7.75218107047964</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.09449830572275</v>
+        <v>-7.69653545189288</v>
       </c>
       <c r="H74" t="n">
-        <v>-8.18961356057357</v>
+        <v>-8.64692057734673</v>
       </c>
       <c r="I74" t="n">
-        <v>-8.49544348236146</v>
+        <v>-9.21963062117044</v>
       </c>
       <c r="J74" t="n">
-        <v>-9.54899978336432</v>
+        <v>-8.94916723660326</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>9.825609574903</v>
+        <v>10.5752754846924</v>
       </c>
       <c r="B75" t="n">
-        <v>11.2974037521893</v>
+        <v>9.72295381233891</v>
       </c>
       <c r="C75" t="n">
-        <v>12.1399415890427</v>
+        <v>11.1387433903892</v>
       </c>
       <c r="D75" t="n">
-        <v>11.9624065849151</v>
+        <v>12.6016638557884</v>
       </c>
       <c r="E75" t="n">
-        <v>12.1466196050435</v>
+        <v>13.9264079809697</v>
       </c>
       <c r="F75" t="n">
-        <v>15.8787866831917</v>
+        <v>15.5929061739674</v>
       </c>
       <c r="G75" t="n">
-        <v>15.940626884065</v>
+        <v>17.4072077141585</v>
       </c>
       <c r="H75" t="n">
-        <v>17.1653900350441</v>
+        <v>-8.75913820260969</v>
       </c>
       <c r="I75" t="n">
-        <v>17.4309975708758</v>
+        <v>-9.19849260731651</v>
       </c>
       <c r="J75" t="n">
-        <v>18.1999297774886</v>
+        <v>-9.58325362604114</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-4.57700431415408</v>
+        <v>10.279786252253</v>
       </c>
       <c r="B76" t="n">
-        <v>-5.39101695695774</v>
+        <v>-5.27167728037206</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.76330188974234</v>
+        <v>-5.92522311093152</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.39168598808756</v>
+        <v>-7.01089852203789</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.29924848145097</v>
+        <v>-6.69797087536162</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.4099962406807</v>
+        <v>-7.85715043406158</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.52196491973351</v>
+        <v>-7.71089048376008</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.46927284063327</v>
+        <v>-8.91962750719622</v>
       </c>
       <c r="I76" t="n">
-        <v>-8.82552440585121</v>
+        <v>-8.97152230805967</v>
       </c>
       <c r="J76" t="n">
-        <v>-9.44904627147901</v>
+        <v>-9.53484015362917</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-5.03853687867667</v>
+        <v>9.72060932918937</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.71976863184923</v>
+        <v>10.6540746619691</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.11346095961436</v>
+        <v>11.390717897315</v>
       </c>
       <c r="D77" t="n">
-        <v>12.6294086882596</v>
+        <v>11.4834538021295</v>
       </c>
       <c r="E77" t="n">
-        <v>14.2083940133466</v>
+        <v>13.1956141597662</v>
       </c>
       <c r="F77" t="n">
-        <v>14.1370483420073</v>
+        <v>15.2702426326837</v>
       </c>
       <c r="G77" t="n">
-        <v>17.2932222286952</v>
+        <v>16.0498604891822</v>
       </c>
       <c r="H77" t="n">
-        <v>17.1712657123768</v>
+        <v>17.2979401423002</v>
       </c>
       <c r="I77" t="n">
-        <v>18.3994230070782</v>
+        <v>16.5336960046924</v>
       </c>
       <c r="J77" t="n">
-        <v>19.525357636573</v>
+        <v>19.7091802462308</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-5.20203085440664</v>
+        <v>10.4318751387817</v>
       </c>
       <c r="B78" t="n">
-        <v>-5.30695036557266</v>
+        <v>10.9803985275451</v>
       </c>
       <c r="C78" t="n">
-        <v>-5.53804303629936</v>
+        <v>13.2340834779792</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.88832915137989</v>
+        <v>12.4653609083247</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.38536181718375</v>
+        <v>13.3684163504718</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.72460675176782</v>
+        <v>14.9347754183899</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.93564563547422</v>
+        <v>15.356030481709</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.92251110537435</v>
+        <v>17.2595414740842</v>
       </c>
       <c r="I78" t="n">
-        <v>-9.05799439408811</v>
+        <v>17.1344462764347</v>
       </c>
       <c r="J78" t="n">
-        <v>-9.44555894911973</v>
+        <v>19.9191001504663</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>10.8321451693996</v>
+        <v>-4.98812827636621</v>
       </c>
       <c r="B79" t="n">
-        <v>11.3739054151404</v>
+        <v>-5.16521219764886</v>
       </c>
       <c r="C79" t="n">
-        <v>10.146675199646</v>
+        <v>-5.9354361817418</v>
       </c>
       <c r="D79" t="n">
-        <v>13.1667588033503</v>
+        <v>-6.44716075827767</v>
       </c>
       <c r="E79" t="n">
-        <v>13.993778820472</v>
+        <v>-7.05638340637434</v>
       </c>
       <c r="F79" t="n">
-        <v>14.4936732096002</v>
+        <v>-7.36039811693406</v>
       </c>
       <c r="G79" t="n">
-        <v>14.6439817323063</v>
+        <v>-8.2936795122616</v>
       </c>
       <c r="H79" t="n">
-        <v>17.3920988731318</v>
+        <v>-8.21870908162442</v>
       </c>
       <c r="I79" t="n">
-        <v>17.3048642153628</v>
+        <v>-8.86021344193143</v>
       </c>
       <c r="J79" t="n">
-        <v>18.8745594912161</v>
+        <v>-9.52626481259212</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.43631548029608</v>
+        <v>-4.4475682056301</v>
       </c>
       <c r="B80" t="n">
-        <v>11.1783655800364</v>
+        <v>-5.25163963426862</v>
       </c>
       <c r="C80" t="n">
-        <v>12.7988507730411</v>
+        <v>-6.0928946903375</v>
       </c>
       <c r="D80" t="n">
-        <v>14.7971139693248</v>
+        <v>-6.66232129324372</v>
       </c>
       <c r="E80" t="n">
-        <v>13.9085748763289</v>
+        <v>-7.1904568784961</v>
       </c>
       <c r="F80" t="n">
-        <v>12.9877706616025</v>
+        <v>-7.73918385399999</v>
       </c>
       <c r="G80" t="n">
-        <v>16.1641857751714</v>
+        <v>-8.11142138112878</v>
       </c>
       <c r="H80" t="n">
-        <v>18.4251015168884</v>
+        <v>-8.79176016189717</v>
       </c>
       <c r="I80" t="n">
-        <v>18.6041614245953</v>
+        <v>-9.60254265146897</v>
       </c>
       <c r="J80" t="n">
-        <v>19.3302459636387</v>
+        <v>-9.17256485945818</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10.1706873103805</v>
+        <v>9.88956072494324</v>
       </c>
       <c r="B81" t="n">
-        <v>9.52524823294893</v>
+        <v>9.55888565420066</v>
       </c>
       <c r="C81" t="n">
-        <v>13.1396326156228</v>
+        <v>10.1871842274209</v>
       </c>
       <c r="D81" t="n">
-        <v>12.7365878747784</v>
+        <v>13.5135669270184</v>
       </c>
       <c r="E81" t="n">
-        <v>15.0792142952326</v>
+        <v>15.1160954616186</v>
       </c>
       <c r="F81" t="n">
-        <v>15.2526498802139</v>
+        <v>15.4306838565091</v>
       </c>
       <c r="G81" t="n">
-        <v>16.1479636219044</v>
+        <v>15.8799952997624</v>
       </c>
       <c r="H81" t="n">
-        <v>-8.32322750336515</v>
+        <v>15.932466030079</v>
       </c>
       <c r="I81" t="n">
-        <v>-9.0743127336924</v>
+        <v>18.3443160156873</v>
       </c>
       <c r="J81" t="n">
-        <v>-8.98123606053821</v>
+        <v>18.549841513761</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.87781714902837</v>
+        <v>9.71223524578679</v>
       </c>
       <c r="B82" t="n">
-        <v>11.2389349964049</v>
+        <v>11.7251874552947</v>
       </c>
       <c r="C82" t="n">
-        <v>12.1157623771152</v>
+        <v>12.92275500403</v>
       </c>
       <c r="D82" t="n">
-        <v>13.169571526863</v>
+        <v>12.7251969627556</v>
       </c>
       <c r="E82" t="n">
-        <v>12.5140429929885</v>
+        <v>14.1065991002414</v>
       </c>
       <c r="F82" t="n">
-        <v>14.6039071014829</v>
+        <v>15.2487812356393</v>
       </c>
       <c r="G82" t="n">
-        <v>17.0579697805634</v>
+        <v>16.30059911839</v>
       </c>
       <c r="H82" t="n">
-        <v>16.3187082303314</v>
+        <v>18.4412225934402</v>
       </c>
       <c r="I82" t="n">
-        <v>18.6671525530752</v>
+        <v>17.922370382589</v>
       </c>
       <c r="J82" t="n">
-        <v>19.2668645307378</v>
+        <v>18.4517483698937</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10.5022718802334</v>
+        <v>9.44698943519823</v>
       </c>
       <c r="B83" t="n">
-        <v>10.6610775599681</v>
+        <v>10.3374168449711</v>
       </c>
       <c r="C83" t="n">
-        <v>12.3730972544683</v>
+        <v>11.6256853552493</v>
       </c>
       <c r="D83" t="n">
-        <v>14.0636804915476</v>
+        <v>12.7164298232871</v>
       </c>
       <c r="E83" t="n">
-        <v>13.4660919149104</v>
+        <v>14.1045914403663</v>
       </c>
       <c r="F83" t="n">
-        <v>15.5757997479319</v>
+        <v>15.110666815565</v>
       </c>
       <c r="G83" t="n">
-        <v>15.390463542946</v>
+        <v>16.2827324756234</v>
       </c>
       <c r="H83" t="n">
-        <v>16.5374679531454</v>
+        <v>18.5120264728716</v>
       </c>
       <c r="I83" t="n">
-        <v>18.8089896168995</v>
+        <v>-9.00776475955764</v>
       </c>
       <c r="J83" t="n">
-        <v>18.0146636104979</v>
+        <v>-9.00633310735121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>9.39661778562031</v>
+        <v>9.13502668842793</v>
       </c>
       <c r="B84" t="n">
-        <v>10.6175979473303</v>
+        <v>10.7107310395443</v>
       </c>
       <c r="C84" t="n">
-        <v>11.9959715161526</v>
+        <v>-5.66935710007644</v>
       </c>
       <c r="D84" t="n">
-        <v>13.1081243330719</v>
+        <v>-6.23356185457281</v>
       </c>
       <c r="E84" t="n">
-        <v>14.7012290334449</v>
+        <v>-7.01692534456875</v>
       </c>
       <c r="F84" t="n">
-        <v>15.5936220401866</v>
+        <v>-6.94090618748766</v>
       </c>
       <c r="G84" t="n">
-        <v>16.565987788967</v>
+        <v>-7.66453083680784</v>
       </c>
       <c r="H84" t="n">
-        <v>16.330625123193</v>
+        <v>-8.84546076452028</v>
       </c>
       <c r="I84" t="n">
-        <v>17.7248003142786</v>
+        <v>-8.77955182923169</v>
       </c>
       <c r="J84" t="n">
-        <v>18.8033495541953</v>
+        <v>-9.42961938334862</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.37703845757157</v>
+        <v>10.2987825516095</v>
       </c>
       <c r="B85" t="n">
-        <v>11.1097129176222</v>
+        <v>10.6385926770743</v>
       </c>
       <c r="C85" t="n">
-        <v>11.089639292828</v>
+        <v>10.9139134546653</v>
       </c>
       <c r="D85" t="n">
-        <v>13.3137778845748</v>
+        <v>12.2243354136928</v>
       </c>
       <c r="E85" t="n">
-        <v>13.8158496942291</v>
+        <v>13.527407184944</v>
       </c>
       <c r="F85" t="n">
-        <v>14.6676317538259</v>
+        <v>13.4632408292342</v>
       </c>
       <c r="G85" t="n">
-        <v>15.3304796862162</v>
+        <v>-8.11393498173087</v>
       </c>
       <c r="H85" t="n">
-        <v>16.3530812359538</v>
+        <v>-8.19448684154274</v>
       </c>
       <c r="I85" t="n">
-        <v>-9.39258201510407</v>
+        <v>-9.12976813120116</v>
       </c>
       <c r="J85" t="n">
-        <v>-10.0635936175797</v>
+        <v>-9.2643176353758</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-5.57609141320121</v>
+        <v>-5.05816288186559</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.65145340436203</v>
+        <v>-5.20096942535409</v>
       </c>
       <c r="C86" t="n">
-        <v>-5.87848474969513</v>
+        <v>-5.80962605266983</v>
       </c>
       <c r="D86" t="n">
-        <v>-6.67554398746817</v>
+        <v>-6.64437187438792</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.26569884356435</v>
+        <v>-6.76659445736849</v>
       </c>
       <c r="F86" t="n">
-        <v>-7.43372667896508</v>
+        <v>-7.37972150619211</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.15416973400985</v>
+        <v>-7.93993475340777</v>
       </c>
       <c r="H86" t="n">
-        <v>-8.42506839464051</v>
+        <v>-8.63846796893719</v>
       </c>
       <c r="I86" t="n">
-        <v>-8.62292264459678</v>
+        <v>-9.26502745136711</v>
       </c>
       <c r="J86" t="n">
-        <v>-9.62822204855328</v>
+        <v>-9.55786779456414</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-4.7181739592858</v>
+        <v>-4.81581703247435</v>
       </c>
       <c r="B87" t="n">
-        <v>-5.68176436826131</v>
+        <v>-5.98260648884231</v>
       </c>
       <c r="C87" t="n">
-        <v>-6.16612501924283</v>
+        <v>-5.77421946274518</v>
       </c>
       <c r="D87" t="n">
-        <v>-6.25714944133721</v>
+        <v>-6.19605034307284</v>
       </c>
       <c r="E87" t="n">
-        <v>-6.84271909387137</v>
+        <v>-7.20850071536761</v>
       </c>
       <c r="F87" t="n">
-        <v>-7.43450576476087</v>
+        <v>-7.56215532260192</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.92758347267261</v>
+        <v>-7.79327532395556</v>
       </c>
       <c r="H87" t="n">
-        <v>-8.41640583463822</v>
+        <v>-8.51121436941706</v>
       </c>
       <c r="I87" t="n">
-        <v>-9.34513495804495</v>
+        <v>-8.54837445763999</v>
       </c>
       <c r="J87" t="n">
-        <v>-9.36027364912003</v>
+        <v>-9.70430337964254</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10.1502344098709</v>
+        <v>10.1634024780262</v>
       </c>
       <c r="B88" t="n">
-        <v>10.8519283557516</v>
+        <v>11.7221305332636</v>
       </c>
       <c r="C88" t="n">
-        <v>12.7253175022257</v>
+        <v>11.4654815212151</v>
       </c>
       <c r="D88" t="n">
-        <v>12.9663487640333</v>
+        <v>13.9918151934075</v>
       </c>
       <c r="E88" t="n">
-        <v>14.0939426853387</v>
+        <v>14.1635877530596</v>
       </c>
       <c r="F88" t="n">
-        <v>15.1001664288071</v>
+        <v>15.6431497891844</v>
       </c>
       <c r="G88" t="n">
-        <v>15.650968157075</v>
+        <v>16.4130935171098</v>
       </c>
       <c r="H88" t="n">
-        <v>16.421224898284</v>
+        <v>16.904812388727</v>
       </c>
       <c r="I88" t="n">
-        <v>17.562045969511</v>
+        <v>19.0254386875467</v>
       </c>
       <c r="J88" t="n">
-        <v>19.2574476023176</v>
+        <v>-9.53271042788611</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.91231679596775</v>
+        <v>11.0711224844266</v>
       </c>
       <c r="B89" t="n">
-        <v>10.4751575617852</v>
+        <v>10.536009842888</v>
       </c>
       <c r="C89" t="n">
-        <v>12.1052530459573</v>
+        <v>13.4346438229924</v>
       </c>
       <c r="D89" t="n">
-        <v>13.0488721852952</v>
+        <v>12.6670524242805</v>
       </c>
       <c r="E89" t="n">
-        <v>13.7311912330862</v>
+        <v>13.9835835729779</v>
       </c>
       <c r="F89" t="n">
-        <v>14.9164723003391</v>
+        <v>16.9400983109246</v>
       </c>
       <c r="G89" t="n">
-        <v>15.1622656712271</v>
+        <v>-7.94639826874037</v>
       </c>
       <c r="H89" t="n">
-        <v>16.776183944466</v>
+        <v>-8.67321353244676</v>
       </c>
       <c r="I89" t="n">
-        <v>18.8808592960237</v>
+        <v>-8.708798428765</v>
       </c>
       <c r="J89" t="n">
-        <v>18.636077628466</v>
+        <v>-9.16381141686962</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.98404756150352</v>
+        <v>10.4633917785791</v>
       </c>
       <c r="B90" t="n">
-        <v>9.81557387211043</v>
+        <v>11.6453224313113</v>
       </c>
       <c r="C90" t="n">
-        <v>11.9795975331423</v>
+        <v>11.2461435678695</v>
       </c>
       <c r="D90" t="n">
-        <v>13.2397630467412</v>
+        <v>-6.47297165854095</v>
       </c>
       <c r="E90" t="n">
-        <v>14.7328353848237</v>
+        <v>-7.48643423628714</v>
       </c>
       <c r="F90" t="n">
-        <v>15.5104710603778</v>
+        <v>-7.67662590524304</v>
       </c>
       <c r="G90" t="n">
-        <v>15.4506296872436</v>
+        <v>-8.17799909673904</v>
       </c>
       <c r="H90" t="n">
-        <v>16.6256536016215</v>
+        <v>-8.31186949207554</v>
       </c>
       <c r="I90" t="n">
-        <v>17.1850001316369</v>
+        <v>-8.76974252731497</v>
       </c>
       <c r="J90" t="n">
-        <v>19.0384732975666</v>
+        <v>-9.58581285104134</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>9.64178443189108</v>
+        <v>9.62437252660596</v>
       </c>
       <c r="B91" t="n">
-        <v>11.1524021487613</v>
+        <v>10.8558252647997</v>
       </c>
       <c r="C91" t="n">
-        <v>11.6857103791639</v>
+        <v>12.4402321012864</v>
       </c>
       <c r="D91" t="n">
-        <v>12.04783613734</v>
+        <v>13.1741921063182</v>
       </c>
       <c r="E91" t="n">
-        <v>14.6761596373114</v>
+        <v>14.0686433847194</v>
       </c>
       <c r="F91" t="n">
-        <v>15.4413166765899</v>
+        <v>14.9913272518611</v>
       </c>
       <c r="G91" t="n">
-        <v>17.2387535374023</v>
+        <v>16.2006369975627</v>
       </c>
       <c r="H91" t="n">
-        <v>17.3634591154279</v>
+        <v>17.2137026637374</v>
       </c>
       <c r="I91" t="n">
-        <v>17.1867946320726</v>
+        <v>17.4214595237347</v>
       </c>
       <c r="J91" t="n">
-        <v>18.2373250340007</v>
+        <v>16.5975178567237</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-5.58193133590507</v>
+        <v>8.53141719912092</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.76832227712871</v>
+        <v>10.630129829826</v>
       </c>
       <c r="C92" t="n">
-        <v>-6.08462620234498</v>
+        <v>12.3906849333027</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.25213915595882</v>
+        <v>11.7085104001917</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.30619466903784</v>
+        <v>13.8313288682002</v>
       </c>
       <c r="F92" t="n">
-        <v>-7.87524299010915</v>
+        <v>15.0113222757395</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.07581500483007</v>
+        <v>17.0008824061502</v>
       </c>
       <c r="H92" t="n">
-        <v>-8.29054986607765</v>
+        <v>-8.17874195017973</v>
       </c>
       <c r="I92" t="n">
-        <v>-9.3652039425724</v>
+        <v>-9.67811545738856</v>
       </c>
       <c r="J92" t="n">
-        <v>-9.66227397319638</v>
+        <v>-9.89597383477304</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>11.3834473692598</v>
+        <v>11.0951353434781</v>
       </c>
       <c r="B93" t="n">
-        <v>11.5278623623797</v>
+        <v>10.8628843598129</v>
       </c>
       <c r="C93" t="n">
-        <v>11.9591886588442</v>
+        <v>12.1407635930672</v>
       </c>
       <c r="D93" t="n">
-        <v>11.9952459712506</v>
+        <v>12.2924974320914</v>
       </c>
       <c r="E93" t="n">
-        <v>13.3494376370662</v>
+        <v>14.4306092960167</v>
       </c>
       <c r="F93" t="n">
-        <v>15.1119815599407</v>
+        <v>14.6300555887284</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.40359115388722</v>
+        <v>14.7443017108187</v>
       </c>
       <c r="H93" t="n">
-        <v>-8.80816455115693</v>
+        <v>16.7930700458695</v>
       </c>
       <c r="I93" t="n">
-        <v>-9.00919530389796</v>
+        <v>18.3109073445187</v>
       </c>
       <c r="J93" t="n">
-        <v>-9.44630111919529</v>
+        <v>17.3427291919652</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>10.5525725909622</v>
+        <v>10.251474224316</v>
       </c>
       <c r="B94" t="n">
-        <v>10.5864084580579</v>
+        <v>11.0562636545332</v>
       </c>
       <c r="C94" t="n">
-        <v>10.9170747800699</v>
+        <v>10.7777141440397</v>
       </c>
       <c r="D94" t="n">
-        <v>13.0169310500461</v>
+        <v>-6.47105176745396</v>
       </c>
       <c r="E94" t="n">
-        <v>14.5063890800969</v>
+        <v>-7.2816875863197</v>
       </c>
       <c r="F94" t="n">
-        <v>15.0785281036647</v>
+        <v>-7.47849464568955</v>
       </c>
       <c r="G94" t="n">
-        <v>16.1852767327218</v>
+        <v>-7.79509249768542</v>
       </c>
       <c r="H94" t="n">
-        <v>16.1395064447942</v>
+        <v>-8.51345390157513</v>
       </c>
       <c r="I94" t="n">
-        <v>17.850342658451</v>
+        <v>-8.74617813451398</v>
       </c>
       <c r="J94" t="n">
-        <v>20.9107874127182</v>
+        <v>-9.28998688518297</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.80897648589317</v>
+        <v>-4.32154481333449</v>
       </c>
       <c r="B95" t="n">
-        <v>10.9605389812391</v>
+        <v>-5.37174513904702</v>
       </c>
       <c r="C95" t="n">
-        <v>13.1186473378252</v>
+        <v>-5.64732225014776</v>
       </c>
       <c r="D95" t="n">
-        <v>15.0147463093604</v>
+        <v>-6.68059512718738</v>
       </c>
       <c r="E95" t="n">
-        <v>14.0208657502887</v>
+        <v>-7.20385662524927</v>
       </c>
       <c r="F95" t="n">
-        <v>15.5122035386743</v>
+        <v>-7.70272558821566</v>
       </c>
       <c r="G95" t="n">
-        <v>14.5976988727976</v>
+        <v>-7.72300155305027</v>
       </c>
       <c r="H95" t="n">
-        <v>16.6502231438734</v>
+        <v>-7.83412907477467</v>
       </c>
       <c r="I95" t="n">
-        <v>18.0769879103799</v>
+        <v>-8.96613516282511</v>
       </c>
       <c r="J95" t="n">
-        <v>18.8208028560289</v>
+        <v>-9.7402641127807</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-4.99483744534996</v>
+        <v>-4.60854522143211</v>
       </c>
       <c r="B96" t="n">
-        <v>-5.68799304796958</v>
+        <v>-5.45351632676783</v>
       </c>
       <c r="C96" t="n">
-        <v>-5.88704418450678</v>
+        <v>-5.85994199972869</v>
       </c>
       <c r="D96" t="n">
-        <v>-6.43275242586509</v>
+        <v>-6.39142826971336</v>
       </c>
       <c r="E96" t="n">
-        <v>-6.88635828469854</v>
+        <v>-7.44994274009257</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.29959206491821</v>
+        <v>-7.44241383609702</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.20156045724891</v>
+        <v>-7.9540895788304</v>
       </c>
       <c r="H96" t="n">
-        <v>-8.71600783337308</v>
+        <v>-8.28836588809513</v>
       </c>
       <c r="I96" t="n">
-        <v>-8.79341020735909</v>
+        <v>-9.06143368764286</v>
       </c>
       <c r="J96" t="n">
-        <v>-9.92495346206169</v>
+        <v>-9.4000651633355</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-4.92461030341664</v>
+        <v>9.64205709199227</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.54504433505486</v>
+        <v>11.6729303829183</v>
       </c>
       <c r="C97" t="n">
-        <v>-6.21298753303697</v>
+        <v>11.8686448167709</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.11024753187928</v>
+        <v>12.5855832535273</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.43936872138568</v>
+        <v>15.9047364135627</v>
       </c>
       <c r="F97" t="n">
-        <v>14.633462396516</v>
+        <v>-7.55247713380512</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.03714974488943</v>
+        <v>-8.16505968840483</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.23068464785506</v>
+        <v>-8.42488742664395</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.66228117139467</v>
+        <v>-8.57646065180655</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.63206970612089</v>
+        <v>-9.19711816220871</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>9.60060355406073</v>
+        <v>9.84605430611062</v>
       </c>
       <c r="B98" t="n">
-        <v>11.3186958513406</v>
+        <v>-5.67150119463079</v>
       </c>
       <c r="C98" t="n">
-        <v>13.4690131151279</v>
+        <v>-5.92475223715243</v>
       </c>
       <c r="D98" t="n">
-        <v>12.8017795875814</v>
+        <v>-6.60587922855177</v>
       </c>
       <c r="E98" t="n">
-        <v>13.2056340788455</v>
+        <v>-7.0797582690819</v>
       </c>
       <c r="F98" t="n">
-        <v>13.7120370407959</v>
+        <v>-7.33245345346873</v>
       </c>
       <c r="G98" t="n">
-        <v>15.802210407704</v>
+        <v>-7.9746457569064</v>
       </c>
       <c r="H98" t="n">
-        <v>17.4369985731261</v>
+        <v>-8.55855301791294</v>
       </c>
       <c r="I98" t="n">
-        <v>18.9019091963662</v>
+        <v>-8.83606944613639</v>
       </c>
       <c r="J98" t="n">
-        <v>17.8396960361397</v>
+        <v>-9.87026958543188</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>11.2354193934394</v>
+        <v>10.7000178538824</v>
       </c>
       <c r="B99" t="n">
-        <v>10.0361553777857</v>
+        <v>11.2790559024529</v>
       </c>
       <c r="C99" t="n">
-        <v>12.5638089800752</v>
+        <v>-5.92375274925801</v>
       </c>
       <c r="D99" t="n">
-        <v>14.4760240277751</v>
+        <v>-6.20875428469188</v>
       </c>
       <c r="E99" t="n">
-        <v>14.265881156991</v>
+        <v>-7.02092338536967</v>
       </c>
       <c r="F99" t="n">
-        <v>15.6411262719952</v>
+        <v>-7.94230594936127</v>
       </c>
       <c r="G99" t="n">
-        <v>17.0880770924541</v>
+        <v>-7.51486203947085</v>
       </c>
       <c r="H99" t="n">
-        <v>16.7476179130489</v>
+        <v>-8.61980698111445</v>
       </c>
       <c r="I99" t="n">
-        <v>17.4532651109324</v>
+        <v>-8.98671308545372</v>
       </c>
       <c r="J99" t="n">
-        <v>18.5137002172633</v>
+        <v>-9.61724765613743</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>10.7864573435769</v>
+        <v>9.54763656115674</v>
       </c>
       <c r="B100" t="n">
-        <v>11.5838543464736</v>
+        <v>11.7005906114976</v>
       </c>
       <c r="C100" t="n">
-        <v>11.7758446268668</v>
+        <v>11.7718763330463</v>
       </c>
       <c r="D100" t="n">
-        <v>13.2299336380566</v>
+        <v>13.9298665309257</v>
       </c>
       <c r="E100" t="n">
-        <v>14.1811777515127</v>
+        <v>14.0514202376874</v>
       </c>
       <c r="F100" t="n">
-        <v>15.5915191917989</v>
+        <v>15.2961302795758</v>
       </c>
       <c r="G100" t="n">
-        <v>16.0030056197617</v>
+        <v>15.6893719300634</v>
       </c>
       <c r="H100" t="n">
-        <v>17.0265757198122</v>
+        <v>17.9026750735067</v>
       </c>
       <c r="I100" t="n">
-        <v>17.9487253861295</v>
+        <v>17.3332711820678</v>
       </c>
       <c r="J100" t="n">
-        <v>18.2764405426584</v>
+        <v>18.55946297245</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>11.1496144026118</v>
+        <v>-5.07516593749052</v>
       </c>
       <c r="B101" t="n">
-        <v>11.1227722347322</v>
+        <v>-5.50818934959943</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.12275509221845</v>
+        <v>-6.08760787114058</v>
       </c>
       <c r="D101" t="n">
-        <v>-6.39784148607599</v>
+        <v>-6.42472132227251</v>
       </c>
       <c r="E101" t="n">
-        <v>-6.41649313297314</v>
+        <v>-7.14647802192943</v>
       </c>
       <c r="F101" t="n">
-        <v>-7.50867722603305</v>
+        <v>-7.58816088171451</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.3515189692662</v>
+        <v>-7.89201943591057</v>
       </c>
       <c r="H101" t="n">
-        <v>-8.55633742720233</v>
+        <v>-8.07062147199398</v>
       </c>
       <c r="I101" t="n">
-        <v>-8.63695283964737</v>
+        <v>-8.67212442812821</v>
       </c>
       <c r="J101" t="n">
-        <v>-9.74778849604107</v>
+        <v>-9.10259535222757</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.54518051730217</v>
+        <v>11.6089163748609</v>
       </c>
       <c r="B102" t="n">
-        <v>10.6667674505209</v>
+        <v>10.4752129428038</v>
       </c>
       <c r="C102" t="n">
-        <v>11.440619019925</v>
+        <v>11.5861177206959</v>
       </c>
       <c r="D102" t="n">
-        <v>13.2923249738255</v>
+        <v>13.5209054196279</v>
       </c>
       <c r="E102" t="n">
-        <v>13.5384102626732</v>
+        <v>13.1199211681354</v>
       </c>
       <c r="F102" t="n">
-        <v>15.7746338913661</v>
+        <v>14.7321822889717</v>
       </c>
       <c r="G102" t="n">
-        <v>17.0645709622985</v>
+        <v>16.6972179851768</v>
       </c>
       <c r="H102" t="n">
-        <v>15.8991878213784</v>
+        <v>17.5092741368713</v>
       </c>
       <c r="I102" t="n">
-        <v>18.2460230772947</v>
+        <v>17.7303340942271</v>
       </c>
       <c r="J102" t="n">
-        <v>18.8848569538812</v>
+        <v>19.3365715791655</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.79097115481229</v>
+        <v>-5.21061567897888</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.07944052015031</v>
+        <v>-5.36321169934019</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.91050409115295</v>
+        <v>-5.99904663697479</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.83566242948513</v>
+        <v>13.1024080420874</v>
       </c>
       <c r="E103" t="n">
-        <v>-6.90486234372156</v>
+        <v>13.8230577616294</v>
       </c>
       <c r="F103" t="n">
-        <v>-7.81557783427264</v>
+        <v>15.5267564504021</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.75540288882911</v>
+        <v>15.3100852161721</v>
       </c>
       <c r="H103" t="n">
-        <v>-8.51282383004319</v>
+        <v>17.4870193748139</v>
       </c>
       <c r="I103" t="n">
-        <v>-8.91001722298764</v>
+        <v>17.8539127680028</v>
       </c>
       <c r="J103" t="n">
-        <v>-9.16343228647291</v>
+        <v>18.3289296482106</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>10.4949197011816</v>
+        <v>9.78506368915579</v>
       </c>
       <c r="B104" t="n">
-        <v>11.4871496662474</v>
+        <v>10.416018761046</v>
       </c>
       <c r="C104" t="n">
-        <v>11.7946133993048</v>
+        <v>11.4298936917427</v>
       </c>
       <c r="D104" t="n">
-        <v>13.3863158847064</v>
+        <v>11.6739381840734</v>
       </c>
       <c r="E104" t="n">
-        <v>13.5644519388494</v>
+        <v>13.6564037455673</v>
       </c>
       <c r="F104" t="n">
-        <v>15.6359105278543</v>
+        <v>-7.78324889657332</v>
       </c>
       <c r="G104" t="n">
-        <v>16.6636114881641</v>
+        <v>-8.28732590820424</v>
       </c>
       <c r="H104" t="n">
-        <v>18.0388850308471</v>
+        <v>-8.08872551043246</v>
       </c>
       <c r="I104" t="n">
-        <v>17.8829636577263</v>
+        <v>-9.26368208755837</v>
       </c>
       <c r="J104" t="n">
-        <v>-8.90161591703383</v>
+        <v>-9.60819975067834</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.26496476388066</v>
+        <v>9.62977679974154</v>
       </c>
       <c r="B105" t="n">
-        <v>11.3539222897492</v>
+        <v>11.4346395390946</v>
       </c>
       <c r="C105" t="n">
-        <v>12.4164667884568</v>
+        <v>11.3998721152707</v>
       </c>
       <c r="D105" t="n">
-        <v>12.8331267918895</v>
+        <v>13.8600287834351</v>
       </c>
       <c r="E105" t="n">
-        <v>13.7193138560383</v>
+        <v>13.287417731694</v>
       </c>
       <c r="F105" t="n">
-        <v>13.7177382809748</v>
+        <v>15.5960814764499</v>
       </c>
       <c r="G105" t="n">
-        <v>15.7606742892311</v>
+        <v>-8.05955658949178</v>
       </c>
       <c r="H105" t="n">
-        <v>15.9228887587717</v>
+        <v>-8.21633524966829</v>
       </c>
       <c r="I105" t="n">
-        <v>17.9208538782055</v>
+        <v>-8.76716413999316</v>
       </c>
       <c r="J105" t="n">
-        <v>19.6763737530443</v>
+        <v>-9.7002907379226</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.69969738316246</v>
+        <v>11.4641774298249</v>
       </c>
       <c r="B106" t="n">
-        <v>11.3240579036823</v>
+        <v>-5.39805258514851</v>
       </c>
       <c r="C106" t="n">
-        <v>13.6721975558185</v>
+        <v>-6.01005101930418</v>
       </c>
       <c r="D106" t="n">
-        <v>12.7598945890747</v>
+        <v>-6.87141800976268</v>
       </c>
       <c r="E106" t="n">
-        <v>14.3572521125584</v>
+        <v>-7.3417346404383</v>
       </c>
       <c r="F106" t="n">
-        <v>15.6683004088791</v>
+        <v>-7.02709376566569</v>
       </c>
       <c r="G106" t="n">
-        <v>16.3647990452768</v>
+        <v>-8.01492616209249</v>
       </c>
       <c r="H106" t="n">
-        <v>16.4404721067758</v>
+        <v>-8.30430163077075</v>
       </c>
       <c r="I106" t="n">
-        <v>16.7741992649382</v>
+        <v>-8.91779844484897</v>
       </c>
       <c r="J106" t="n">
-        <v>18.271024656311</v>
+        <v>-9.57625561492461</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.8473477921326</v>
+        <v>11.0471763838886</v>
       </c>
       <c r="B107" t="n">
-        <v>12.126516373025</v>
+        <v>11.1185450853367</v>
       </c>
       <c r="C107" t="n">
-        <v>12.8611673165457</v>
+        <v>11.3298908892711</v>
       </c>
       <c r="D107" t="n">
-        <v>14.0908224688392</v>
+        <v>13.6965776216865</v>
       </c>
       <c r="E107" t="n">
-        <v>13.9207574332774</v>
+        <v>14.2572523313739</v>
       </c>
       <c r="F107" t="n">
-        <v>15.2741669932386</v>
+        <v>14.6251350563853</v>
       </c>
       <c r="G107" t="n">
-        <v>15.4044003702539</v>
+        <v>15.8849397348652</v>
       </c>
       <c r="H107" t="n">
-        <v>17.1889665710061</v>
+        <v>18.8231427675341</v>
       </c>
       <c r="I107" t="n">
-        <v>16.7435778790697</v>
+        <v>18.1744326207775</v>
       </c>
       <c r="J107" t="n">
-        <v>18.8917956249119</v>
+        <v>19.316056826163</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-4.98633203979896</v>
+        <v>9.8605391645887</v>
       </c>
       <c r="B108" t="n">
-        <v>-5.62966156725752</v>
+        <v>12.6556416788729</v>
       </c>
       <c r="C108" t="n">
-        <v>-5.72292433647147</v>
+        <v>12.6128741671319</v>
       </c>
       <c r="D108" t="n">
-        <v>-5.95590955870752</v>
+        <v>12.5242957398305</v>
       </c>
       <c r="E108" t="n">
-        <v>-7.29812064465906</v>
+        <v>-7.08764775914121</v>
       </c>
       <c r="F108" t="n">
-        <v>-7.61074506894627</v>
+        <v>-7.73229097089823</v>
       </c>
       <c r="G108" t="n">
-        <v>-8.4067963712868</v>
+        <v>-8.16397921009791</v>
       </c>
       <c r="H108" t="n">
-        <v>-8.37267721567851</v>
+        <v>-8.54712637062789</v>
       </c>
       <c r="I108" t="n">
-        <v>-8.76827228626587</v>
+        <v>-9.31493507475186</v>
       </c>
       <c r="J108" t="n">
-        <v>-8.96760106253499</v>
+        <v>-9.78410621179579</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>11.0581147387854</v>
+        <v>10.4768370272414</v>
       </c>
       <c r="B109" t="n">
-        <v>10.8703864198567</v>
+        <v>12.0124856557263</v>
       </c>
       <c r="C109" t="n">
-        <v>12.0924732522751</v>
+        <v>11.4656056028908</v>
       </c>
       <c r="D109" t="n">
-        <v>12.4455833568813</v>
+        <v>12.3702852577917</v>
       </c>
       <c r="E109" t="n">
-        <v>13.1590153587547</v>
+        <v>14.7002830336427</v>
       </c>
       <c r="F109" t="n">
-        <v>14.2560733737092</v>
+        <v>14.492908747995</v>
       </c>
       <c r="G109" t="n">
-        <v>14.5909377276755</v>
+        <v>15.4490511705379</v>
       </c>
       <c r="H109" t="n">
-        <v>17.3131001813043</v>
+        <v>16.9839030186211</v>
       </c>
       <c r="I109" t="n">
-        <v>18.0096685727817</v>
+        <v>18.3622007979188</v>
       </c>
       <c r="J109" t="n">
-        <v>19.6933243937831</v>
+        <v>19.3758200359314</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-4.67800585126972</v>
+        <v>11.0090162334008</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.29510660175728</v>
+        <v>10.1479032833564</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.66446063955223</v>
+        <v>11.5690971916131</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.48679888950919</v>
+        <v>12.3261583314324</v>
       </c>
       <c r="E110" t="n">
-        <v>-6.93953278388708</v>
+        <v>14.0948694661097</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.76645081562508</v>
+        <v>14.6450198671387</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.81285221575169</v>
+        <v>17.2358731944189</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.57044328156228</v>
+        <v>16.2410580562072</v>
       </c>
       <c r="I110" t="n">
-        <v>-8.9481907072607</v>
+        <v>17.9952669542835</v>
       </c>
       <c r="J110" t="n">
-        <v>-9.53644774286744</v>
+        <v>17.9341452172361</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-5.29321496352656</v>
+        <v>-5.11972020456668</v>
       </c>
       <c r="B111" t="n">
-        <v>-6.10199595371236</v>
+        <v>-5.18432509801715</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.24889132728724</v>
+        <v>-5.92516962884794</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.75846404543248</v>
+        <v>-6.7260959888066</v>
       </c>
       <c r="E111" t="n">
-        <v>-7.17959431216379</v>
+        <v>-6.5877512605213</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.81329857619096</v>
+        <v>-7.11904643279139</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.28618107091094</v>
+        <v>-8.0178702849644</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.41230695322379</v>
+        <v>-8.19406096281233</v>
       </c>
       <c r="I111" t="n">
-        <v>-8.88619509055676</v>
+        <v>-8.7494733930899</v>
       </c>
       <c r="J111" t="n">
-        <v>-9.38752819375249</v>
+        <v>-9.51988611823368</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>-5.51700470517532</v>
+        <v>9.41468925595219</v>
       </c>
       <c r="B112" t="n">
-        <v>-5.40467643461429</v>
+        <v>9.64383702379412</v>
       </c>
       <c r="C112" t="n">
-        <v>-5.95240170000364</v>
+        <v>11.6433526367923</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.94145128658187</v>
+        <v>12.5556680151756</v>
       </c>
       <c r="E112" t="n">
-        <v>-6.55468078380246</v>
+        <v>13.9446745578585</v>
       </c>
       <c r="F112" t="n">
-        <v>-7.74697061766716</v>
+        <v>15.4490651230539</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.80864525638951</v>
+        <v>16.4897707063888</v>
       </c>
       <c r="H112" t="n">
-        <v>-8.65060455362579</v>
+        <v>16.8837352567291</v>
       </c>
       <c r="I112" t="n">
-        <v>-8.81193214119067</v>
+        <v>16.839742437114</v>
       </c>
       <c r="J112" t="n">
-        <v>-9.13168498459928</v>
+        <v>-9.74044812334639</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>10.3838128011716</v>
+        <v>9.07205050446101</v>
       </c>
       <c r="B113" t="n">
-        <v>10.993958548992</v>
+        <v>11.2989659413093</v>
       </c>
       <c r="C113" t="n">
-        <v>11.7531782123669</v>
+        <v>13.470208586675</v>
       </c>
       <c r="D113" t="n">
-        <v>13.1274262023567</v>
+        <v>12.9209961332911</v>
       </c>
       <c r="E113" t="n">
-        <v>14.6859470270623</v>
+        <v>14.2581596228922</v>
       </c>
       <c r="F113" t="n">
-        <v>14.2630287578333</v>
+        <v>15.1952271578365</v>
       </c>
       <c r="G113" t="n">
-        <v>16.0807475327697</v>
+        <v>16.3873388800067</v>
       </c>
       <c r="H113" t="n">
-        <v>15.771604908918</v>
+        <v>17.4718916799416</v>
       </c>
       <c r="I113" t="n">
-        <v>-9.23792099484597</v>
+        <v>17.8131206786843</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.94996657078008</v>
+        <v>18.5357001885411</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.90528887328874</v>
+        <v>9.02069242515581</v>
       </c>
       <c r="B114" t="n">
-        <v>11.008347489397</v>
+        <v>11.1090777506855</v>
       </c>
       <c r="C114" t="n">
-        <v>11.7419850193273</v>
+        <v>12.2546136979847</v>
       </c>
       <c r="D114" t="n">
-        <v>12.6445339380243</v>
+        <v>13.2994445929594</v>
       </c>
       <c r="E114" t="n">
-        <v>14.0254752719268</v>
+        <v>13.8367058133515</v>
       </c>
       <c r="F114" t="n">
-        <v>-7.34592272801255</v>
+        <v>14.401501417521</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.30376940653248</v>
+        <v>14.7626953049812</v>
       </c>
       <c r="H114" t="n">
-        <v>-8.31941354508381</v>
+        <v>17.5884715948593</v>
       </c>
       <c r="I114" t="n">
-        <v>-8.83027872930731</v>
+        <v>18.0594588094347</v>
       </c>
       <c r="J114" t="n">
-        <v>-9.36822806922162</v>
+        <v>17.5784282397894</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.5426183607322</v>
+        <v>-4.37843104009406</v>
       </c>
       <c r="B115" t="n">
-        <v>10.7968563613943</v>
+        <v>-5.67257763551574</v>
       </c>
       <c r="C115" t="n">
-        <v>12.2531184113292</v>
+        <v>-6.56813912905492</v>
       </c>
       <c r="D115" t="n">
-        <v>12.00987611655</v>
+        <v>-6.46586709519612</v>
       </c>
       <c r="E115" t="n">
-        <v>15.0476144796755</v>
+        <v>-7.38981420010548</v>
       </c>
       <c r="F115" t="n">
-        <v>14.8124063231871</v>
+        <v>-7.43510845243178</v>
       </c>
       <c r="G115" t="n">
-        <v>15.8945431205913</v>
+        <v>-7.89932409091265</v>
       </c>
       <c r="H115" t="n">
-        <v>17.0040302522264</v>
+        <v>-8.37165535137518</v>
       </c>
       <c r="I115" t="n">
-        <v>18.2068918163247</v>
+        <v>-8.78663770086866</v>
       </c>
       <c r="J115" t="n">
-        <v>18.8024944161156</v>
+        <v>-9.63660039234622</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.54015626154262</v>
+        <v>-5.13320666952399</v>
       </c>
       <c r="B116" t="n">
-        <v>12.1728360763254</v>
+        <v>-5.9220980628823</v>
       </c>
       <c r="C116" t="n">
-        <v>10.885305336037</v>
+        <v>-6.26153368490774</v>
       </c>
       <c r="D116" t="n">
-        <v>13.8448567493484</v>
+        <v>-6.57368452770033</v>
       </c>
       <c r="E116" t="n">
-        <v>13.8062395550401</v>
+        <v>-6.64912909804803</v>
       </c>
       <c r="F116" t="n">
-        <v>16.46955074393</v>
+        <v>-7.11595093099118</v>
       </c>
       <c r="G116" t="n">
-        <v>15.5106676659951</v>
+        <v>-7.69223633815706</v>
       </c>
       <c r="H116" t="n">
-        <v>18.4264772156305</v>
+        <v>-8.73302919584449</v>
       </c>
       <c r="I116" t="n">
-        <v>18.0338175165483</v>
+        <v>-8.5401886664848</v>
       </c>
       <c r="J116" t="n">
-        <v>18.1426857414319</v>
+        <v>-9.39390902038213</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.73216022346393</v>
+        <v>11.5276404767771</v>
       </c>
       <c r="B117" t="n">
-        <v>-5.47507371718114</v>
+        <v>11.8163745994814</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.08252896374418</v>
+        <v>12.337476377219</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.60677992287857</v>
+        <v>-6.30874780823986</v>
       </c>
       <c r="E117" t="n">
-        <v>-6.8932778906334</v>
+        <v>-6.72092051811744</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.94151360483486</v>
+        <v>-7.64425231786024</v>
       </c>
       <c r="G117" t="n">
-        <v>-8.4291104814594</v>
+        <v>-7.91136329129538</v>
       </c>
       <c r="H117" t="n">
-        <v>-8.3827954595874</v>
+        <v>-8.34230696156631</v>
       </c>
       <c r="I117" t="n">
-        <v>-9.05248150335212</v>
+        <v>-9.30195148772651</v>
       </c>
       <c r="J117" t="n">
-        <v>-9.47914394202671</v>
+        <v>-9.61732569811419</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-4.72766764116918</v>
+        <v>10.3776612437246</v>
       </c>
       <c r="B118" t="n">
-        <v>-5.7192216546478</v>
+        <v>11.0350870693588</v>
       </c>
       <c r="C118" t="n">
-        <v>-6.25040918256846</v>
+        <v>11.366066852926</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.52654496798719</v>
+        <v>11.2194499672195</v>
       </c>
       <c r="E118" t="n">
-        <v>-7.05271892289082</v>
+        <v>14.9353914816755</v>
       </c>
       <c r="F118" t="n">
-        <v>-7.85842516128163</v>
+        <v>15.1485529164118</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.61948036555553</v>
+        <v>16.6942872034559</v>
       </c>
       <c r="H118" t="n">
-        <v>-8.67728713925969</v>
+        <v>17.1204657415095</v>
       </c>
       <c r="I118" t="n">
-        <v>-8.74047924250087</v>
+        <v>18.4787368219742</v>
       </c>
       <c r="J118" t="n">
-        <v>-9.41360886154978</v>
+        <v>18.7934000968157</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-4.99837843075878</v>
+        <v>9.75984319791596</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.26696382286667</v>
+        <v>11.0732529843912</v>
       </c>
       <c r="C119" t="n">
-        <v>-6.253502760747</v>
+        <v>-5.84548442654001</v>
       </c>
       <c r="D119" t="n">
-        <v>-6.54840484239919</v>
+        <v>-6.21187185554653</v>
       </c>
       <c r="E119" t="n">
-        <v>-7.36181941549477</v>
+        <v>-6.89239596173362</v>
       </c>
       <c r="F119" t="n">
-        <v>-7.74979642452848</v>
+        <v>-7.32767876295443</v>
       </c>
       <c r="G119" t="n">
-        <v>-8.04166591867079</v>
+        <v>-7.81935618612908</v>
       </c>
       <c r="H119" t="n">
-        <v>-8.56115166944164</v>
+        <v>-8.69137620246458</v>
       </c>
       <c r="I119" t="n">
-        <v>-9.37048044176316</v>
+        <v>-8.8890964398089</v>
       </c>
       <c r="J119" t="n">
-        <v>-9.61694479020612</v>
+        <v>-9.32677617339308</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-5.23181604192805</v>
+        <v>9.15665464090471</v>
       </c>
       <c r="B120" t="n">
-        <v>-5.34858832526636</v>
+        <v>11.756600152441</v>
       </c>
       <c r="C120" t="n">
-        <v>-5.91174040125683</v>
+        <v>12.4707761262429</v>
       </c>
       <c r="D120" t="n">
-        <v>-6.42395660184299</v>
+        <v>-6.56266450481647</v>
       </c>
       <c r="E120" t="n">
-        <v>-7.10815888634371</v>
+        <v>-6.83681780914769</v>
       </c>
       <c r="F120" t="n">
-        <v>-7.63162067024905</v>
+        <v>-7.18181423107302</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.72256377384837</v>
+        <v>-7.55148299336319</v>
       </c>
       <c r="H120" t="n">
-        <v>-8.97880188428706</v>
+        <v>-8.1271431957895</v>
       </c>
       <c r="I120" t="n">
-        <v>-8.755875675475</v>
+        <v>-9.04332334335064</v>
       </c>
       <c r="J120" t="n">
-        <v>-9.65920848408944</v>
+        <v>-9.65578939196083</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.7862262112479</v>
+        <v>10.6814512286654</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.65906438543283</v>
+        <v>10.224452428448</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.29810715228687</v>
+        <v>11.8443622908798</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.60615650950173</v>
+        <v>13.1107763324092</v>
       </c>
       <c r="E121" t="n">
-        <v>-7.2356892694389</v>
+        <v>13.9766346160916</v>
       </c>
       <c r="F121" t="n">
-        <v>-7.37092139689314</v>
+        <v>14.2680193494419</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.91925351793413</v>
+        <v>15.7732010641153</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.69745084768686</v>
+        <v>18.2773494275088</v>
       </c>
       <c r="I121" t="n">
-        <v>-8.50165705583555</v>
+        <v>-8.86330342714729</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.40394181117062</v>
+        <v>-9.20199721455559</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-4.78338104800502</v>
+        <v>-4.91489461752725</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.59466647330167</v>
+        <v>-5.34051620901013</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.95359358020906</v>
+        <v>-5.84481524661158</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.89799009326191</v>
+        <v>-6.43384543225014</v>
       </c>
       <c r="E122" t="n">
-        <v>-6.65537212341529</v>
+        <v>-6.7906444438314</v>
       </c>
       <c r="F122" t="n">
-        <v>-7.63566003068722</v>
+        <v>-7.42380148719026</v>
       </c>
       <c r="G122" t="n">
-        <v>-7.65998880255054</v>
+        <v>-8.60503470531651</v>
       </c>
       <c r="H122" t="n">
-        <v>-8.28982619128672</v>
+        <v>-8.33585105178148</v>
       </c>
       <c r="I122" t="n">
-        <v>-9.04908204436966</v>
+        <v>-9.24571568816026</v>
       </c>
       <c r="J122" t="n">
-        <v>-9.38087270388348</v>
+        <v>-9.70977808687018</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.9605311545032</v>
+        <v>10.8547498881371</v>
       </c>
       <c r="B123" t="n">
-        <v>10.6088038169351</v>
+        <v>11.0850782094516</v>
       </c>
       <c r="C123" t="n">
-        <v>10.3658834864415</v>
+        <v>12.4774306472989</v>
       </c>
       <c r="D123" t="n">
-        <v>13.3001034968828</v>
+        <v>11.783623310448</v>
       </c>
       <c r="E123" t="n">
-        <v>13.4783867209813</v>
+        <v>13.1535376787706</v>
       </c>
       <c r="F123" t="n">
-        <v>14.9973419172618</v>
+        <v>15.6645711074472</v>
       </c>
       <c r="G123" t="n">
-        <v>16.3514865160818</v>
+        <v>14.8929866889132</v>
       </c>
       <c r="H123" t="n">
-        <v>17.2754213950401</v>
+        <v>17.1916728138578</v>
       </c>
       <c r="I123" t="n">
-        <v>17.5209721995697</v>
+        <v>18.6213473596327</v>
       </c>
       <c r="J123" t="n">
-        <v>19.4657688361017</v>
+        <v>18.3350547343636</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>10.6286826009554</v>
+        <v>9.38953625748462</v>
       </c>
       <c r="B124" t="n">
-        <v>10.344833768917</v>
+        <v>11.853961273006</v>
       </c>
       <c r="C124" t="n">
-        <v>13.9673119749423</v>
+        <v>13.3631634743263</v>
       </c>
       <c r="D124" t="n">
-        <v>12.9889595764303</v>
+        <v>12.6524581202867</v>
       </c>
       <c r="E124" t="n">
-        <v>14.5375901798798</v>
+        <v>13.3868309147145</v>
       </c>
       <c r="F124" t="n">
-        <v>15.8222544084216</v>
+        <v>15.9344229496084</v>
       </c>
       <c r="G124" t="n">
-        <v>16.167149762181</v>
+        <v>16.3728989736989</v>
       </c>
       <c r="H124" t="n">
-        <v>17.3230504719676</v>
+        <v>16.3601794769684</v>
       </c>
       <c r="I124" t="n">
-        <v>18.2436392618944</v>
+        <v>15.7727806911446</v>
       </c>
       <c r="J124" t="n">
-        <v>19.8717615149859</v>
+        <v>18.284058959571</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-4.9963841003421</v>
+        <v>9.59435658591481</v>
       </c>
       <c r="B125" t="n">
-        <v>-5.44733075863077</v>
+        <v>10.2286686047304</v>
       </c>
       <c r="C125" t="n">
-        <v>-5.76627081628878</v>
+        <v>11.1034932007121</v>
       </c>
       <c r="D125" t="n">
-        <v>-6.61251254151499</v>
+        <v>-6.47707763430631</v>
       </c>
       <c r="E125" t="n">
-        <v>-7.34107824518392</v>
+        <v>-6.80239472359559</v>
       </c>
       <c r="F125" t="n">
-        <v>-7.86957373410616</v>
+        <v>-7.53147335850031</v>
       </c>
       <c r="G125" t="n">
-        <v>-8.52485270638781</v>
+        <v>-7.76584344766324</v>
       </c>
       <c r="H125" t="n">
-        <v>-8.80696616705424</v>
+        <v>-8.64453967033034</v>
       </c>
       <c r="I125" t="n">
-        <v>-8.85264843665587</v>
+        <v>-9.21826958435917</v>
       </c>
       <c r="J125" t="n">
-        <v>-9.37980253071625</v>
+        <v>-9.51386135623649</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.70500041742561</v>
+        <v>9.49174252733842</v>
       </c>
       <c r="B126" t="n">
-        <v>-5.55491304990048</v>
+        <v>-6.05254483690508</v>
       </c>
       <c r="C126" t="n">
-        <v>-6.20622859273837</v>
+        <v>-6.08349350569752</v>
       </c>
       <c r="D126" t="n">
-        <v>-6.68993496219631</v>
+        <v>-6.53670547247055</v>
       </c>
       <c r="E126" t="n">
-        <v>-6.98692734160733</v>
+        <v>-6.74540091942683</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.50683809114223</v>
+        <v>-7.358888188285</v>
       </c>
       <c r="G126" t="n">
-        <v>-7.88686230266777</v>
+        <v>-8.08045431851182</v>
       </c>
       <c r="H126" t="n">
-        <v>-8.42350932047048</v>
+        <v>-8.35164355298975</v>
       </c>
       <c r="I126" t="n">
-        <v>-8.99403101761753</v>
+        <v>-8.91660324054438</v>
       </c>
       <c r="J126" t="n">
-        <v>-10.0417250376074</v>
+        <v>-9.36388481603319</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.2917033084215</v>
+        <v>-4.58488034703443</v>
       </c>
       <c r="B127" t="n">
-        <v>10.9259703892413</v>
+        <v>-4.84180512066915</v>
       </c>
       <c r="C127" t="n">
-        <v>12.0202956797942</v>
+        <v>-6.24962748791628</v>
       </c>
       <c r="D127" t="n">
-        <v>13.6929682796429</v>
+        <v>-6.70339606235111</v>
       </c>
       <c r="E127" t="n">
-        <v>14.5731522361197</v>
+        <v>-7.24470745888143</v>
       </c>
       <c r="F127" t="n">
-        <v>15.2154574157178</v>
+        <v>-7.86118416227261</v>
       </c>
       <c r="G127" t="n">
-        <v>14.7636386599729</v>
+        <v>-7.87776611512878</v>
       </c>
       <c r="H127" t="n">
-        <v>16.6378825599651</v>
+        <v>-8.33444643870693</v>
       </c>
       <c r="I127" t="n">
-        <v>17.4791229248076</v>
+        <v>-8.85357902882896</v>
       </c>
       <c r="J127" t="n">
-        <v>18.4497037067368</v>
+        <v>-9.48784735728563</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-5.49215542017596</v>
+        <v>-4.83429837986518</v>
       </c>
       <c r="B128" t="n">
-        <v>-5.81211491940502</v>
+        <v>-5.30851982463493</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.56800983489766</v>
+        <v>-5.95320216926678</v>
       </c>
       <c r="D128" t="n">
-        <v>-6.59387440175278</v>
+        <v>-5.86796487107564</v>
       </c>
       <c r="E128" t="n">
-        <v>-6.91519218134758</v>
+        <v>-7.20615572209106</v>
       </c>
       <c r="F128" t="n">
-        <v>-7.78707178714016</v>
+        <v>-7.62020609058262</v>
       </c>
       <c r="G128" t="n">
-        <v>-7.83734293394669</v>
+        <v>-7.94630852993626</v>
       </c>
       <c r="H128" t="n">
-        <v>-8.51125610173726</v>
+        <v>-7.88578068139402</v>
       </c>
       <c r="I128" t="n">
-        <v>-8.6800646330807</v>
+        <v>-8.78405349625895</v>
       </c>
       <c r="J128" t="n">
-        <v>-9.74152230520595</v>
+        <v>-9.71060567086565</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>11.2469805250918</v>
+        <v>10.0317112988998</v>
       </c>
       <c r="B129" t="n">
-        <v>11.3795117469243</v>
+        <v>10.1663224347815</v>
       </c>
       <c r="C129" t="n">
-        <v>10.7430190349227</v>
+        <v>14.2333414379081</v>
       </c>
       <c r="D129" t="n">
-        <v>13.2574150505292</v>
+        <v>13.2578771844202</v>
       </c>
       <c r="E129" t="n">
-        <v>13.1991542765936</v>
+        <v>13.6989350773014</v>
       </c>
       <c r="F129" t="n">
-        <v>13.5342372563652</v>
+        <v>13.3257873178457</v>
       </c>
       <c r="G129" t="n">
-        <v>15.994663975331</v>
+        <v>16.17817229443</v>
       </c>
       <c r="H129" t="n">
-        <v>16.3232059401467</v>
+        <v>15.7366169675671</v>
       </c>
       <c r="I129" t="n">
-        <v>16.9840484917779</v>
+        <v>18.1431576827064</v>
       </c>
       <c r="J129" t="n">
-        <v>17.969540378021</v>
+        <v>18.9019493819223</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.29106789726033</v>
+        <v>-4.6997281211981</v>
       </c>
       <c r="B130" t="n">
-        <v>9.93867483766234</v>
+        <v>-5.45010721848749</v>
       </c>
       <c r="C130" t="n">
-        <v>13.2056249115596</v>
+        <v>-6.05244529340497</v>
       </c>
       <c r="D130" t="n">
-        <v>13.9638292522462</v>
+        <v>-6.45890773025372</v>
       </c>
       <c r="E130" t="n">
-        <v>13.8212764830541</v>
+        <v>-7.13672099192526</v>
       </c>
       <c r="F130" t="n">
-        <v>15.1154741092281</v>
+        <v>-7.76801695314076</v>
       </c>
       <c r="G130" t="n">
-        <v>16.0308215732095</v>
+        <v>-7.87482637093367</v>
       </c>
       <c r="H130" t="n">
-        <v>18.164593690823</v>
+        <v>-8.54092695681992</v>
       </c>
       <c r="I130" t="n">
-        <v>16.06727772627</v>
+        <v>-9.28997567020321</v>
       </c>
       <c r="J130" t="n">
-        <v>19.3417234915866</v>
+        <v>-9.63959428517399</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>7.84232225742864</v>
+        <v>10.7897639286546</v>
       </c>
       <c r="B131" t="n">
-        <v>12.2828880775139</v>
+        <v>11.5236889991129</v>
       </c>
       <c r="C131" t="n">
-        <v>12.5443586454753</v>
+        <v>11.1547652095349</v>
       </c>
       <c r="D131" t="n">
-        <v>13.0630725660098</v>
+        <v>12.8420292588049</v>
       </c>
       <c r="E131" t="n">
-        <v>13.5246806783426</v>
+        <v>14.0327489026145</v>
       </c>
       <c r="F131" t="n">
-        <v>15.7211191323306</v>
+        <v>15.3344606333836</v>
       </c>
       <c r="G131" t="n">
-        <v>15.5919804208808</v>
+        <v>16.1167836041557</v>
       </c>
       <c r="H131" t="n">
-        <v>16.9777003528742</v>
+        <v>16.5116072269787</v>
       </c>
       <c r="I131" t="n">
-        <v>18.8065137107008</v>
+        <v>18.0101245282383</v>
       </c>
       <c r="J131" t="n">
-        <v>19.0798650130207</v>
+        <v>18.5776287453283</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-5.17744716597815</v>
+        <v>-5.33645452963671</v>
       </c>
       <c r="B132" t="n">
-        <v>-5.388546565666</v>
+        <v>-5.62877044149239</v>
       </c>
       <c r="C132" t="n">
-        <v>-6.16173071860632</v>
+        <v>-5.4613688151852</v>
       </c>
       <c r="D132" t="n">
-        <v>-7.07240282191018</v>
+        <v>-6.71759564103199</v>
       </c>
       <c r="E132" t="n">
-        <v>-6.90649906193224</v>
+        <v>-6.41652132097934</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.32479939005436</v>
+        <v>-7.593725082831</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.98738549844815</v>
+        <v>-7.8858095878021</v>
       </c>
       <c r="H132" t="n">
-        <v>-8.74594208408431</v>
+        <v>-8.56782914393063</v>
       </c>
       <c r="I132" t="n">
-        <v>-8.75744002329427</v>
+        <v>-9.41436257110606</v>
       </c>
       <c r="J132" t="n">
-        <v>-9.32873139918244</v>
+        <v>-9.71889106549</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.85656645452553</v>
+        <v>9.61039358990539</v>
       </c>
       <c r="B133" t="n">
-        <v>11.1607441286387</v>
+        <v>11.2739000651675</v>
       </c>
       <c r="C133" t="n">
-        <v>11.7530181945214</v>
+        <v>12.5895738777832</v>
       </c>
       <c r="D133" t="n">
-        <v>12.5619102074149</v>
+        <v>14.1980696131809</v>
       </c>
       <c r="E133" t="n">
-        <v>13.9465704342968</v>
+        <v>12.9008303535507</v>
       </c>
       <c r="F133" t="n">
-        <v>15.5707158082248</v>
+        <v>15.8950022469521</v>
       </c>
       <c r="G133" t="n">
-        <v>14.6786864578446</v>
+        <v>-7.90759849127647</v>
       </c>
       <c r="H133" t="n">
-        <v>17.0822478945364</v>
+        <v>-8.23225537687346</v>
       </c>
       <c r="I133" t="n">
-        <v>19.0295536255782</v>
+        <v>-8.9366399257385</v>
       </c>
       <c r="J133" t="n">
-        <v>18.7902179957097</v>
+        <v>-9.50804247761302</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-5.07861223917962</v>
+        <v>10.6133761062776</v>
       </c>
       <c r="B134" t="n">
-        <v>-5.15807556115312</v>
+        <v>11.842266352173</v>
       </c>
       <c r="C134" t="n">
-        <v>-6.0488738858182</v>
+        <v>11.881485297193</v>
       </c>
       <c r="D134" t="n">
-        <v>-6.28394707228395</v>
+        <v>14.1545323712709</v>
       </c>
       <c r="E134" t="n">
-        <v>-7.00708291459584</v>
+        <v>13.697602053519</v>
       </c>
       <c r="F134" t="n">
-        <v>-7.35358445343108</v>
+        <v>14.5980030349001</v>
       </c>
       <c r="G134" t="n">
-        <v>-8.08403275103793</v>
+        <v>15.7317042049333</v>
       </c>
       <c r="H134" t="n">
-        <v>-8.40835320101369</v>
+        <v>-8.50182907036785</v>
       </c>
       <c r="I134" t="n">
-        <v>-9.0040728501311</v>
+        <v>-9.11547264680895</v>
       </c>
       <c r="J134" t="n">
-        <v>-9.36299328921669</v>
+        <v>-9.44425181390872</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.58905970711787</v>
+        <v>10.8391094786035</v>
       </c>
       <c r="B135" t="n">
-        <v>11.7316276692154</v>
+        <v>10.5193644661282</v>
       </c>
       <c r="C135" t="n">
-        <v>12.0664009717103</v>
+        <v>12.4074353945934</v>
       </c>
       <c r="D135" t="n">
-        <v>12.9436801051072</v>
+        <v>13.4919022242875</v>
       </c>
       <c r="E135" t="n">
-        <v>15.1000798612957</v>
+        <v>13.7810734636488</v>
       </c>
       <c r="F135" t="n">
-        <v>14.4539040863016</v>
+        <v>14.404926496841</v>
       </c>
       <c r="G135" t="n">
-        <v>15.8363666858593</v>
+        <v>16.2074157960607</v>
       </c>
       <c r="H135" t="n">
-        <v>16.3216163728738</v>
+        <v>16.4278078339917</v>
       </c>
       <c r="I135" t="n">
-        <v>19.7479958412</v>
+        <v>18.4656333361565</v>
       </c>
       <c r="J135" t="n">
-        <v>17.7621615849461</v>
+        <v>19.3807497950045</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.3296846376896</v>
+        <v>9.46938589144556</v>
       </c>
       <c r="B136" t="n">
-        <v>13.084286715024</v>
+        <v>10.5345940800156</v>
       </c>
       <c r="C136" t="n">
-        <v>12.6843616811822</v>
+        <v>13.5777535540273</v>
       </c>
       <c r="D136" t="n">
-        <v>12.549439923139</v>
+        <v>12.8913316660348</v>
       </c>
       <c r="E136" t="n">
-        <v>14.8072650759113</v>
+        <v>12.5533893008394</v>
       </c>
       <c r="F136" t="n">
-        <v>14.9574628877725</v>
+        <v>15.0702468811328</v>
       </c>
       <c r="G136" t="n">
-        <v>15.2470173694894</v>
+        <v>13.4381112425655</v>
       </c>
       <c r="H136" t="n">
-        <v>16.6659144541235</v>
+        <v>17.9104242535857</v>
       </c>
       <c r="I136" t="n">
-        <v>17.4094859484833</v>
+        <v>19.5805553675105</v>
       </c>
       <c r="J136" t="n">
-        <v>18.3399983061635</v>
+        <v>18.8268920134211</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-5.06276878665394</v>
+        <v>10.7213550976264</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.46432925227346</v>
+        <v>12.0973859364448</v>
       </c>
       <c r="C137" t="n">
-        <v>-5.93440154203898</v>
+        <v>11.3555024892386</v>
       </c>
       <c r="D137" t="n">
-        <v>-6.91183473334444</v>
+        <v>13.465304481974</v>
       </c>
       <c r="E137" t="n">
-        <v>-6.92366241983969</v>
+        <v>14.6515847662319</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.28646301428694</v>
+        <v>15.0524892824513</v>
       </c>
       <c r="G137" t="n">
-        <v>-8.26862402520875</v>
+        <v>18.1647845818265</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.72937663485355</v>
+        <v>16.2446505603158</v>
       </c>
       <c r="I137" t="n">
-        <v>-8.84324426716483</v>
+        <v>16.7000343090446</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.22751372534268</v>
+        <v>17.6459592970611</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.87655006642812</v>
+        <v>10.5571742383064</v>
       </c>
       <c r="B138" t="n">
-        <v>11.600298504082</v>
+        <v>11.0679470186652</v>
       </c>
       <c r="C138" t="n">
-        <v>13.4274280256438</v>
+        <v>12.7330091601708</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.38527401408208</v>
+        <v>13.5345556749753</v>
       </c>
       <c r="E138" t="n">
-        <v>-6.95859241104562</v>
+        <v>13.7810305314815</v>
       </c>
       <c r="F138" t="n">
-        <v>-7.24927167729167</v>
+        <v>13.3360833706071</v>
       </c>
       <c r="G138" t="n">
-        <v>-8.11094522743556</v>
+        <v>15.8956293289568</v>
       </c>
       <c r="H138" t="n">
-        <v>-8.73708198424604</v>
+        <v>17.2402874154229</v>
       </c>
       <c r="I138" t="n">
-        <v>-8.79761841445412</v>
+        <v>17.0477834277185</v>
       </c>
       <c r="J138" t="n">
-        <v>-9.19865526317393</v>
+        <v>19.651155412533</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.0585256320188</v>
+        <v>10.0672558142603</v>
       </c>
       <c r="B139" t="n">
-        <v>11.6616149220181</v>
+        <v>10.706651569959</v>
       </c>
       <c r="C139" t="n">
-        <v>12.2579196729816</v>
+        <v>12.2144581256257</v>
       </c>
       <c r="D139" t="n">
-        <v>12.1897946910267</v>
+        <v>13.9747397053613</v>
       </c>
       <c r="E139" t="n">
-        <v>13.444054690898</v>
+        <v>13.8347350833796</v>
       </c>
       <c r="F139" t="n">
-        <v>14.2467562217633</v>
+        <v>13.6438948824138</v>
       </c>
       <c r="G139" t="n">
-        <v>15.828640015102</v>
+        <v>15.4404029189361</v>
       </c>
       <c r="H139" t="n">
-        <v>17.4202520328716</v>
+        <v>16.2801566296567</v>
       </c>
       <c r="I139" t="n">
-        <v>18.5039098740198</v>
+        <v>17.1967701261578</v>
       </c>
       <c r="J139" t="n">
-        <v>19.9528124306892</v>
+        <v>19.79690831133</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>-5.12333990585478</v>
+        <v>-5.05788124016579</v>
       </c>
       <c r="B140" t="n">
-        <v>-5.48070220425878</v>
+        <v>-5.48220597556456</v>
       </c>
       <c r="C140" t="n">
-        <v>-5.99686248904106</v>
+        <v>-6.45140036252313</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.48764206555658</v>
+        <v>-6.65472192555376</v>
       </c>
       <c r="E140" t="n">
-        <v>-6.83685587819202</v>
+        <v>-7.18612662475499</v>
       </c>
       <c r="F140" t="n">
-        <v>-7.70769220729422</v>
+        <v>-7.57450154408757</v>
       </c>
       <c r="G140" t="n">
-        <v>-8.20881143680099</v>
+        <v>-8.34957309475133</v>
       </c>
       <c r="H140" t="n">
-        <v>-8.39958384758698</v>
+        <v>-8.55136341081354</v>
       </c>
       <c r="I140" t="n">
-        <v>-8.95972969980169</v>
+        <v>-9.00147951815427</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.78249553028962</v>
+        <v>-10.0416009278638</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.51768801948382</v>
+        <v>-4.90229304911996</v>
       </c>
       <c r="B141" t="n">
-        <v>11.135854452259</v>
+        <v>-5.55728296510454</v>
       </c>
       <c r="C141" t="n">
-        <v>12.3471453744771</v>
+        <v>-6.13318613884259</v>
       </c>
       <c r="D141" t="n">
-        <v>13.9776171906361</v>
+        <v>-6.87495707333948</v>
       </c>
       <c r="E141" t="n">
-        <v>15.7490521145393</v>
+        <v>-7.04238742996658</v>
       </c>
       <c r="F141" t="n">
-        <v>14.8610630475235</v>
+        <v>-7.51824076077559</v>
       </c>
       <c r="G141" t="n">
-        <v>16.3949975698331</v>
+        <v>-7.87994762151251</v>
       </c>
       <c r="H141" t="n">
-        <v>16.3872579002212</v>
+        <v>-8.39413212266452</v>
       </c>
       <c r="I141" t="n">
-        <v>17.9708120014791</v>
+        <v>-9.06393205196983</v>
       </c>
       <c r="J141" t="n">
-        <v>19.1947630914892</v>
+        <v>18.4869011886154</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.93504802776917</v>
+        <v>-4.84360981093046</v>
       </c>
       <c r="B142" t="n">
-        <v>10.985873665741</v>
+        <v>-5.51213288853059</v>
       </c>
       <c r="C142" t="n">
-        <v>12.2518506318233</v>
+        <v>-5.84159575291508</v>
       </c>
       <c r="D142" t="n">
-        <v>12.6483776763049</v>
+        <v>-6.26479230759821</v>
       </c>
       <c r="E142" t="n">
-        <v>15.3939689276473</v>
+        <v>-6.56986974945925</v>
       </c>
       <c r="F142" t="n">
-        <v>14.8921992053817</v>
+        <v>-7.83322752273899</v>
       </c>
       <c r="G142" t="n">
-        <v>15.7207573159326</v>
+        <v>-8.27052129726413</v>
       </c>
       <c r="H142" t="n">
-        <v>17.85516884684</v>
+        <v>-9.01254660136455</v>
       </c>
       <c r="I142" t="n">
-        <v>18.9215710109508</v>
+        <v>-8.87983077147621</v>
       </c>
       <c r="J142" t="n">
-        <v>18.7359020344171</v>
+        <v>-10.011328870316</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>10.5119515466041</v>
+        <v>10.715234957552</v>
       </c>
       <c r="B143" t="n">
-        <v>9.85159053185126</v>
+        <v>10.3646555736296</v>
       </c>
       <c r="C143" t="n">
-        <v>13.1693455866399</v>
+        <v>12.4466869709083</v>
       </c>
       <c r="D143" t="n">
-        <v>12.9868533551817</v>
+        <v>12.7344579913797</v>
       </c>
       <c r="E143" t="n">
-        <v>14.0683035347816</v>
+        <v>13.7154427066982</v>
       </c>
       <c r="F143" t="n">
-        <v>14.762782218366</v>
+        <v>13.7409407750644</v>
       </c>
       <c r="G143" t="n">
-        <v>15.1738786364979</v>
+        <v>17.1666517067372</v>
       </c>
       <c r="H143" t="n">
-        <v>16.2117734727201</v>
+        <v>16.8634169433593</v>
       </c>
       <c r="I143" t="n">
-        <v>17.419091336305</v>
+        <v>-8.92888605025371</v>
       </c>
       <c r="J143" t="n">
-        <v>18.0839156450514</v>
+        <v>-9.59333351891694</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.60196165345233</v>
+        <v>-4.83366374261122</v>
       </c>
       <c r="B144" t="n">
-        <v>9.98391452992364</v>
+        <v>-6.12117622377871</v>
       </c>
       <c r="C144" t="n">
-        <v>11.2175630649041</v>
+        <v>-5.92304485608263</v>
       </c>
       <c r="D144" t="n">
-        <v>-6.52853843916188</v>
+        <v>-6.18521098565267</v>
       </c>
       <c r="E144" t="n">
-        <v>-6.95620774504764</v>
+        <v>-6.59454714646879</v>
       </c>
       <c r="F144" t="n">
-        <v>-7.28307346293673</v>
+        <v>-7.66385754099501</v>
       </c>
       <c r="G144" t="n">
-        <v>-8.1410647476119</v>
+        <v>-7.90084656370408</v>
       </c>
       <c r="H144" t="n">
-        <v>-8.31952012604867</v>
+        <v>-8.29242041603153</v>
       </c>
       <c r="I144" t="n">
-        <v>-8.67941190603239</v>
+        <v>-9.32472707245198</v>
       </c>
       <c r="J144" t="n">
-        <v>-9.45356610098119</v>
+        <v>-9.70516187658795</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>8.58770577307899</v>
+        <v>10.4009656245293</v>
       </c>
       <c r="B145" t="n">
-        <v>-5.31496607094553</v>
+        <v>11.3369433172223</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.79952321837524</v>
+        <v>10.9258838242203</v>
       </c>
       <c r="D145" t="n">
-        <v>-6.39695329812244</v>
+        <v>14.0832089456893</v>
       </c>
       <c r="E145" t="n">
-        <v>-6.9651114246047</v>
+        <v>13.1746785516383</v>
       </c>
       <c r="F145" t="n">
-        <v>-7.26264345454114</v>
+        <v>13.9448303106499</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.20271963122283</v>
+        <v>15.6328323930257</v>
       </c>
       <c r="H145" t="n">
-        <v>-7.97771918409228</v>
+        <v>17.4898843190118</v>
       </c>
       <c r="I145" t="n">
-        <v>-9.1204120679222</v>
+        <v>16.9281034254869</v>
       </c>
       <c r="J145" t="n">
-        <v>-9.57114693952846</v>
+        <v>19.0337908398681</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.2305864128272</v>
+        <v>10.0355350493765</v>
       </c>
       <c r="B146" t="n">
-        <v>9.9957088825401</v>
+        <v>10.9492962286115</v>
       </c>
       <c r="C146" t="n">
-        <v>12.4976326561512</v>
+        <v>11.6013955951946</v>
       </c>
       <c r="D146" t="n">
-        <v>13.8561271353573</v>
+        <v>13.3983024338565</v>
       </c>
       <c r="E146" t="n">
-        <v>12.6511574040161</v>
+        <v>15.2415843248386</v>
       </c>
       <c r="F146" t="n">
-        <v>15.5594163100213</v>
+        <v>15.2568938280074</v>
       </c>
       <c r="G146" t="n">
-        <v>17.0888346991055</v>
+        <v>15.4278640765892</v>
       </c>
       <c r="H146" t="n">
-        <v>17.8429469335592</v>
+        <v>17.8868922561898</v>
       </c>
       <c r="I146" t="n">
-        <v>17.5654130845719</v>
+        <v>17.2678376712238</v>
       </c>
       <c r="J146" t="n">
-        <v>19.2051938093116</v>
+        <v>18.4270479465505</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.8635958302142</v>
+        <v>10.3754403719014</v>
       </c>
       <c r="B147" t="n">
-        <v>10.7664191650463</v>
+        <v>10.3831177429218</v>
       </c>
       <c r="C147" t="n">
-        <v>11.9150817957702</v>
+        <v>11.9598475997182</v>
       </c>
       <c r="D147" t="n">
-        <v>11.9262449769758</v>
+        <v>12.4409138887998</v>
       </c>
       <c r="E147" t="n">
-        <v>-7.03994203718207</v>
+        <v>13.3093663545409</v>
       </c>
       <c r="F147" t="n">
-        <v>-7.58410466545435</v>
+        <v>14.7820036682675</v>
       </c>
       <c r="G147" t="n">
-        <v>-8.24579765892789</v>
+        <v>15.0427138774932</v>
       </c>
       <c r="H147" t="n">
-        <v>-8.59001832748885</v>
+        <v>18.5645347366177</v>
       </c>
       <c r="I147" t="n">
-        <v>-8.80281244522033</v>
+        <v>19.0416792123477</v>
       </c>
       <c r="J147" t="n">
-        <v>-9.24614612034144</v>
+        <v>19.643665594841</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>8.94350554455244</v>
+        <v>-5.27814891926512</v>
       </c>
       <c r="B148" t="n">
-        <v>-5.72297809261032</v>
+        <v>-6.03698475564887</v>
       </c>
       <c r="C148" t="n">
-        <v>-5.80189714273292</v>
+        <v>-5.84382443961976</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.62393782585033</v>
+        <v>-6.72242597752086</v>
       </c>
       <c r="E148" t="n">
-        <v>-7.1411893924285</v>
+        <v>-7.22824172801977</v>
       </c>
       <c r="F148" t="n">
-        <v>-7.36772358691851</v>
+        <v>-7.6476596313913</v>
       </c>
       <c r="G148" t="n">
-        <v>-7.90276053510672</v>
+        <v>-8.42182173620528</v>
       </c>
       <c r="H148" t="n">
-        <v>-8.69301681997318</v>
+        <v>-8.40807898249743</v>
       </c>
       <c r="I148" t="n">
-        <v>-8.96837005452866</v>
+        <v>-8.73268709225289</v>
       </c>
       <c r="J148" t="n">
-        <v>-9.82519166541</v>
+        <v>-9.93797888140017</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.4354385080162</v>
+        <v>-5.12769567783109</v>
       </c>
       <c r="B149" t="n">
-        <v>11.8408640336668</v>
+        <v>-5.59762980765766</v>
       </c>
       <c r="C149" t="n">
-        <v>12.5856088327429</v>
+        <v>-6.07843338627102</v>
       </c>
       <c r="D149" t="n">
-        <v>13.0579958054664</v>
+        <v>-6.44560359665602</v>
       </c>
       <c r="E149" t="n">
-        <v>13.7198220893994</v>
+        <v>-7.45263972089222</v>
       </c>
       <c r="F149" t="n">
-        <v>15.1334488006494</v>
+        <v>-7.52204645916565</v>
       </c>
       <c r="G149" t="n">
-        <v>15.4430648373828</v>
+        <v>-7.83673334346194</v>
       </c>
       <c r="H149" t="n">
-        <v>15.6621637779971</v>
+        <v>-8.60162208009921</v>
       </c>
       <c r="I149" t="n">
-        <v>17.6862759088916</v>
+        <v>-8.9296934451833</v>
       </c>
       <c r="J149" t="n">
-        <v>19.4399232847084</v>
+        <v>-9.64556526917673</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.5954416247302</v>
+        <v>8.59338799111955</v>
       </c>
       <c r="B150" t="n">
-        <v>-6.19909218689183</v>
+        <v>11.5917014315723</v>
       </c>
       <c r="C150" t="n">
-        <v>-5.68979404118294</v>
+        <v>12.193682930818</v>
       </c>
       <c r="D150" t="n">
-        <v>-6.51865403928596</v>
+        <v>13.508585571572</v>
       </c>
       <c r="E150" t="n">
-        <v>-7.10158889848668</v>
+        <v>-6.69691034255284</v>
       </c>
       <c r="F150" t="n">
-        <v>-7.36434860718986</v>
+        <v>-7.36279315893303</v>
       </c>
       <c r="G150" t="n">
-        <v>-8.29452235263497</v>
+        <v>-8.36021939378039</v>
       </c>
       <c r="H150" t="n">
-        <v>-8.30573533178679</v>
+        <v>-8.42502408005579</v>
       </c>
       <c r="I150" t="n">
-        <v>-9.34043206271819</v>
+        <v>-9.24459363146619</v>
       </c>
       <c r="J150" t="n">
-        <v>-9.5805970139816</v>
+        <v>-8.91982954316794</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.8108840972668</v>
+        <v>8.92756560871337</v>
       </c>
       <c r="B151" t="n">
-        <v>10.5386470263005</v>
+        <v>9.46776934268609</v>
       </c>
       <c r="C151" t="n">
-        <v>13.0972329700171</v>
+        <v>11.5887034726895</v>
       </c>
       <c r="D151" t="n">
-        <v>13.1720001473093</v>
+        <v>12.443739677181</v>
       </c>
       <c r="E151" t="n">
-        <v>14.320626914419</v>
+        <v>14.0087489688172</v>
       </c>
       <c r="F151" t="n">
-        <v>14.2730156541848</v>
+        <v>14.0289530242789</v>
       </c>
       <c r="G151" t="n">
-        <v>14.9169231902315</v>
+        <v>15.016328295582</v>
       </c>
       <c r="H151" t="n">
-        <v>16.5038542000482</v>
+        <v>17.4521474352287</v>
       </c>
       <c r="I151" t="n">
-        <v>18.0147878148647</v>
+        <v>18.6252526105938</v>
       </c>
       <c r="J151" t="n">
-        <v>20.2580854696716</v>
+        <v>19.7567091745825</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>8.92651646012177</v>
+        <v>10.6839311933893</v>
       </c>
       <c r="B152" t="n">
-        <v>10.7004309484825</v>
+        <v>11.861682773638</v>
       </c>
       <c r="C152" t="n">
-        <v>-6.08997232590041</v>
+        <v>12.2422843512172</v>
       </c>
       <c r="D152" t="n">
-        <v>-6.90831218199418</v>
+        <v>13.7560750347476</v>
       </c>
       <c r="E152" t="n">
-        <v>-7.38935614090283</v>
+        <v>14.777684148254</v>
       </c>
       <c r="F152" t="n">
-        <v>-7.5679698032955</v>
+        <v>13.2067543425782</v>
       </c>
       <c r="G152" t="n">
-        <v>-7.84942319955892</v>
+        <v>16.3108119182396</v>
       </c>
       <c r="H152" t="n">
-        <v>-9.10252112489529</v>
+        <v>18.2170848339397</v>
       </c>
       <c r="I152" t="n">
-        <v>-8.93475779777813</v>
+        <v>16.830889535977</v>
       </c>
       <c r="J152" t="n">
-        <v>-9.84539787324838</v>
+        <v>18.9652674687557</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-4.99923508713019</v>
+        <v>-4.82402332646123</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.14587235561111</v>
+        <v>-5.56009587048763</v>
       </c>
       <c r="C153" t="n">
-        <v>-6.03766952164506</v>
+        <v>-5.69208846038602</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.82787748830651</v>
+        <v>-6.27813410421122</v>
       </c>
       <c r="E153" t="n">
-        <v>-7.06947626095722</v>
+        <v>-7.11495755216721</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.50677065301259</v>
+        <v>-7.69217113689584</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.52831355642647</v>
+        <v>-7.91361584385672</v>
       </c>
       <c r="H153" t="n">
-        <v>-8.50046041782755</v>
+        <v>-8.18374270245255</v>
       </c>
       <c r="I153" t="n">
-        <v>-8.98196804228254</v>
+        <v>-9.10729245732409</v>
       </c>
       <c r="J153" t="n">
-        <v>-9.55396253924161</v>
+        <v>-9.13527710512273</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.0511749710534</v>
+        <v>10.2869052809493</v>
       </c>
       <c r="B154" t="n">
-        <v>10.4980215625519</v>
+        <v>12.1854369290168</v>
       </c>
       <c r="C154" t="n">
-        <v>11.1649305083216</v>
+        <v>12.3807259467023</v>
       </c>
       <c r="D154" t="n">
-        <v>13.0175882671236</v>
+        <v>13.1939826134513</v>
       </c>
       <c r="E154" t="n">
-        <v>13.800460132935</v>
+        <v>14.7987272490274</v>
       </c>
       <c r="F154" t="n">
-        <v>14.5658882404985</v>
+        <v>14.8516517576302</v>
       </c>
       <c r="G154" t="n">
-        <v>16.5011267148185</v>
+        <v>15.1269493913217</v>
       </c>
       <c r="H154" t="n">
-        <v>-8.30871589280927</v>
+        <v>17.8123990326182</v>
       </c>
       <c r="I154" t="n">
-        <v>-9.02932705807814</v>
+        <v>17.4435498444817</v>
       </c>
       <c r="J154" t="n">
-        <v>19.0538987437695</v>
+        <v>18.4988062227673</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.0372166670766</v>
+        <v>10.0496034733422</v>
       </c>
       <c r="B155" t="n">
-        <v>-5.29268422158068</v>
+        <v>11.9675170169096</v>
       </c>
       <c r="C155" t="n">
-        <v>-6.23000631331658</v>
+        <v>11.7283517190313</v>
       </c>
       <c r="D155" t="n">
-        <v>-6.2155247744297</v>
+        <v>13.2242974677437</v>
       </c>
       <c r="E155" t="n">
-        <v>-7.00136251468056</v>
+        <v>13.0822360115967</v>
       </c>
       <c r="F155" t="n">
-        <v>-7.12327373475795</v>
+        <v>14.7654877786534</v>
       </c>
       <c r="G155" t="n">
-        <v>-8.14855596339202</v>
+        <v>17.181576943535</v>
       </c>
       <c r="H155" t="n">
-        <v>-7.94933003576515</v>
+        <v>16.7016965956642</v>
       </c>
       <c r="I155" t="n">
-        <v>-9.17159388745196</v>
+        <v>18.062480492806</v>
       </c>
       <c r="J155" t="n">
-        <v>-9.16268559489816</v>
+        <v>19.1836827721643</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11.2951863943482</v>
+        <v>9.36764496565097</v>
       </c>
       <c r="B156" t="n">
-        <v>11.238997441922</v>
+        <v>11.0069245253151</v>
       </c>
       <c r="C156" t="n">
-        <v>11.5542193089788</v>
+        <v>-6.31972531071758</v>
       </c>
       <c r="D156" t="n">
-        <v>12.8570207084479</v>
+        <v>-6.48003376587578</v>
       </c>
       <c r="E156" t="n">
-        <v>14.0975289169115</v>
+        <v>-6.9444890078803</v>
       </c>
       <c r="F156" t="n">
-        <v>-7.44127384631904</v>
+        <v>-7.53435141400489</v>
       </c>
       <c r="G156" t="n">
-        <v>-8.04924179515799</v>
+        <v>-8.31408961393913</v>
       </c>
       <c r="H156" t="n">
-        <v>-8.4620002120553</v>
+        <v>-8.67076219800744</v>
       </c>
       <c r="I156" t="n">
-        <v>-8.97179629115</v>
+        <v>-9.06577907106109</v>
       </c>
       <c r="J156" t="n">
-        <v>-9.54086910538573</v>
+        <v>-9.74435792587585</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>-5.10593414516749</v>
+        <v>9.5705070697861</v>
       </c>
       <c r="B157" t="n">
-        <v>-5.36133143825769</v>
+        <v>-5.3785599461158</v>
       </c>
       <c r="C157" t="n">
-        <v>-5.72122514216468</v>
+        <v>-5.84780513646029</v>
       </c>
       <c r="D157" t="n">
-        <v>-6.59823501898657</v>
+        <v>-6.33877887702877</v>
       </c>
       <c r="E157" t="n">
-        <v>-6.79574256154172</v>
+        <v>-6.87714980934707</v>
       </c>
       <c r="F157" t="n">
-        <v>-7.47318625882279</v>
+        <v>-7.59531499135988</v>
       </c>
       <c r="G157" t="n">
-        <v>-8.17398311909542</v>
+        <v>-7.94553896341543</v>
       </c>
       <c r="H157" t="n">
-        <v>-8.53528771666211</v>
+        <v>-8.8160526468981</v>
       </c>
       <c r="I157" t="n">
-        <v>-8.55513295906078</v>
+        <v>-8.79508350002203</v>
       </c>
       <c r="J157" t="n">
-        <v>-9.71404888669014</v>
+        <v>-9.40918095117526</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9.79569718300043</v>
+        <v>-5.42792132758832</v>
       </c>
       <c r="B158" t="n">
-        <v>11.546095435284</v>
+        <v>-5.46526519941937</v>
       </c>
       <c r="C158" t="n">
-        <v>12.1889581153179</v>
+        <v>-5.95530104952963</v>
       </c>
       <c r="D158" t="n">
-        <v>11.2330819260549</v>
+        <v>-6.55353104531116</v>
       </c>
       <c r="E158" t="n">
-        <v>14.4997418826295</v>
+        <v>-6.79364379293048</v>
       </c>
       <c r="F158" t="n">
-        <v>14.9364627443729</v>
+        <v>-7.37496175935668</v>
       </c>
       <c r="G158" t="n">
-        <v>15.9750711162056</v>
+        <v>-7.81414433252949</v>
       </c>
       <c r="H158" t="n">
-        <v>16.089067213577</v>
+        <v>-8.48715124346375</v>
       </c>
       <c r="I158" t="n">
-        <v>18.6601086840071</v>
+        <v>-9.21953848700705</v>
       </c>
       <c r="J158" t="n">
-        <v>19.2385416329495</v>
+        <v>-9.67102114981429</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.90891809960037</v>
+        <v>10.4473412837076</v>
       </c>
       <c r="B159" t="n">
-        <v>10.3678215282618</v>
+        <v>10.3863990517339</v>
       </c>
       <c r="C159" t="n">
-        <v>-5.69415174583735</v>
+        <v>12.5634984199483</v>
       </c>
       <c r="D159" t="n">
-        <v>-6.58411013131081</v>
+        <v>12.9165283987695</v>
       </c>
       <c r="E159" t="n">
-        <v>-6.48680940671789</v>
+        <v>14.8480929146484</v>
       </c>
       <c r="F159" t="n">
-        <v>-7.69035778094023</v>
+        <v>15.1703443364247</v>
       </c>
       <c r="G159" t="n">
-        <v>-8.11135070642777</v>
+        <v>15.8580378278374</v>
       </c>
       <c r="H159" t="n">
-        <v>-8.38672837399893</v>
+        <v>17.8905972314895</v>
       </c>
       <c r="I159" t="n">
-        <v>-8.88647753415624</v>
+        <v>18.2005350768209</v>
       </c>
       <c r="J159" t="n">
-        <v>-9.11723199762408</v>
+        <v>17.5995041307482</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>9.79688562225787</v>
+        <v>-5.05558605555156</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.57881613314275</v>
+        <v>-5.40418175852535</v>
       </c>
       <c r="C160" t="n">
-        <v>-5.84634477996471</v>
+        <v>-6.069550093706</v>
       </c>
       <c r="D160" t="n">
-        <v>-6.10446350172736</v>
+        <v>-6.24155294752881</v>
       </c>
       <c r="E160" t="n">
-        <v>-6.96431653856968</v>
+        <v>-7.1270333258691</v>
       </c>
       <c r="F160" t="n">
-        <v>-7.22812345227237</v>
+        <v>-7.54290630369816</v>
       </c>
       <c r="G160" t="n">
-        <v>-7.85746617994795</v>
+        <v>-8.242736290515</v>
       </c>
       <c r="H160" t="n">
-        <v>-8.51073625932873</v>
+        <v>-8.28849498631329</v>
       </c>
       <c r="I160" t="n">
-        <v>-8.81089473673426</v>
+        <v>-9.01583207716831</v>
       </c>
       <c r="J160" t="n">
-        <v>-9.28183266496127</v>
+        <v>-8.87658748982534</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.2728046288936</v>
+        <v>-4.35189294736197</v>
       </c>
       <c r="B161" t="n">
-        <v>9.69264513510549</v>
+        <v>-5.73782881361476</v>
       </c>
       <c r="C161" t="n">
-        <v>-6.36489561540088</v>
+        <v>-5.91333781458037</v>
       </c>
       <c r="D161" t="n">
-        <v>-6.860890991896</v>
+        <v>-6.31182983905653</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.93400443840886</v>
+        <v>-7.18723570564902</v>
       </c>
       <c r="F161" t="n">
-        <v>-7.39869187955784</v>
+        <v>-7.68408882714832</v>
       </c>
       <c r="G161" t="n">
-        <v>-7.50300594039521</v>
+        <v>-7.84556287683612</v>
       </c>
       <c r="H161" t="n">
-        <v>-8.56545216065093</v>
+        <v>-8.61441499628748</v>
       </c>
       <c r="I161" t="n">
-        <v>-8.75716791241022</v>
+        <v>-9.08891316265086</v>
       </c>
       <c r="J161" t="n">
-        <v>-9.70839116760972</v>
+        <v>-9.15325411607077</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>9.15985107385934</v>
+        <v>9.70217952773398</v>
       </c>
       <c r="B162" t="n">
-        <v>12.1800966219708</v>
+        <v>9.76708576065289</v>
       </c>
       <c r="C162" t="n">
-        <v>11.7674256134438</v>
+        <v>11.4306267047708</v>
       </c>
       <c r="D162" t="n">
-        <v>13.6080266299957</v>
+        <v>13.3038612892587</v>
       </c>
       <c r="E162" t="n">
-        <v>14.0881036805509</v>
+        <v>14.6473935097107</v>
       </c>
       <c r="F162" t="n">
-        <v>15.1918960766287</v>
+        <v>15.0709134150793</v>
       </c>
       <c r="G162" t="n">
-        <v>16.0477582763324</v>
+        <v>16.5011420624493</v>
       </c>
       <c r="H162" t="n">
-        <v>16.6884303398564</v>
+        <v>16.5664080630174</v>
       </c>
       <c r="I162" t="n">
-        <v>18.63613982631</v>
+        <v>17.5368387172686</v>
       </c>
       <c r="J162" t="n">
-        <v>18.4292742111776</v>
+        <v>20.2082861642109</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>12.3613317723461</v>
+        <v>10.689001693685</v>
       </c>
       <c r="B163" t="n">
-        <v>10.5508802805313</v>
+        <v>11.227381661731</v>
       </c>
       <c r="C163" t="n">
-        <v>11.2253101730939</v>
+        <v>-5.96298724091362</v>
       </c>
       <c r="D163" t="n">
-        <v>12.0836708913238</v>
+        <v>-6.57786164631321</v>
       </c>
       <c r="E163" t="n">
-        <v>13.3318607819195</v>
+        <v>-6.9830508263101</v>
       </c>
       <c r="F163" t="n">
-        <v>14.9507625083479</v>
+        <v>-7.78677666047058</v>
       </c>
       <c r="G163" t="n">
-        <v>15.2925388917872</v>
+        <v>-8.02060759716573</v>
       </c>
       <c r="H163" t="n">
-        <v>17.1356193955029</v>
+        <v>-8.68404462135197</v>
       </c>
       <c r="I163" t="n">
-        <v>18.5717813877292</v>
+        <v>-8.97891006721556</v>
       </c>
       <c r="J163" t="n">
-        <v>17.900026979858</v>
+        <v>-9.36605809831164</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.7220922494864</v>
+        <v>9.28521283065178</v>
       </c>
       <c r="B164" t="n">
-        <v>11.3627979277746</v>
+        <v>10.8203878515239</v>
       </c>
       <c r="C164" t="n">
-        <v>11.5745435960915</v>
+        <v>11.1393542590642</v>
       </c>
       <c r="D164" t="n">
-        <v>13.2477038188159</v>
+        <v>11.8934144626971</v>
       </c>
       <c r="E164" t="n">
-        <v>13.4232618241077</v>
+        <v>-7.35173891679113</v>
       </c>
       <c r="F164" t="n">
-        <v>14.1684687111947</v>
+        <v>-7.53211758712033</v>
       </c>
       <c r="G164" t="n">
-        <v>16.1468074660121</v>
+        <v>-7.56927076170232</v>
       </c>
       <c r="H164" t="n">
-        <v>19.2517749816537</v>
+        <v>-8.8196604153731</v>
       </c>
       <c r="I164" t="n">
-        <v>18.8313081859982</v>
+        <v>-8.79125509435252</v>
       </c>
       <c r="J164" t="n">
-        <v>-9.79908106377292</v>
+        <v>-9.29248854869114</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.3875758716954</v>
+        <v>10.771476585513</v>
       </c>
       <c r="B165" t="n">
-        <v>11.009006906423</v>
+        <v>10.2861415926414</v>
       </c>
       <c r="C165" t="n">
-        <v>11.3270346749805</v>
+        <v>-6.10249198507396</v>
       </c>
       <c r="D165" t="n">
-        <v>13.0717839778842</v>
+        <v>-6.83134341470122</v>
       </c>
       <c r="E165" t="n">
-        <v>14.0928933913613</v>
+        <v>-7.02990747580455</v>
       </c>
       <c r="F165" t="n">
-        <v>15.2684730554017</v>
+        <v>-7.49507353772236</v>
       </c>
       <c r="G165" t="n">
-        <v>15.8647373728668</v>
+        <v>-7.6928637795286</v>
       </c>
       <c r="H165" t="n">
-        <v>17.2880497276859</v>
+        <v>-8.51756887769729</v>
       </c>
       <c r="I165" t="n">
-        <v>17.5911966405232</v>
+        <v>-9.29917611843098</v>
       </c>
       <c r="J165" t="n">
-        <v>20.4015301816196</v>
+        <v>-9.47038933698694</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>11.5403774397202</v>
+        <v>9.23679659281062</v>
       </c>
       <c r="B166" t="n">
-        <v>10.7938450987137</v>
+        <v>11.9877164320475</v>
       </c>
       <c r="C166" t="n">
-        <v>11.9178263014121</v>
+        <v>12.6481708387189</v>
       </c>
       <c r="D166" t="n">
-        <v>14.3900970176426</v>
+        <v>12.1540468866649</v>
       </c>
       <c r="E166" t="n">
-        <v>12.7249429002063</v>
+        <v>13.7357042003903</v>
       </c>
       <c r="F166" t="n">
-        <v>15.7957557248708</v>
+        <v>15.2939275010751</v>
       </c>
       <c r="G166" t="n">
-        <v>15.6781435057869</v>
+        <v>15.859854342365</v>
       </c>
       <c r="H166" t="n">
-        <v>17.6023381974721</v>
+        <v>16.7729260982574</v>
       </c>
       <c r="I166" t="n">
-        <v>18.2128330046194</v>
+        <v>17.1177851850074</v>
       </c>
       <c r="J166" t="n">
-        <v>18.0059270466244</v>
+        <v>19.7356481101272</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.1609055116313</v>
+        <v>9.61464592514422</v>
       </c>
       <c r="B167" t="n">
-        <v>11.5296880579644</v>
+        <v>-5.69755096526083</v>
       </c>
       <c r="C167" t="n">
-        <v>12.1578544463534</v>
+        <v>-6.1899934337738</v>
       </c>
       <c r="D167" t="n">
-        <v>13.3821893757041</v>
+        <v>-6.33035326727174</v>
       </c>
       <c r="E167" t="n">
-        <v>14.0823960295358</v>
+        <v>-7.01583877208823</v>
       </c>
       <c r="F167" t="n">
-        <v>14.5074261666056</v>
+        <v>-7.50187386857171</v>
       </c>
       <c r="G167" t="n">
-        <v>16.5996396809389</v>
+        <v>-7.93116329688964</v>
       </c>
       <c r="H167" t="n">
-        <v>16.9758555677846</v>
+        <v>-8.77302349301731</v>
       </c>
       <c r="I167" t="n">
-        <v>17.7867892504919</v>
+        <v>-9.23946992621968</v>
       </c>
       <c r="J167" t="n">
-        <v>17.4232166199599</v>
+        <v>-9.74964020686312</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.85033866002748</v>
+        <v>8.73345994941793</v>
       </c>
       <c r="B168" t="n">
-        <v>-5.81110485606814</v>
+        <v>10.4111788263604</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.38023092947555</v>
+        <v>11.7220686527526</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.37130970762167</v>
+        <v>12.9779402537472</v>
       </c>
       <c r="E168" t="n">
-        <v>-7.05419341612249</v>
+        <v>13.5026692078054</v>
       </c>
       <c r="F168" t="n">
-        <v>-7.27038307976673</v>
+        <v>-7.15909183610328</v>
       </c>
       <c r="G168" t="n">
-        <v>-7.92915678931678</v>
+        <v>-7.99069065857533</v>
       </c>
       <c r="H168" t="n">
-        <v>-8.35165359152363</v>
+        <v>-8.80913603439931</v>
       </c>
       <c r="I168" t="n">
-        <v>-9.36423402643963</v>
+        <v>-9.02468144298661</v>
       </c>
       <c r="J168" t="n">
-        <v>-9.82885689722612</v>
+        <v>-9.22510572490016</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.85680784959477</v>
+        <v>11.2588822469245</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.70335722635985</v>
+        <v>10.4581680060802</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.29355894814454</v>
+        <v>12.3062860815527</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.64800685116046</v>
+        <v>12.5454689145207</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.5794949250704</v>
+        <v>14.2790901256937</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.41559788217487</v>
+        <v>14.4203930701686</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.9430314830422</v>
+        <v>16.4784533699474</v>
       </c>
       <c r="H169" t="n">
-        <v>-8.52161821506019</v>
+        <v>-8.19304527748021</v>
       </c>
       <c r="I169" t="n">
-        <v>-9.50129784932821</v>
+        <v>-8.86924533332326</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.31270151310566</v>
+        <v>18.7402277135435</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.3728767360546</v>
+        <v>10.0040143836628</v>
       </c>
       <c r="B170" t="n">
-        <v>11.1368436462274</v>
+        <v>10.9902901085019</v>
       </c>
       <c r="C170" t="n">
-        <v>12.1005258296566</v>
+        <v>12.4209795194258</v>
       </c>
       <c r="D170" t="n">
-        <v>12.8242138241435</v>
+        <v>-6.68449797831864</v>
       </c>
       <c r="E170" t="n">
-        <v>12.8441396070184</v>
+        <v>-6.72822714237015</v>
       </c>
       <c r="F170" t="n">
-        <v>15.3570310316811</v>
+        <v>-7.46258898014303</v>
       </c>
       <c r="G170" t="n">
-        <v>16.0219020153996</v>
+        <v>-8.07312180360988</v>
       </c>
       <c r="H170" t="n">
-        <v>17.2086002861767</v>
+        <v>-8.31584004170919</v>
       </c>
       <c r="I170" t="n">
-        <v>16.7064528453317</v>
+        <v>-9.30901988274091</v>
       </c>
       <c r="J170" t="n">
-        <v>18.4334965857252</v>
+        <v>-9.5448637908944</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-4.99142300477946</v>
+        <v>9.53926660889662</v>
       </c>
       <c r="B171" t="n">
-        <v>-6.15930396611197</v>
+        <v>10.1178171956927</v>
       </c>
       <c r="C171" t="n">
-        <v>-6.05321953910256</v>
+        <v>12.8935505892622</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.62022775694318</v>
+        <v>13.3996520055809</v>
       </c>
       <c r="E171" t="n">
-        <v>-7.04865926003921</v>
+        <v>14.2613171360506</v>
       </c>
       <c r="F171" t="n">
-        <v>-6.97132693321967</v>
+        <v>15.2713786688383</v>
       </c>
       <c r="G171" t="n">
-        <v>-7.68680727630003</v>
+        <v>16.6129924337771</v>
       </c>
       <c r="H171" t="n">
-        <v>-9.18165800384187</v>
+        <v>17.445004501466</v>
       </c>
       <c r="I171" t="n">
-        <v>-8.97816763713538</v>
+        <v>17.4286578326548</v>
       </c>
       <c r="J171" t="n">
-        <v>-9.28072143999144</v>
+        <v>19.7398309377061</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.194604602462</v>
+        <v>10.1149527558039</v>
       </c>
       <c r="B172" t="n">
-        <v>11.0028142148929</v>
+        <v>10.5914338566785</v>
       </c>
       <c r="C172" t="n">
-        <v>10.5625765438735</v>
+        <v>13.1390657275916</v>
       </c>
       <c r="D172" t="n">
-        <v>12.6917678018264</v>
+        <v>12.7962139494181</v>
       </c>
       <c r="E172" t="n">
-        <v>14.2229344708378</v>
+        <v>13.8453027261331</v>
       </c>
       <c r="F172" t="n">
-        <v>13.1373607692463</v>
+        <v>15.0823254436422</v>
       </c>
       <c r="G172" t="n">
-        <v>16.8556268272586</v>
+        <v>-8.53838044095313</v>
       </c>
       <c r="H172" t="n">
-        <v>16.3406992040318</v>
+        <v>-8.62937477194029</v>
       </c>
       <c r="I172" t="n">
-        <v>17.9827386240505</v>
+        <v>-9.47378412133145</v>
       </c>
       <c r="J172" t="n">
-        <v>18.4076514963951</v>
+        <v>-9.27030906160285</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.98573426777167</v>
+        <v>8.87598512558116</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.56701043894479</v>
+        <v>10.4183826070482</v>
       </c>
       <c r="C173" t="n">
-        <v>-5.97905722583751</v>
+        <v>11.0391493325413</v>
       </c>
       <c r="D173" t="n">
-        <v>-6.44632122136575</v>
+        <v>13.0437637600528</v>
       </c>
       <c r="E173" t="n">
-        <v>-7.16107733982763</v>
+        <v>14.0352187136315</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.30285284119215</v>
+        <v>14.683030461213</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.97416255626256</v>
+        <v>16.6202372212503</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.53493324958721</v>
+        <v>16.2199921160373</v>
       </c>
       <c r="I173" t="n">
-        <v>-8.81826894793721</v>
+        <v>17.319927963255</v>
       </c>
       <c r="J173" t="n">
-        <v>-9.80148025250598</v>
+        <v>18.1819739713963</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.0355326225136</v>
+        <v>9.44223289997804</v>
       </c>
       <c r="B174" t="n">
-        <v>10.277978489946</v>
+        <v>11.5817271227911</v>
       </c>
       <c r="C174" t="n">
-        <v>13.398555150715</v>
+        <v>13.0591377927911</v>
       </c>
       <c r="D174" t="n">
-        <v>13.4287627103399</v>
+        <v>13.0373290048283</v>
       </c>
       <c r="E174" t="n">
-        <v>13.8287095834719</v>
+        <v>13.2211773740358</v>
       </c>
       <c r="F174" t="n">
-        <v>14.0495382139623</v>
+        <v>15.0443591554935</v>
       </c>
       <c r="G174" t="n">
-        <v>16.1088547924378</v>
+        <v>15.8380500434563</v>
       </c>
       <c r="H174" t="n">
-        <v>17.7981983452723</v>
+        <v>17.3846343329392</v>
       </c>
       <c r="I174" t="n">
-        <v>17.4262965861067</v>
+        <v>18.9840079478807</v>
       </c>
       <c r="J174" t="n">
-        <v>19.033721852693</v>
+        <v>19.3320197191979</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-5.17687048242111</v>
+        <v>10.212108149882</v>
       </c>
       <c r="B175" t="n">
-        <v>-4.98582808391979</v>
+        <v>12.5091310623951</v>
       </c>
       <c r="C175" t="n">
-        <v>-5.7843707926592</v>
+        <v>11.7750083702472</v>
       </c>
       <c r="D175" t="n">
-        <v>-6.6998661965282</v>
+        <v>13.4832287736029</v>
       </c>
       <c r="E175" t="n">
-        <v>-6.96539625961887</v>
+        <v>13.8557807840255</v>
       </c>
       <c r="F175" t="n">
-        <v>-7.72474459719605</v>
+        <v>15.0144490189333</v>
       </c>
       <c r="G175" t="n">
-        <v>-7.89403640108287</v>
+        <v>15.8969486894754</v>
       </c>
       <c r="H175" t="n">
-        <v>-9.04894908227093</v>
+        <v>17.7739099277685</v>
       </c>
       <c r="I175" t="n">
-        <v>-8.9041171573926</v>
+        <v>17.7895652730328</v>
       </c>
       <c r="J175" t="n">
-        <v>-9.25895052726565</v>
+        <v>17.1193282772523</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>9.51047828798943</v>
+        <v>9.00068278831932</v>
       </c>
       <c r="B176" t="n">
-        <v>10.4841965360343</v>
+        <v>11.8493776842406</v>
       </c>
       <c r="C176" t="n">
-        <v>12.019184770339</v>
+        <v>11.6369231849472</v>
       </c>
       <c r="D176" t="n">
-        <v>-6.82546049471179</v>
+        <v>12.8066547006617</v>
       </c>
       <c r="E176" t="n">
-        <v>-7.10601268664383</v>
+        <v>14.6939008594792</v>
       </c>
       <c r="F176" t="n">
-        <v>-7.84815594958039</v>
+        <v>15.6534331765972</v>
       </c>
       <c r="G176" t="n">
-        <v>-7.56578633996201</v>
+        <v>16.5688006923834</v>
       </c>
       <c r="H176" t="n">
-        <v>-8.69111814145039</v>
+        <v>16.1150696910325</v>
       </c>
       <c r="I176" t="n">
-        <v>-9.8239849014349</v>
+        <v>17.0794046958388</v>
       </c>
       <c r="J176" t="n">
-        <v>-10.1343282191522</v>
+        <v>18.6748210556999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>8.84669503175189</v>
+        <v>-4.53567540924535</v>
       </c>
       <c r="B177" t="n">
-        <v>10.7339430254631</v>
+        <v>-5.36037014907789</v>
       </c>
       <c r="C177" t="n">
-        <v>12.7846411315466</v>
+        <v>-5.44979293432655</v>
       </c>
       <c r="D177" t="n">
-        <v>12.4774650487041</v>
+        <v>-6.69587986417221</v>
       </c>
       <c r="E177" t="n">
-        <v>14.3342764334526</v>
+        <v>-6.8228278727908</v>
       </c>
       <c r="F177" t="n">
-        <v>15.4661623842054</v>
+        <v>-8.10584595277345</v>
       </c>
       <c r="G177" t="n">
-        <v>15.9534119903873</v>
+        <v>-7.94361797636999</v>
       </c>
       <c r="H177" t="n">
-        <v>15.7383392320856</v>
+        <v>-8.26321361828255</v>
       </c>
       <c r="I177" t="n">
-        <v>17.7754426460547</v>
+        <v>-8.67597300843941</v>
       </c>
       <c r="J177" t="n">
-        <v>18.4171573708277</v>
+        <v>-9.48064907925814</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>9.69827064847933</v>
+        <v>9.49148033927759</v>
       </c>
       <c r="B178" t="n">
-        <v>11.5583478003502</v>
+        <v>10.2246565320954</v>
       </c>
       <c r="C178" t="n">
-        <v>13.1509636673557</v>
+        <v>13.1012461368602</v>
       </c>
       <c r="D178" t="n">
-        <v>12.912211138226</v>
+        <v>11.9484819371812</v>
       </c>
       <c r="E178" t="n">
-        <v>14.9579318510423</v>
+        <v>15.3542027154393</v>
       </c>
       <c r="F178" t="n">
-        <v>14.907678481336</v>
+        <v>14.5063481845002</v>
       </c>
       <c r="G178" t="n">
-        <v>-7.95012424497285</v>
+        <v>15.9344780797527</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.46090507511934</v>
+        <v>17.8576059170508</v>
       </c>
       <c r="I178" t="n">
-        <v>-8.83592430764443</v>
+        <v>17.1634877916894</v>
       </c>
       <c r="J178" t="n">
-        <v>-9.6112400868852</v>
+        <v>19.8708641655958</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-4.3935513638814</v>
+        <v>-4.75356238549173</v>
       </c>
       <c r="B179" t="n">
-        <v>-5.05548681583362</v>
+        <v>-5.47226891620965</v>
       </c>
       <c r="C179" t="n">
-        <v>-6.13965773126126</v>
+        <v>-6.28172518508708</v>
       </c>
       <c r="D179" t="n">
-        <v>-6.31830390674455</v>
+        <v>-6.3373185827251</v>
       </c>
       <c r="E179" t="n">
-        <v>-7.14392339784389</v>
+        <v>-7.06577825947309</v>
       </c>
       <c r="F179" t="n">
-        <v>-7.56945086258924</v>
+        <v>-7.36926480408548</v>
       </c>
       <c r="G179" t="n">
-        <v>-7.93761093615922</v>
+        <v>-8.10250706224502</v>
       </c>
       <c r="H179" t="n">
-        <v>-8.27753727093397</v>
+        <v>-8.62355860662206</v>
       </c>
       <c r="I179" t="n">
-        <v>-9.31848694190512</v>
+        <v>-9.23359518784125</v>
       </c>
       <c r="J179" t="n">
-        <v>-9.96364663415051</v>
+        <v>-9.43258240485834</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>8.99089807013529</v>
+        <v>9.81645049671601</v>
       </c>
       <c r="B180" t="n">
-        <v>10.951788788685</v>
+        <v>10.4811090213227</v>
       </c>
       <c r="C180" t="n">
-        <v>11.9605826661044</v>
+        <v>12.2043745249118</v>
       </c>
       <c r="D180" t="n">
-        <v>13.3026349762017</v>
+        <v>12.2597827790419</v>
       </c>
       <c r="E180" t="n">
-        <v>13.5374395162735</v>
+        <v>13.1729893337363</v>
       </c>
       <c r="F180" t="n">
-        <v>14.8792613854118</v>
+        <v>14.1718645884423</v>
       </c>
       <c r="G180" t="n">
-        <v>15.6874707958858</v>
+        <v>15.4497504930565</v>
       </c>
       <c r="H180" t="n">
-        <v>17.5265235898939</v>
+        <v>16.4115938892878</v>
       </c>
       <c r="I180" t="n">
-        <v>19.1193648051379</v>
+        <v>17.9009864375003</v>
       </c>
       <c r="J180" t="n">
-        <v>18.3286951879749</v>
+        <v>18.3661982412444</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>8.60630977708263</v>
+        <v>10.8710371782915</v>
       </c>
       <c r="B181" t="n">
-        <v>10.3364542024071</v>
+        <v>10.3305024220525</v>
       </c>
       <c r="C181" t="n">
-        <v>12.7047794518552</v>
+        <v>-6.45626390867789</v>
       </c>
       <c r="D181" t="n">
-        <v>14.388365645362</v>
+        <v>-6.26664111181879</v>
       </c>
       <c r="E181" t="n">
-        <v>12.6310695512182</v>
+        <v>-6.78289160554907</v>
       </c>
       <c r="F181" t="n">
-        <v>15.6877711225745</v>
+        <v>-7.43303003200674</v>
       </c>
       <c r="G181" t="n">
-        <v>16.1411565040521</v>
+        <v>-7.99809334616629</v>
       </c>
       <c r="H181" t="n">
-        <v>18.0022115709581</v>
+        <v>-8.37304903660241</v>
       </c>
       <c r="I181" t="n">
-        <v>19.2194082597775</v>
+        <v>-9.05975533402235</v>
       </c>
       <c r="J181" t="n">
-        <v>18.53689878159</v>
+        <v>-9.80266158751122</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-4.94391621074392</v>
+        <v>-4.83099418063203</v>
       </c>
       <c r="B182" t="n">
-        <v>-5.39869173555119</v>
+        <v>-5.62917107150118</v>
       </c>
       <c r="C182" t="n">
-        <v>-5.97288666099028</v>
+        <v>-5.5925871512124</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.43089943980658</v>
+        <v>-6.26652656357972</v>
       </c>
       <c r="E182" t="n">
-        <v>-6.87171898365025</v>
+        <v>-6.94324815848728</v>
       </c>
       <c r="F182" t="n">
-        <v>-7.4489986641699</v>
+        <v>-7.36953623946503</v>
       </c>
       <c r="G182" t="n">
-        <v>-7.41509179252799</v>
+        <v>-8.05410353984999</v>
       </c>
       <c r="H182" t="n">
-        <v>-8.79362185283226</v>
+        <v>-8.52472042636724</v>
       </c>
       <c r="I182" t="n">
-        <v>-9.0337890624158</v>
+        <v>-9.18545298355692</v>
       </c>
       <c r="J182" t="n">
-        <v>-8.92915897240841</v>
+        <v>-9.47608268186903</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11.3543170601382</v>
+        <v>9.92286275735759</v>
       </c>
       <c r="B183" t="n">
-        <v>10.7676925167207</v>
+        <v>10.2192936752687</v>
       </c>
       <c r="C183" t="n">
-        <v>11.1723592032417</v>
+        <v>-6.38531591189082</v>
       </c>
       <c r="D183" t="n">
-        <v>13.3074955444632</v>
+        <v>-6.55897917235048</v>
       </c>
       <c r="E183" t="n">
-        <v>15.2045803291602</v>
+        <v>-7.05687572858419</v>
       </c>
       <c r="F183" t="n">
-        <v>-7.50303716786162</v>
+        <v>-7.00610215259588</v>
       </c>
       <c r="G183" t="n">
-        <v>-8.32150450929402</v>
+        <v>-8.43126103165992</v>
       </c>
       <c r="H183" t="n">
-        <v>-7.8607286102147</v>
+        <v>-8.64488692256892</v>
       </c>
       <c r="I183" t="n">
-        <v>-9.02227113886809</v>
+        <v>-9.20491038223656</v>
       </c>
       <c r="J183" t="n">
-        <v>-9.5856782932491</v>
+        <v>-9.62654954863567</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>9.52403710142329</v>
+        <v>-5.08329087352079</v>
       </c>
       <c r="B184" t="n">
-        <v>11.3787713056691</v>
+        <v>-5.42918512269782</v>
       </c>
       <c r="C184" t="n">
-        <v>12.0288395795357</v>
+        <v>-5.85712048874664</v>
       </c>
       <c r="D184" t="n">
-        <v>11.8317581411522</v>
+        <v>-6.63987473568871</v>
       </c>
       <c r="E184" t="n">
-        <v>13.4072308957725</v>
+        <v>-6.8338975479717</v>
       </c>
       <c r="F184" t="n">
-        <v>-7.41628927448931</v>
+        <v>-7.42869233267145</v>
       </c>
       <c r="G184" t="n">
-        <v>-7.59189824911676</v>
+        <v>-7.73878701042563</v>
       </c>
       <c r="H184" t="n">
-        <v>-8.46608822040037</v>
+        <v>-8.80058167857749</v>
       </c>
       <c r="I184" t="n">
-        <v>-8.55860461147443</v>
+        <v>-9.04374492138367</v>
       </c>
       <c r="J184" t="n">
-        <v>-9.67356718975767</v>
+        <v>-9.4541882087338</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>9.68308506576446</v>
+        <v>10.8385404527194</v>
       </c>
       <c r="B185" t="n">
-        <v>11.8251852897023</v>
+        <v>10.0233246286238</v>
       </c>
       <c r="C185" t="n">
-        <v>-6.30854280762592</v>
+        <v>13.0949856086516</v>
       </c>
       <c r="D185" t="n">
-        <v>-7.07658947644276</v>
+        <v>12.7672189409417</v>
       </c>
       <c r="E185" t="n">
-        <v>-7.04218293550678</v>
+        <v>14.1728704839978</v>
       </c>
       <c r="F185" t="n">
-        <v>-7.43406606730667</v>
+        <v>14.5637121889386</v>
       </c>
       <c r="G185" t="n">
-        <v>-7.74695511609672</v>
+        <v>15.6391575795773</v>
       </c>
       <c r="H185" t="n">
-        <v>-8.48187561855895</v>
+        <v>17.0034421389743</v>
       </c>
       <c r="I185" t="n">
-        <v>-9.09632063767801</v>
+        <v>18.1959935619437</v>
       </c>
       <c r="J185" t="n">
-        <v>-9.15268372039404</v>
+        <v>19.0621221851466</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>9.9879847176374</v>
+        <v>-4.78862699657163</v>
       </c>
       <c r="B186" t="n">
-        <v>11.1578069308803</v>
+        <v>-5.17353289731405</v>
       </c>
       <c r="C186" t="n">
-        <v>12.4312320302262</v>
+        <v>-6.20628691417088</v>
       </c>
       <c r="D186" t="n">
-        <v>12.6470948668493</v>
+        <v>-6.48357674713786</v>
       </c>
       <c r="E186" t="n">
-        <v>14.0282850637858</v>
+        <v>-6.81224772659662</v>
       </c>
       <c r="F186" t="n">
-        <v>13.48877817153</v>
+        <v>-7.95632798418703</v>
       </c>
       <c r="G186" t="n">
-        <v>15.8160364607869</v>
+        <v>-8.08619129719559</v>
       </c>
       <c r="H186" t="n">
-        <v>16.243621799334</v>
+        <v>-8.32492674900893</v>
       </c>
       <c r="I186" t="n">
-        <v>18.5361826047914</v>
+        <v>-8.81178056103303</v>
       </c>
       <c r="J186" t="n">
-        <v>19.8894736531043</v>
+        <v>-9.63854384704354</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-4.51440856159996</v>
+        <v>10.3061362752998</v>
       </c>
       <c r="B187" t="n">
-        <v>-5.61020244124795</v>
+        <v>-5.88458602731581</v>
       </c>
       <c r="C187" t="n">
-        <v>-6.05915186561831</v>
+        <v>-6.24465383124556</v>
       </c>
       <c r="D187" t="n">
-        <v>-6.75830573984911</v>
+        <v>-6.48671019554113</v>
       </c>
       <c r="E187" t="n">
-        <v>-7.12989683675424</v>
+        <v>-6.98870899805235</v>
       </c>
       <c r="F187" t="n">
-        <v>-7.13860332118702</v>
+        <v>-7.38468147596468</v>
       </c>
       <c r="G187" t="n">
-        <v>-8.10292573624255</v>
+        <v>-8.25023269195312</v>
       </c>
       <c r="H187" t="n">
-        <v>-8.37605399217318</v>
+        <v>-8.75687698055639</v>
       </c>
       <c r="I187" t="n">
-        <v>-9.16068367003153</v>
+        <v>-8.78219231205297</v>
       </c>
       <c r="J187" t="n">
-        <v>-9.65930873912958</v>
+        <v>-9.72822256274759</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>10.5394642822446</v>
+        <v>9.90880034117918</v>
       </c>
       <c r="B188" t="n">
-        <v>11.7925715844172</v>
+        <v>11.0694237096851</v>
       </c>
       <c r="C188" t="n">
-        <v>11.7626568933329</v>
+        <v>12.3582684023013</v>
       </c>
       <c r="D188" t="n">
-        <v>12.0728327868483</v>
+        <v>12.4171415543915</v>
       </c>
       <c r="E188" t="n">
-        <v>13.6377195517379</v>
+        <v>14.7175897641256</v>
       </c>
       <c r="F188" t="n">
-        <v>15.1536385418204</v>
+        <v>15.5473371902965</v>
       </c>
       <c r="G188" t="n">
-        <v>15.9153636813141</v>
+        <v>15.3929972048872</v>
       </c>
       <c r="H188" t="n">
-        <v>16.3212299177767</v>
+        <v>17.1986308188457</v>
       </c>
       <c r="I188" t="n">
-        <v>19.585096311051</v>
+        <v>19.2595809899226</v>
       </c>
       <c r="J188" t="n">
-        <v>19.8310784322578</v>
+        <v>19.6280451358719</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-4.5502269456455</v>
+        <v>8.4807031684389</v>
       </c>
       <c r="B189" t="n">
-        <v>-5.53571767472264</v>
+        <v>11.0971833001829</v>
       </c>
       <c r="C189" t="n">
-        <v>-5.89819120248327</v>
+        <v>12.1402224932632</v>
       </c>
       <c r="D189" t="n">
-        <v>-6.4422664150116</v>
+        <v>12.0421728979165</v>
       </c>
       <c r="E189" t="n">
-        <v>-7.06782486699156</v>
+        <v>13.9195093944987</v>
       </c>
       <c r="F189" t="n">
-        <v>-7.55635699564907</v>
+        <v>-7.84216734188543</v>
       </c>
       <c r="G189" t="n">
-        <v>-8.12808540018842</v>
+        <v>-8.02717471719304</v>
       </c>
       <c r="H189" t="n">
-        <v>-8.67206222420523</v>
+        <v>-8.37852522751754</v>
       </c>
       <c r="I189" t="n">
-        <v>-9.18525980855533</v>
+        <v>-8.8652774563015</v>
       </c>
       <c r="J189" t="n">
-        <v>-9.39838281344814</v>
+        <v>-9.34514308859135</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>10.2321029610347</v>
+        <v>-4.85936799388198</v>
       </c>
       <c r="B190" t="n">
-        <v>11.5171445280483</v>
+        <v>-6.06097935803352</v>
       </c>
       <c r="C190" t="n">
-        <v>10.284321338696</v>
+        <v>-6.32724677478205</v>
       </c>
       <c r="D190" t="n">
-        <v>13.1524352954432</v>
+        <v>-6.25974679181359</v>
       </c>
       <c r="E190" t="n">
-        <v>12.9238350998618</v>
+        <v>-7.34856974326808</v>
       </c>
       <c r="F190" t="n">
-        <v>14.9839846658092</v>
+        <v>-7.26000664550179</v>
       </c>
       <c r="G190" t="n">
-        <v>14.5362326919409</v>
+        <v>-8.27582816655115</v>
       </c>
       <c r="H190" t="n">
-        <v>16.5000993940399</v>
+        <v>-8.33089054610301</v>
       </c>
       <c r="I190" t="n">
-        <v>17.0312636580559</v>
+        <v>-8.92082942612204</v>
       </c>
       <c r="J190" t="n">
-        <v>18.2088215052752</v>
+        <v>-9.51169782010164</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-5.04608179290195</v>
+        <v>10.5192144288403</v>
       </c>
       <c r="B191" t="n">
-        <v>-5.88435755204791</v>
+        <v>10.5827782815316</v>
       </c>
       <c r="C191" t="n">
-        <v>-5.85313544276495</v>
+        <v>12.6164591178889</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.68452092770497</v>
+        <v>13.3729846620034</v>
       </c>
       <c r="E191" t="n">
-        <v>-6.87850403352363</v>
+        <v>13.3987965162254</v>
       </c>
       <c r="F191" t="n">
-        <v>-7.52572589376271</v>
+        <v>14.7577552610203</v>
       </c>
       <c r="G191" t="n">
-        <v>-7.88479555858914</v>
+        <v>15.6898743396588</v>
       </c>
       <c r="H191" t="n">
-        <v>-8.59628547022425</v>
+        <v>16.6621657860949</v>
       </c>
       <c r="I191" t="n">
-        <v>-8.78873865099565</v>
+        <v>17.6360845301003</v>
       </c>
       <c r="J191" t="n">
-        <v>-9.26562758938059</v>
+        <v>19.704728850533</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>9.44891776480547</v>
+        <v>9.706703535921</v>
       </c>
       <c r="B192" t="n">
-        <v>9.41352499274727</v>
+        <v>10.8659783795619</v>
       </c>
       <c r="C192" t="n">
-        <v>11.7044663944781</v>
+        <v>12.5220793752242</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.66694990740232</v>
+        <v>13.9746837371593</v>
       </c>
       <c r="E192" t="n">
-        <v>-7.61475221949376</v>
+        <v>15.333844035482</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.48891619048968</v>
+        <v>15.9576399936457</v>
       </c>
       <c r="G192" t="n">
-        <v>-8.28783482866569</v>
+        <v>16.4462551200996</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.32832444936821</v>
+        <v>16.4255137699747</v>
       </c>
       <c r="I192" t="n">
-        <v>-9.12658881423632</v>
+        <v>17.8892666129452</v>
       </c>
       <c r="J192" t="n">
-        <v>-9.3111096983501</v>
+        <v>17.7015509127333</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-4.67680125091553</v>
+        <v>9.59259839731678</v>
       </c>
       <c r="B193" t="n">
-        <v>-5.07433254849416</v>
+        <v>10.4672388791185</v>
       </c>
       <c r="C193" t="n">
-        <v>-5.37054097700492</v>
+        <v>11.5563927214166</v>
       </c>
       <c r="D193" t="n">
-        <v>-6.55280489248455</v>
+        <v>-6.42787071045522</v>
       </c>
       <c r="E193" t="n">
-        <v>-6.60231038658724</v>
+        <v>-7.31100030947962</v>
       </c>
       <c r="F193" t="n">
-        <v>-7.1729217532951</v>
+        <v>-7.4865725737495</v>
       </c>
       <c r="G193" t="n">
-        <v>-8.34846964560873</v>
+        <v>-8.31189733113468</v>
       </c>
       <c r="H193" t="n">
-        <v>-8.23474852942401</v>
+        <v>-9.0681753772174</v>
       </c>
       <c r="I193" t="n">
-        <v>-9.1150779010708</v>
+        <v>-8.98100355663696</v>
       </c>
       <c r="J193" t="n">
-        <v>-9.64419480596174</v>
+        <v>-9.54804540314594</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>8.64195133000992</v>
+        <v>9.84452362440456</v>
       </c>
       <c r="B194" t="n">
-        <v>10.704244849506</v>
+        <v>12.271173842706</v>
       </c>
       <c r="C194" t="n">
-        <v>11.889187756035</v>
+        <v>11.8772480185182</v>
       </c>
       <c r="D194" t="n">
-        <v>12.6046714212456</v>
+        <v>12.2904178400321</v>
       </c>
       <c r="E194" t="n">
-        <v>-7.48033635575044</v>
+        <v>14.7438293375733</v>
       </c>
       <c r="F194" t="n">
-        <v>-7.50450970734657</v>
+        <v>15.7175846087373</v>
       </c>
       <c r="G194" t="n">
-        <v>-8.2116850091559</v>
+        <v>15.280400083077</v>
       </c>
       <c r="H194" t="n">
-        <v>-8.6755293344608</v>
+        <v>-8.47281026241435</v>
       </c>
       <c r="I194" t="n">
-        <v>-9.18742392680603</v>
+        <v>-8.85302371514135</v>
       </c>
       <c r="J194" t="n">
-        <v>-9.42747725877864</v>
+        <v>-9.28353290723042</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>9.03621728360304</v>
+        <v>9.66402829905599</v>
       </c>
       <c r="B195" t="n">
-        <v>10.3180319307748</v>
+        <v>11.0025356423867</v>
       </c>
       <c r="C195" t="n">
-        <v>11.6628710076736</v>
+        <v>11.4136354485906</v>
       </c>
       <c r="D195" t="n">
-        <v>13.6581519010691</v>
+        <v>13.2774977627545</v>
       </c>
       <c r="E195" t="n">
-        <v>12.7795030974159</v>
+        <v>13.6943929243802</v>
       </c>
       <c r="F195" t="n">
-        <v>14.7135451981045</v>
+        <v>15.6902124740573</v>
       </c>
       <c r="G195" t="n">
-        <v>14.2661722432795</v>
+        <v>14.5658745939555</v>
       </c>
       <c r="H195" t="n">
-        <v>17.5694676027281</v>
+        <v>16.085853885096</v>
       </c>
       <c r="I195" t="n">
-        <v>-8.99662610190949</v>
+        <v>18.7733130755621</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.14207866249655</v>
+        <v>18.3350685299962</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>9.74734676955756</v>
+        <v>10.0385229644887</v>
       </c>
       <c r="B196" t="n">
-        <v>12.6579794850621</v>
+        <v>12.03059316685</v>
       </c>
       <c r="C196" t="n">
-        <v>12.8257193230222</v>
+        <v>13.3370442110496</v>
       </c>
       <c r="D196" t="n">
-        <v>13.035627335225</v>
+        <v>11.7382647404161</v>
       </c>
       <c r="E196" t="n">
-        <v>13.3612003492071</v>
+        <v>13.9137895854454</v>
       </c>
       <c r="F196" t="n">
-        <v>15.3149872902548</v>
+        <v>14.1722769403404</v>
       </c>
       <c r="G196" t="n">
-        <v>14.4340317687835</v>
+        <v>16.2552657274504</v>
       </c>
       <c r="H196" t="n">
-        <v>16.8466081117804</v>
+        <v>17.8995493092611</v>
       </c>
       <c r="I196" t="n">
-        <v>17.1396758861862</v>
+        <v>19.4622203487036</v>
       </c>
       <c r="J196" t="n">
-        <v>17.7377472526405</v>
+        <v>17.8199346037398</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.6736733251682</v>
+        <v>8.5897738812323</v>
       </c>
       <c r="B197" t="n">
-        <v>10.8478245589559</v>
+        <v>11.6812957811702</v>
       </c>
       <c r="C197" t="n">
-        <v>12.4420805139406</v>
+        <v>12.1051403163282</v>
       </c>
       <c r="D197" t="n">
-        <v>12.6208195872192</v>
+        <v>13.2989082639937</v>
       </c>
       <c r="E197" t="n">
-        <v>13.4503469469374</v>
+        <v>14.334751669354</v>
       </c>
       <c r="F197" t="n">
-        <v>14.5033222368503</v>
+        <v>15.9213709431756</v>
       </c>
       <c r="G197" t="n">
-        <v>15.5447374166477</v>
+        <v>16.3203939119966</v>
       </c>
       <c r="H197" t="n">
-        <v>16.7444026672726</v>
+        <v>-8.47661287899342</v>
       </c>
       <c r="I197" t="n">
-        <v>18.3239425366033</v>
+        <v>-8.65755217369415</v>
       </c>
       <c r="J197" t="n">
-        <v>18.7161273213846</v>
+        <v>-9.481145663831</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-4.87678834990661</v>
+        <v>11.117630130794</v>
       </c>
       <c r="B198" t="n">
-        <v>-5.46700613644904</v>
+        <v>11.234468918228</v>
       </c>
       <c r="C198" t="n">
-        <v>-6.31005402388859</v>
+        <v>11.125400196446</v>
       </c>
       <c r="D198" t="n">
-        <v>-6.2160877397831</v>
+        <v>13.1728529138895</v>
       </c>
       <c r="E198" t="n">
-        <v>-7.36190973109337</v>
+        <v>14.1471159614379</v>
       </c>
       <c r="F198" t="n">
-        <v>-7.59204213621884</v>
+        <v>14.6721096929452</v>
       </c>
       <c r="G198" t="n">
-        <v>-8.18419320400223</v>
+        <v>15.8893714627135</v>
       </c>
       <c r="H198" t="n">
-        <v>-8.46801276924994</v>
+        <v>-8.65761568768279</v>
       </c>
       <c r="I198" t="n">
-        <v>-9.29147231618527</v>
+        <v>-8.89288415351476</v>
       </c>
       <c r="J198" t="n">
-        <v>-9.52108020333099</v>
+        <v>-9.39946307340754</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>9.40383919760474</v>
+        <v>10.5367222217045</v>
       </c>
       <c r="B199" t="n">
-        <v>10.1831450805242</v>
+        <v>10.4170881178283</v>
       </c>
       <c r="C199" t="n">
-        <v>11.8235015511267</v>
+        <v>12.3499754264627</v>
       </c>
       <c r="D199" t="n">
-        <v>12.3881379818164</v>
+        <v>11.9333921363031</v>
       </c>
       <c r="E199" t="n">
-        <v>14.0886898537684</v>
+        <v>13.8488047999942</v>
       </c>
       <c r="F199" t="n">
-        <v>15.6458313444989</v>
+        <v>16.0988478453754</v>
       </c>
       <c r="G199" t="n">
-        <v>16.0030304214426</v>
+        <v>16.8820871154453</v>
       </c>
       <c r="H199" t="n">
-        <v>15.9163160606604</v>
+        <v>16.1856228951856</v>
       </c>
       <c r="I199" t="n">
-        <v>17.3119424823293</v>
+        <v>17.1270663317514</v>
       </c>
       <c r="J199" t="n">
-        <v>18.8752094318648</v>
+        <v>20.423388447013</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-5.16260657472642</v>
+        <v>9.97391102147434</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.56977752358491</v>
+        <v>12.1176494666298</v>
       </c>
       <c r="C200" t="n">
-        <v>-6.02743019787954</v>
+        <v>13.7051649272177</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.53352296114807</v>
+        <v>14.2171813631056</v>
       </c>
       <c r="E200" t="n">
-        <v>-7.47647135667828</v>
+        <v>14.58597183474</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.58640394189513</v>
+        <v>14.4995157088724</v>
       </c>
       <c r="G200" t="n">
-        <v>-8.18237144405396</v>
+        <v>17.1214622632593</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.4885305540522</v>
+        <v>15.7889609204913</v>
       </c>
       <c r="I200" t="n">
-        <v>-8.51128784777768</v>
+        <v>17.1589183897193</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.36345797937038</v>
+        <v>18.7024686876621</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>9.76824167218363</v>
+        <v>9.66279219824087</v>
       </c>
       <c r="B201" t="n">
-        <v>11.6437012878686</v>
+        <v>9.98968563033819</v>
       </c>
       <c r="C201" t="n">
-        <v>10.729227143188</v>
+        <v>11.9500021175151</v>
       </c>
       <c r="D201" t="n">
-        <v>13.477446244888</v>
+        <v>11.8822129256055</v>
       </c>
       <c r="E201" t="n">
-        <v>15.0953818677065</v>
+        <v>14.0890114132294</v>
       </c>
       <c r="F201" t="n">
-        <v>13.8495508611546</v>
+        <v>14.949545508179</v>
       </c>
       <c r="G201" t="n">
-        <v>16.6113518551162</v>
+        <v>16.2215459904888</v>
       </c>
       <c r="H201" t="n">
-        <v>17.0325783039984</v>
+        <v>-8.26823556549234</v>
       </c>
       <c r="I201" t="n">
-        <v>17.4459728858124</v>
+        <v>-9.07189930453212</v>
       </c>
       <c r="J201" t="n">
-        <v>19.4323270206759</v>
+        <v>-9.7955112302235</v>
       </c>
     </row>
   </sheetData>
